--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654FC9E3-1792-4C0A-8F62-962376F54392}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097731B8-C1EF-4A1D-872A-99C6B92E68A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,8 +399,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J73" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J73" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J74" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J74" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -696,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J73" sqref="A73:J73"/>
+      <selection activeCell="A74" sqref="A74:J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3053,6 +3053,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="17">
+        <v>43974</v>
+      </c>
+      <c r="B74" s="18">
+        <v>74760</v>
+      </c>
+      <c r="C74" s="19">
+        <v>341</v>
+      </c>
+      <c r="D74" s="19">
+        <v>1468</v>
+      </c>
+      <c r="E74" s="19">
+        <v>0</v>
+      </c>
+      <c r="F74" s="19">
+        <v>18</v>
+      </c>
+      <c r="G74" s="19">
+        <v>4</v>
+      </c>
+      <c r="H74" s="19">
+        <v>0</v>
+      </c>
+      <c r="I74" s="19">
+        <v>107</v>
+      </c>
+      <c r="J74" s="19">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097731B8-C1EF-4A1D-872A-99C6B92E68A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6DD62F-2BE2-47DC-A7ED-9B57C1589256}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,8 +399,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J74" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J74" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J75" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J75" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -696,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:J74"/>
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3082,6 +3082,38 @@
         <v>107</v>
       </c>
       <c r="J74" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="20">
+        <v>43975</v>
+      </c>
+      <c r="B75" s="21">
+        <v>75016</v>
+      </c>
+      <c r="C75" s="22">
+        <v>256</v>
+      </c>
+      <c r="D75" s="22">
+        <v>1469</v>
+      </c>
+      <c r="E75" s="22">
+        <v>1</v>
+      </c>
+      <c r="F75" s="22">
+        <v>16</v>
+      </c>
+      <c r="G75" s="22">
+        <v>3</v>
+      </c>
+      <c r="H75" s="22">
+        <v>2</v>
+      </c>
+      <c r="I75" s="22">
+        <v>107</v>
+      </c>
+      <c r="J75" s="22">
         <v>0</v>
       </c>
     </row>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6DD62F-2BE2-47DC-A7ED-9B57C1589256}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1046414C-717E-412E-86D2-D36B031D64B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,8 +399,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J75" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J75" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J76" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J76" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -696,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+      <selection activeCell="A76" sqref="A76:J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3117,6 +3117,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="20">
+        <v>43976</v>
+      </c>
+      <c r="B76" s="21">
+        <v>75770</v>
+      </c>
+      <c r="C76" s="22">
+        <v>754</v>
+      </c>
+      <c r="D76" s="22">
+        <v>1469</v>
+      </c>
+      <c r="E76" s="22">
+        <v>0</v>
+      </c>
+      <c r="F76" s="22">
+        <v>9</v>
+      </c>
+      <c r="G76" s="22">
+        <v>2</v>
+      </c>
+      <c r="H76" s="22">
+        <v>6</v>
+      </c>
+      <c r="I76" s="22">
+        <v>108</v>
+      </c>
+      <c r="J76" s="22">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1046414C-717E-412E-86D2-D36B031D64B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2151A594-BD8B-437B-A4BC-094AB668C90C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,8 +399,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J76" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J76" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J77" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J77" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -696,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:J76"/>
+      <selection activeCell="A77" sqref="A77:J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3149,6 +3149,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="20">
+        <v>43977</v>
+      </c>
+      <c r="B77" s="21">
+        <v>76579</v>
+      </c>
+      <c r="C77" s="22">
+        <v>809</v>
+      </c>
+      <c r="D77" s="22">
+        <v>1471</v>
+      </c>
+      <c r="E77" s="22">
+        <v>2</v>
+      </c>
+      <c r="F77" s="22">
+        <v>8</v>
+      </c>
+      <c r="G77" s="22">
+        <v>2</v>
+      </c>
+      <c r="H77" s="22">
+        <v>2</v>
+      </c>
+      <c r="I77" s="22">
+        <v>108</v>
+      </c>
+      <c r="J77" s="22">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2151A594-BD8B-437B-A4BC-094AB668C90C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682DB525-151F-46B1-8C23-B688EF458D07}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,8 +399,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J77" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J77" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J78" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J78" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -696,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:J77"/>
+      <selection activeCell="A78" sqref="A78:J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3181,6 +3181,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="20">
+        <v>43978</v>
+      </c>
+      <c r="B78" s="21">
+        <v>77210</v>
+      </c>
+      <c r="C78" s="22">
+        <v>631</v>
+      </c>
+      <c r="D78" s="22">
+        <v>1473</v>
+      </c>
+      <c r="E78" s="22">
+        <v>2</v>
+      </c>
+      <c r="F78" s="22">
+        <v>7</v>
+      </c>
+      <c r="G78" s="22">
+        <v>2</v>
+      </c>
+      <c r="H78" s="22">
+        <v>1</v>
+      </c>
+      <c r="I78" s="22">
+        <v>108</v>
+      </c>
+      <c r="J78" s="22">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682DB525-151F-46B1-8C23-B688EF458D07}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730BD8E4-8830-4CB9-85DE-3D4608545396}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,8 +399,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J78" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J78" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J79" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J79" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -696,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:J78"/>
+      <selection activeCell="A79" sqref="A79:J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3213,6 +3213,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="20">
+        <v>43979</v>
+      </c>
+      <c r="B79" s="21">
+        <v>77916</v>
+      </c>
+      <c r="C79" s="22">
+        <v>706</v>
+      </c>
+      <c r="D79" s="22">
+        <v>1473</v>
+      </c>
+      <c r="E79" s="22">
+        <v>0</v>
+      </c>
+      <c r="F79" s="22">
+        <v>7</v>
+      </c>
+      <c r="G79" s="22">
+        <v>2</v>
+      </c>
+      <c r="H79" s="22">
+        <v>0</v>
+      </c>
+      <c r="I79" s="22">
+        <v>108</v>
+      </c>
+      <c r="J79" s="22">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730BD8E4-8830-4CB9-85DE-3D4608545396}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBABD5B-7542-419C-99C2-1797D8CEE55F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,8 +399,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J79" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J79" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J80" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J80" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -696,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:J79"/>
+      <selection activeCell="A80" sqref="A80:J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3245,6 +3245,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="20">
+        <v>43980</v>
+      </c>
+      <c r="B80" s="21">
+        <v>78529</v>
+      </c>
+      <c r="C80" s="22">
+        <v>613</v>
+      </c>
+      <c r="D80" s="22">
+        <v>1473</v>
+      </c>
+      <c r="E80" s="22">
+        <v>0</v>
+      </c>
+      <c r="F80" s="22">
+        <v>7</v>
+      </c>
+      <c r="G80" s="22">
+        <v>2</v>
+      </c>
+      <c r="H80" s="22">
+        <v>0</v>
+      </c>
+      <c r="I80" s="22">
+        <v>108</v>
+      </c>
+      <c r="J80" s="22">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBABD5B-7542-419C-99C2-1797D8CEE55F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DADF33-DB18-477E-B813-3DBE9A11F99A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -399,8 +399,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J80" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J80" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J81" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J81" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -696,28 +696,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J80"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:J80"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:J81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -749,7 +749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>43902</v>
       </c>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>43903</v>
       </c>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>43904</v>
       </c>
@@ -845,7 +845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>43905</v>
       </c>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>43906</v>
       </c>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>43907</v>
       </c>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>43908</v>
       </c>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>43909</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>43910</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>43911</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>43912</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>43914</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>43915</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>43916</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>43917</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>43918</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>43919</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>43920</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>43921</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>43922</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>43923</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>43924</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>43925</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>43926</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>43927</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>43928</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>43929</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>43930</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>43931</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>43932</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>43933</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>43934</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>43935</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>43936</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>43937</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>43938</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>43939</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>43940</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>43941</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>43942</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>43943</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43944</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>43945</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>43946</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>43947</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>43948</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>43949</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>43950</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>43951</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>43952</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>43953</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>43954</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>43955</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>43956</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>43957</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>43958</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>43959</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>43960</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>43961</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>43962</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>43963</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
         <v>43964</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
         <v>43965</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>43966</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
         <v>43967</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>43968</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
         <v>43969</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>43970</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="20">
         <v>43971</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <v>43972</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="20">
         <v>43973</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="17">
         <v>43974</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="20">
         <v>43975</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="20">
         <v>43976</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="20">
         <v>43977</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="20">
         <v>43978</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="20">
         <v>43979</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="20">
         <v>43980</v>
       </c>
@@ -3274,6 +3274,38 @@
         <v>108</v>
       </c>
       <c r="J80" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="20">
+        <v>43981</v>
+      </c>
+      <c r="B81" s="22">
+        <v>78793</v>
+      </c>
+      <c r="C81" s="22">
+        <v>264</v>
+      </c>
+      <c r="D81" s="22">
+        <v>1473</v>
+      </c>
+      <c r="E81" s="22">
+        <v>0</v>
+      </c>
+      <c r="F81" s="22">
+        <v>6</v>
+      </c>
+      <c r="G81" s="22">
+        <v>2</v>
+      </c>
+      <c r="H81" s="22">
+        <v>1</v>
+      </c>
+      <c r="I81" s="22">
+        <v>108</v>
+      </c>
+      <c r="J81" s="22">
         <v>0</v>
       </c>
     </row>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DADF33-DB18-477E-B813-3DBE9A11F99A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
@@ -399,8 +398,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J81" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J81" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J82" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J82">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -413,16 +412,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -695,29 +694,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A50" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81:J81"/>
+      <selection activeCell="A82" sqref="A82:J82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -749,7 +748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43902</v>
       </c>
@@ -781,7 +780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43903</v>
       </c>
@@ -813,7 +812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43904</v>
       </c>
@@ -845,7 +844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43905</v>
       </c>
@@ -877,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43906</v>
       </c>
@@ -909,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43907</v>
       </c>
@@ -941,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43908</v>
       </c>
@@ -973,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43909</v>
       </c>
@@ -1005,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43910</v>
       </c>
@@ -1037,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>43911</v>
       </c>
@@ -1069,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>43912</v>
       </c>
@@ -1101,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -1133,7 +1132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>43914</v>
       </c>
@@ -1165,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>43915</v>
       </c>
@@ -1197,7 +1196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>43916</v>
       </c>
@@ -1229,7 +1228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43917</v>
       </c>
@@ -1261,7 +1260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>43918</v>
       </c>
@@ -1293,7 +1292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>43919</v>
       </c>
@@ -1325,7 +1324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>43920</v>
       </c>
@@ -1357,7 +1356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>43921</v>
       </c>
@@ -1389,7 +1388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>43922</v>
       </c>
@@ -1421,7 +1420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>43923</v>
       </c>
@@ -1453,7 +1452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>43924</v>
       </c>
@@ -1485,7 +1484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>43925</v>
       </c>
@@ -1517,7 +1516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>43926</v>
       </c>
@@ -1549,7 +1548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>43927</v>
       </c>
@@ -1581,7 +1580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>43928</v>
       </c>
@@ -1613,7 +1612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>43929</v>
       </c>
@@ -1645,7 +1644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>43930</v>
       </c>
@@ -1677,7 +1676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>43931</v>
       </c>
@@ -1709,7 +1708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>43932</v>
       </c>
@@ -1741,7 +1740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>43933</v>
       </c>
@@ -1773,7 +1772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>43934</v>
       </c>
@@ -1805,7 +1804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>43935</v>
       </c>
@@ -1837,7 +1836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>43936</v>
       </c>
@@ -1869,7 +1868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>43937</v>
       </c>
@@ -1901,7 +1900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>43938</v>
       </c>
@@ -1933,7 +1932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>43939</v>
       </c>
@@ -1965,7 +1964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>43940</v>
       </c>
@@ -1997,7 +1996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>43941</v>
       </c>
@@ -2029,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>43942</v>
       </c>
@@ -2061,7 +2060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>43943</v>
       </c>
@@ -2093,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43944</v>
       </c>
@@ -2125,7 +2124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43945</v>
       </c>
@@ -2157,7 +2156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>43946</v>
       </c>
@@ -2189,7 +2188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>43947</v>
       </c>
@@ -2221,7 +2220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>43948</v>
       </c>
@@ -2253,7 +2252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>43949</v>
       </c>
@@ -2285,7 +2284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>43950</v>
       </c>
@@ -2317,7 +2316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>43951</v>
       </c>
@@ -2349,7 +2348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>43952</v>
       </c>
@@ -2381,7 +2380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>43953</v>
       </c>
@@ -2413,7 +2412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>43954</v>
       </c>
@@ -2445,7 +2444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>43955</v>
       </c>
@@ -2477,7 +2476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>43956</v>
       </c>
@@ -2509,7 +2508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>43957</v>
       </c>
@@ -2541,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>43958</v>
       </c>
@@ -2573,7 +2572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>43959</v>
       </c>
@@ -2605,7 +2604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>43960</v>
       </c>
@@ -2637,7 +2636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>43961</v>
       </c>
@@ -2669,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>43962</v>
       </c>
@@ -2701,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>43963</v>
       </c>
@@ -2733,7 +2732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
         <v>43964</v>
       </c>
@@ -2765,7 +2764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>43965</v>
       </c>
@@ -2797,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>43966</v>
       </c>
@@ -2829,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>43967</v>
       </c>
@@ -2861,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>43968</v>
       </c>
@@ -2893,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>43969</v>
       </c>
@@ -2925,7 +2924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>43970</v>
       </c>
@@ -2957,7 +2956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>43971</v>
       </c>
@@ -2989,7 +2988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>43972</v>
       </c>
@@ -3021,7 +3020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
         <v>43973</v>
       </c>
@@ -3053,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
         <v>43974</v>
       </c>
@@ -3085,7 +3084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="20">
         <v>43975</v>
       </c>
@@ -3117,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>43976</v>
       </c>
@@ -3149,7 +3148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
         <v>43977</v>
       </c>
@@ -3181,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
         <v>43978</v>
       </c>
@@ -3213,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="20">
         <v>43979</v>
       </c>
@@ -3245,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>43980</v>
       </c>
@@ -3277,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="20">
         <v>43981</v>
       </c>
@@ -3307,6 +3306,38 @@
       </c>
       <c r="J81" s="22">
         <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="20">
+        <v>43982</v>
+      </c>
+      <c r="B82" s="21">
+        <v>79039</v>
+      </c>
+      <c r="C82" s="22">
+        <v>246</v>
+      </c>
+      <c r="D82" s="22">
+        <v>1473</v>
+      </c>
+      <c r="E82" s="22">
+        <v>0</v>
+      </c>
+      <c r="F82" s="22">
+        <v>5</v>
+      </c>
+      <c r="G82" s="22">
+        <v>1</v>
+      </c>
+      <c r="H82" s="22">
+        <v>0</v>
+      </c>
+      <c r="I82" s="22">
+        <v>109</v>
+      </c>
+      <c r="J82" s="22">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -398,8 +398,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J82" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J83" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J83">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -695,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A50" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:J82"/>
+      <selection activeCell="A83" sqref="A83:J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3340,6 +3340,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="20">
+        <v>43983</v>
+      </c>
+      <c r="B83" s="21">
+        <v>79698</v>
+      </c>
+      <c r="C83" s="22">
+        <v>659</v>
+      </c>
+      <c r="D83" s="22">
+        <v>1475</v>
+      </c>
+      <c r="E83" s="22">
+        <v>2</v>
+      </c>
+      <c r="F83" s="22">
+        <v>5</v>
+      </c>
+      <c r="G83" s="22">
+        <v>1</v>
+      </c>
+      <c r="H83" s="22">
+        <v>0</v>
+      </c>
+      <c r="I83" s="22">
+        <v>109</v>
+      </c>
+      <c r="J83" s="22">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -398,8 +398,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J83" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J84" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J84">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -695,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A50" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:J83"/>
+      <selection activeCell="A84" sqref="A84:J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3372,6 +3372,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="20">
+        <v>43984</v>
+      </c>
+      <c r="B84" s="21">
+        <v>80505</v>
+      </c>
+      <c r="C84" s="22">
+        <v>807</v>
+      </c>
+      <c r="D84" s="22">
+        <v>1477</v>
+      </c>
+      <c r="E84" s="22">
+        <v>2</v>
+      </c>
+      <c r="F84" s="22">
+        <v>5</v>
+      </c>
+      <c r="G84" s="22">
+        <v>0</v>
+      </c>
+      <c r="H84" s="22">
+        <v>0</v>
+      </c>
+      <c r="I84" s="22">
+        <v>109</v>
+      </c>
+      <c r="J84" s="22">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -398,8 +398,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J84" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J85" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J85">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -695,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A50" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:J84"/>
+      <selection activeCell="J85" sqref="A85:J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3404,6 +3404,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="20">
+        <v>43985</v>
+      </c>
+      <c r="B85" s="21">
+        <v>81333</v>
+      </c>
+      <c r="C85" s="22">
+        <v>828</v>
+      </c>
+      <c r="D85" s="22">
+        <v>1477</v>
+      </c>
+      <c r="E85" s="22">
+        <v>0</v>
+      </c>
+      <c r="F85" s="22">
+        <v>5</v>
+      </c>
+      <c r="G85" s="22">
+        <v>0</v>
+      </c>
+      <c r="H85" s="22">
+        <v>0</v>
+      </c>
+      <c r="I85" s="22">
+        <v>109</v>
+      </c>
+      <c r="J85" s="22">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E779F27A-C2D0-4365-A806-F279735D4FA6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -59,11 +60,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +93,13 @@
       <name val="Calibri Light"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -107,7 +115,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -128,11 +136,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -207,6 +230,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -398,8 +430,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J85" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J86" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J86" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -412,16 +444,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -694,11 +726,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J85" sqref="A85:J85"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3436,6 +3468,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="26">
+        <v>43986</v>
+      </c>
+      <c r="B86" s="27">
+        <v>82161</v>
+      </c>
+      <c r="C86" s="28">
+        <v>828</v>
+      </c>
+      <c r="D86" s="28">
+        <v>1479</v>
+      </c>
+      <c r="E86" s="28">
+        <v>2</v>
+      </c>
+      <c r="F86" s="28">
+        <v>6</v>
+      </c>
+      <c r="G86" s="28">
+        <v>0</v>
+      </c>
+      <c r="H86" s="28">
+        <v>0</v>
+      </c>
+      <c r="I86" s="28">
+        <v>109</v>
+      </c>
+      <c r="J86" s="28">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E779F27A-C2D0-4365-A806-F279735D4FA6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8D50CD-A162-478B-944F-5BBE4BF6D68F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -239,6 +239,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -430,8 +439,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J86" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J86" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J87" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J87" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -727,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:J86"/>
+      <selection activeCell="A87" sqref="A87:J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3500,6 +3509,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="29">
+        <v>43987</v>
+      </c>
+      <c r="B87" s="30">
+        <v>82876</v>
+      </c>
+      <c r="C87" s="31">
+        <v>715</v>
+      </c>
+      <c r="D87" s="31">
+        <v>1484</v>
+      </c>
+      <c r="E87" s="31">
+        <v>5</v>
+      </c>
+      <c r="F87" s="31">
+        <v>6</v>
+      </c>
+      <c r="G87" s="31">
+        <v>0</v>
+      </c>
+      <c r="H87" s="31">
+        <v>0</v>
+      </c>
+      <c r="I87" s="31">
+        <v>109</v>
+      </c>
+      <c r="J87" s="31">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8D50CD-A162-478B-944F-5BBE4BF6D68F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DD310D-C2B7-4E50-8262-5F4ACCE3A5DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -439,8 +439,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J87" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J87" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J88" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J88" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -736,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J87"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87:J87"/>
+      <selection activeCell="A88" sqref="A88:J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3541,6 +3541,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="23">
+        <v>43988</v>
+      </c>
+      <c r="B88" s="24">
+        <v>83105</v>
+      </c>
+      <c r="C88" s="25">
+        <v>229</v>
+      </c>
+      <c r="D88" s="25">
+        <v>1485</v>
+      </c>
+      <c r="E88" s="25">
+        <v>1</v>
+      </c>
+      <c r="F88" s="25">
+        <v>5</v>
+      </c>
+      <c r="G88" s="25">
+        <v>0</v>
+      </c>
+      <c r="H88" s="25">
+        <v>1</v>
+      </c>
+      <c r="I88" s="25">
+        <v>109</v>
+      </c>
+      <c r="J88" s="25">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DD310D-C2B7-4E50-8262-5F4ACCE3A5DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C707B87E-755A-497E-9D27-5A76429BCC17}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -439,8 +439,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J88" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J88" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J89" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J89" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -736,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:J88"/>
+      <selection activeCell="A89" sqref="A89:J89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3573,6 +3573,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="29">
+        <v>43989</v>
+      </c>
+      <c r="B89" s="30">
+        <v>83316</v>
+      </c>
+      <c r="C89" s="31">
+        <v>211</v>
+      </c>
+      <c r="D89" s="31">
+        <v>1485</v>
+      </c>
+      <c r="E89" s="31">
+        <v>0</v>
+      </c>
+      <c r="F89" s="31">
+        <v>5</v>
+      </c>
+      <c r="G89" s="31">
+        <v>0</v>
+      </c>
+      <c r="H89" s="31">
+        <v>0</v>
+      </c>
+      <c r="I89" s="31">
+        <v>109</v>
+      </c>
+      <c r="J89" s="31">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C707B87E-755A-497E-9D27-5A76429BCC17}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
@@ -439,8 +438,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J89" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J89" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J90" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J90">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -453,16 +452,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -735,11 +734,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89:J89"/>
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3605,6 +3604,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="20">
+        <v>43990</v>
+      </c>
+      <c r="B90" s="21">
+        <v>84130</v>
+      </c>
+      <c r="C90" s="22">
+        <v>814</v>
+      </c>
+      <c r="D90" s="22">
+        <v>1486</v>
+      </c>
+      <c r="E90" s="22">
+        <v>1</v>
+      </c>
+      <c r="F90" s="22">
+        <v>6</v>
+      </c>
+      <c r="G90" s="22">
+        <v>0</v>
+      </c>
+      <c r="H90" s="22">
+        <v>0</v>
+      </c>
+      <c r="I90" s="22">
+        <v>109</v>
+      </c>
+      <c r="J90" s="22">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -438,8 +438,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J90" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J91" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J91">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -735,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+      <selection activeCell="J91" sqref="A91:J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3636,6 +3636,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="20">
+        <v>43991</v>
+      </c>
+      <c r="B91" s="21">
+        <v>84868</v>
+      </c>
+      <c r="C91" s="22">
+        <v>738</v>
+      </c>
+      <c r="D91" s="22">
+        <v>1488</v>
+      </c>
+      <c r="E91" s="22">
+        <v>2</v>
+      </c>
+      <c r="F91" s="22">
+        <v>6</v>
+      </c>
+      <c r="G91" s="22">
+        <v>0</v>
+      </c>
+      <c r="H91" s="22">
+        <v>0</v>
+      </c>
+      <c r="I91" s="22">
+        <v>109</v>
+      </c>
+      <c r="J91" s="22">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833B8CD9-5160-40BE-99A5-1323DC10DF9B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
@@ -438,8 +439,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J91" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J92" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J92" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -452,16 +453,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -734,11 +735,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J91" sqref="A91:J91"/>
+      <selection activeCell="A92" sqref="A92:J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3668,6 +3669,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="23">
+        <v>43992</v>
+      </c>
+      <c r="B92" s="24">
+        <v>85626</v>
+      </c>
+      <c r="C92" s="25">
+        <v>758</v>
+      </c>
+      <c r="D92" s="25">
+        <v>1488</v>
+      </c>
+      <c r="E92" s="25">
+        <v>0</v>
+      </c>
+      <c r="F92" s="25">
+        <v>6</v>
+      </c>
+      <c r="G92" s="25">
+        <v>0</v>
+      </c>
+      <c r="H92" s="25">
+        <v>0</v>
+      </c>
+      <c r="I92" s="25">
+        <v>109</v>
+      </c>
+      <c r="J92" s="25">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833B8CD9-5160-40BE-99A5-1323DC10DF9B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B4EFB9-DC53-44F6-8FC1-2DF445145104}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -439,8 +439,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J92" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J92" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J93" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J93" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -736,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:J92"/>
+      <selection activeCell="A93" sqref="A93:J93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3701,6 +3701,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="29">
+        <v>43993</v>
+      </c>
+      <c r="B93" s="30">
+        <v>86328</v>
+      </c>
+      <c r="C93" s="31">
+        <v>702</v>
+      </c>
+      <c r="D93" s="31">
+        <v>1490</v>
+      </c>
+      <c r="E93" s="31">
+        <v>2</v>
+      </c>
+      <c r="F93" s="31">
+        <v>6</v>
+      </c>
+      <c r="G93" s="31">
+        <v>0</v>
+      </c>
+      <c r="H93" s="31">
+        <v>0</v>
+      </c>
+      <c r="I93" s="31">
+        <v>109</v>
+      </c>
+      <c r="J93" s="31">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B4EFB9-DC53-44F6-8FC1-2DF445145104}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D15F133-2A7A-4A5C-822D-D65F9E3FAE2B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -439,8 +439,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J93" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J93" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J94" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J94" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -736,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93:J93"/>
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3733,6 +3733,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="23">
+        <v>43994</v>
+      </c>
+      <c r="B94" s="24">
+        <v>87095</v>
+      </c>
+      <c r="C94" s="25">
+        <v>767</v>
+      </c>
+      <c r="D94" s="25">
+        <v>1492</v>
+      </c>
+      <c r="E94" s="25">
+        <v>2</v>
+      </c>
+      <c r="F94" s="25">
+        <v>6</v>
+      </c>
+      <c r="G94" s="25">
+        <v>0</v>
+      </c>
+      <c r="H94" s="25">
+        <v>0</v>
+      </c>
+      <c r="I94" s="25">
+        <v>109</v>
+      </c>
+      <c r="J94" s="25">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D15F133-2A7A-4A5C-822D-D65F9E3FAE2B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345DA3AE-6B75-4EC3-8AD2-163DF8D0F426}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -439,8 +439,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J94" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J94" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J95" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J95" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -736,28 +736,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+      <selection activeCell="A95" sqref="A95:J95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -789,7 +789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>43902</v>
       </c>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>43903</v>
       </c>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>43904</v>
       </c>
@@ -885,7 +885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>43905</v>
       </c>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>43906</v>
       </c>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>43907</v>
       </c>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>43908</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>43909</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>43910</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>43911</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>43912</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>43914</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>43915</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>43916</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>43917</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>43918</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>43919</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>43920</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>43921</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>43922</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>43923</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>43924</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>43925</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>43926</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>43927</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>43928</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>43929</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>43930</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>43931</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>43932</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>43933</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>43934</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>43935</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>43936</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>43937</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>43938</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>43939</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>43940</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>43941</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>43942</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>43943</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43944</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>43945</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>43946</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>43947</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>43948</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>43949</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>43950</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>43951</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>43952</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>43953</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>43954</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>43955</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>43956</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>43957</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>43958</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>43959</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>43960</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>43961</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>43962</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>43963</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
         <v>43964</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
         <v>43965</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>43966</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
         <v>43967</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>43968</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
         <v>43969</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>43970</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="20">
         <v>43971</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <v>43972</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="20">
         <v>43973</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="17">
         <v>43974</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="20">
         <v>43975</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="20">
         <v>43976</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="20">
         <v>43977</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="20">
         <v>43978</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="20">
         <v>43979</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="20">
         <v>43980</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="20">
         <v>43981</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="20">
         <v>43982</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="20">
         <v>43983</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="20">
         <v>43984</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="20">
         <v>43985</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="26">
         <v>43986</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="29">
         <v>43987</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <v>43988</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="29">
         <v>43989</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="20">
         <v>43990</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="20">
         <v>43991</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <v>43992</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="29">
         <v>43993</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
         <v>43994</v>
       </c>
@@ -3762,6 +3762,38 @@
         <v>109</v>
       </c>
       <c r="J94" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" s="29">
+        <v>43995</v>
+      </c>
+      <c r="B95" s="30">
+        <v>87386</v>
+      </c>
+      <c r="C95" s="31">
+        <v>291</v>
+      </c>
+      <c r="D95" s="31">
+        <v>1495</v>
+      </c>
+      <c r="E95" s="31">
+        <v>3</v>
+      </c>
+      <c r="F95" s="31">
+        <v>6</v>
+      </c>
+      <c r="G95" s="31">
+        <v>0</v>
+      </c>
+      <c r="H95" s="31">
+        <v>0</v>
+      </c>
+      <c r="I95" s="31">
+        <v>109</v>
+      </c>
+      <c r="J95" s="31">
         <v>0</v>
       </c>
     </row>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345DA3AE-6B75-4EC3-8AD2-163DF8D0F426}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B641C904-F5E5-45C5-93A6-81E74361D8EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -439,8 +439,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J95" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J95" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J96" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J96" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -736,28 +736,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95:J95"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96:J96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -789,7 +789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43902</v>
       </c>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43903</v>
       </c>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43904</v>
       </c>
@@ -885,7 +885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43905</v>
       </c>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43906</v>
       </c>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43907</v>
       </c>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43908</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43909</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43910</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>43911</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>43912</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>43914</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>43915</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>43916</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43917</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>43918</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>43919</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>43920</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>43921</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>43922</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>43923</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>43924</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>43925</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>43926</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>43927</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>43928</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>43929</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>43930</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>43931</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>43932</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>43933</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>43934</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>43935</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>43936</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>43937</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>43938</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>43939</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>43940</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>43941</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>43942</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>43943</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43944</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43945</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>43946</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>43947</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>43948</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>43949</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>43950</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>43951</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>43952</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>43953</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>43954</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>43955</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>43956</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>43957</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>43958</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>43959</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>43960</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>43961</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>43962</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>43963</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
         <v>43964</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>43965</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>43966</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>43967</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>43968</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>43969</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>43970</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>43971</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>43972</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
         <v>43973</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
         <v>43974</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="20">
         <v>43975</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>43976</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
         <v>43977</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
         <v>43978</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="20">
         <v>43979</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>43980</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="20">
         <v>43981</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="20">
         <v>43982</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="20">
         <v>43983</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="20">
         <v>43984</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="20">
         <v>43985</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="26">
         <v>43986</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="29">
         <v>43987</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>43988</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="29">
         <v>43989</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="20">
         <v>43990</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="20">
         <v>43991</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>43992</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="29">
         <v>43993</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>43994</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="29">
         <v>43995</v>
       </c>
@@ -3794,6 +3794,38 @@
         <v>109</v>
       </c>
       <c r="J95" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="23">
+        <v>43996</v>
+      </c>
+      <c r="B96" s="24">
+        <v>87598</v>
+      </c>
+      <c r="C96" s="25">
+        <v>212</v>
+      </c>
+      <c r="D96" s="25">
+        <v>1496</v>
+      </c>
+      <c r="E96" s="25">
+        <v>1</v>
+      </c>
+      <c r="F96" s="25">
+        <v>7</v>
+      </c>
+      <c r="G96" s="25">
+        <v>1</v>
+      </c>
+      <c r="H96" s="25">
+        <v>0</v>
+      </c>
+      <c r="I96" s="25">
+        <v>109</v>
+      </c>
+      <c r="J96" s="25">
         <v>0</v>
       </c>
     </row>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B641C904-F5E5-45C5-93A6-81E74361D8EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11205"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
@@ -439,8 +438,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J96" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J96" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J97" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J97">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -453,16 +452,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -735,11 +734,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96:J96"/>
+      <selection activeCell="J97" sqref="A97:J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3829,6 +3828,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="20">
+        <v>43997</v>
+      </c>
+      <c r="B97" s="21">
+        <v>88165</v>
+      </c>
+      <c r="C97" s="22">
+        <v>567</v>
+      </c>
+      <c r="D97" s="22">
+        <v>1499</v>
+      </c>
+      <c r="E97" s="22">
+        <v>3</v>
+      </c>
+      <c r="F97" s="22">
+        <v>7</v>
+      </c>
+      <c r="G97" s="22">
+        <v>1</v>
+      </c>
+      <c r="H97" s="22">
+        <v>0</v>
+      </c>
+      <c r="I97" s="22">
+        <v>109</v>
+      </c>
+      <c r="J97" s="22">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -438,8 +438,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J97" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J98" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J98">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -735,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J97" sqref="A97:J97"/>
+      <selection activeCell="A98" sqref="A98:J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3860,6 +3860,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="20">
+        <v>43998</v>
+      </c>
+      <c r="B98" s="21">
+        <v>89151</v>
+      </c>
+      <c r="C98" s="22">
+        <v>986</v>
+      </c>
+      <c r="D98" s="22">
+        <v>1503</v>
+      </c>
+      <c r="E98" s="22">
+        <v>4</v>
+      </c>
+      <c r="F98" s="22">
+        <v>7</v>
+      </c>
+      <c r="G98" s="22">
+        <v>1</v>
+      </c>
+      <c r="H98" s="22">
+        <v>0</v>
+      </c>
+      <c r="I98" s="22">
+        <v>109</v>
+      </c>
+      <c r="J98" s="22">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3925C0-727D-4AE3-82D9-F83297781159}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11205"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
@@ -438,8 +439,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J98" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J99" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J99" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -452,16 +453,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -734,11 +735,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:J98"/>
+      <selection activeCell="A99" sqref="A99:J99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3892,6 +3893,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="29">
+        <v>43999</v>
+      </c>
+      <c r="B99" s="30">
+        <v>90103</v>
+      </c>
+      <c r="C99" s="31">
+        <v>952</v>
+      </c>
+      <c r="D99" s="31">
+        <v>1511</v>
+      </c>
+      <c r="E99" s="31">
+        <v>8</v>
+      </c>
+      <c r="F99" s="31">
+        <v>6</v>
+      </c>
+      <c r="G99" s="31">
+        <v>1</v>
+      </c>
+      <c r="H99" s="31">
+        <v>1</v>
+      </c>
+      <c r="I99" s="31">
+        <v>109</v>
+      </c>
+      <c r="J99" s="31">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3925C0-727D-4AE3-82D9-F83297781159}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
@@ -439,8 +438,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J99" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J99" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J100" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J100">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -453,16 +452,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -735,11 +734,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99:J99"/>
+      <selection activeCell="A100" sqref="A100:J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3925,6 +3924,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="20">
+        <v>44000</v>
+      </c>
+      <c r="B100" s="21">
+        <v>91005</v>
+      </c>
+      <c r="C100" s="22">
+        <v>902</v>
+      </c>
+      <c r="D100" s="22">
+        <v>1513</v>
+      </c>
+      <c r="E100" s="22">
+        <v>2</v>
+      </c>
+      <c r="F100" s="22">
+        <v>8</v>
+      </c>
+      <c r="G100" s="22">
+        <v>1</v>
+      </c>
+      <c r="H100" s="22">
+        <v>0</v>
+      </c>
+      <c r="I100" s="22">
+        <v>109</v>
+      </c>
+      <c r="J100" s="22">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE09CBD-7DAA-4C74-9BA3-7F1963AA8E06}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
@@ -438,8 +439,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J100" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J101" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J101" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -452,16 +453,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -734,29 +735,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:J100"/>
+      <selection activeCell="A101" sqref="A101:J101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -788,7 +789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>43902</v>
       </c>
@@ -820,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>43903</v>
       </c>
@@ -852,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>43904</v>
       </c>
@@ -884,7 +885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>43905</v>
       </c>
@@ -916,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>43906</v>
       </c>
@@ -948,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>43907</v>
       </c>
@@ -980,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>43908</v>
       </c>
@@ -1012,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>43909</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>43910</v>
       </c>
@@ -1076,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>43911</v>
       </c>
@@ -1108,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>43912</v>
       </c>
@@ -1140,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -1172,7 +1173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>43914</v>
       </c>
@@ -1204,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>43915</v>
       </c>
@@ -1236,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>43916</v>
       </c>
@@ -1268,7 +1269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>43917</v>
       </c>
@@ -1300,7 +1301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>43918</v>
       </c>
@@ -1332,7 +1333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>43919</v>
       </c>
@@ -1364,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>43920</v>
       </c>
@@ -1396,7 +1397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>43921</v>
       </c>
@@ -1428,7 +1429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>43922</v>
       </c>
@@ -1460,7 +1461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>43923</v>
       </c>
@@ -1492,7 +1493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>43924</v>
       </c>
@@ -1524,7 +1525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>43925</v>
       </c>
@@ -1556,7 +1557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>43926</v>
       </c>
@@ -1588,7 +1589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>43927</v>
       </c>
@@ -1620,7 +1621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>43928</v>
       </c>
@@ -1652,7 +1653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>43929</v>
       </c>
@@ -1684,7 +1685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>43930</v>
       </c>
@@ -1716,7 +1717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>43931</v>
       </c>
@@ -1748,7 +1749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>43932</v>
       </c>
@@ -1780,7 +1781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>43933</v>
       </c>
@@ -1812,7 +1813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>43934</v>
       </c>
@@ -1844,7 +1845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>43935</v>
       </c>
@@ -1876,7 +1877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>43936</v>
       </c>
@@ -1908,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>43937</v>
       </c>
@@ -1940,7 +1941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>43938</v>
       </c>
@@ -1972,7 +1973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>43939</v>
       </c>
@@ -2004,7 +2005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>43940</v>
       </c>
@@ -2036,7 +2037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>43941</v>
       </c>
@@ -2068,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>43942</v>
       </c>
@@ -2100,7 +2101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>43943</v>
       </c>
@@ -2132,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43944</v>
       </c>
@@ -2164,7 +2165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>43945</v>
       </c>
@@ -2196,7 +2197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>43946</v>
       </c>
@@ -2228,7 +2229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>43947</v>
       </c>
@@ -2260,7 +2261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>43948</v>
       </c>
@@ -2292,7 +2293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>43949</v>
       </c>
@@ -2324,7 +2325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>43950</v>
       </c>
@@ -2356,7 +2357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>43951</v>
       </c>
@@ -2388,7 +2389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>43952</v>
       </c>
@@ -2420,7 +2421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>43953</v>
       </c>
@@ -2452,7 +2453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>43954</v>
       </c>
@@ -2484,7 +2485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>43955</v>
       </c>
@@ -2516,7 +2517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>43956</v>
       </c>
@@ -2548,7 +2549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>43957</v>
       </c>
@@ -2580,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>43958</v>
       </c>
@@ -2612,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>43959</v>
       </c>
@@ -2644,7 +2645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>43960</v>
       </c>
@@ -2676,7 +2677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>43961</v>
       </c>
@@ -2708,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>43962</v>
       </c>
@@ -2740,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>43963</v>
       </c>
@@ -2772,7 +2773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
         <v>43964</v>
       </c>
@@ -2804,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
         <v>43965</v>
       </c>
@@ -2836,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>43966</v>
       </c>
@@ -2868,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
         <v>43967</v>
       </c>
@@ -2900,7 +2901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>43968</v>
       </c>
@@ -2932,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
         <v>43969</v>
       </c>
@@ -2964,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>43970</v>
       </c>
@@ -2996,7 +2997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="20">
         <v>43971</v>
       </c>
@@ -3028,7 +3029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <v>43972</v>
       </c>
@@ -3060,7 +3061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="20">
         <v>43973</v>
       </c>
@@ -3092,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="17">
         <v>43974</v>
       </c>
@@ -3124,7 +3125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="20">
         <v>43975</v>
       </c>
@@ -3156,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="20">
         <v>43976</v>
       </c>
@@ -3188,7 +3189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="20">
         <v>43977</v>
       </c>
@@ -3220,7 +3221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="20">
         <v>43978</v>
       </c>
@@ -3252,7 +3253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="20">
         <v>43979</v>
       </c>
@@ -3284,7 +3285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="20">
         <v>43980</v>
       </c>
@@ -3316,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="20">
         <v>43981</v>
       </c>
@@ -3348,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="20">
         <v>43982</v>
       </c>
@@ -3380,7 +3381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="20">
         <v>43983</v>
       </c>
@@ -3412,7 +3413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="20">
         <v>43984</v>
       </c>
@@ -3444,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="20">
         <v>43985</v>
       </c>
@@ -3476,7 +3477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="26">
         <v>43986</v>
       </c>
@@ -3508,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="29">
         <v>43987</v>
       </c>
@@ -3540,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <v>43988</v>
       </c>
@@ -3572,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="29">
         <v>43989</v>
       </c>
@@ -3604,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="20">
         <v>43990</v>
       </c>
@@ -3636,7 +3637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="20">
         <v>43991</v>
       </c>
@@ -3668,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <v>43992</v>
       </c>
@@ -3700,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="29">
         <v>43993</v>
       </c>
@@ -3732,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
         <v>43994</v>
       </c>
@@ -3764,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="29">
         <v>43995</v>
       </c>
@@ -3796,7 +3797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <v>43996</v>
       </c>
@@ -3828,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="20">
         <v>43997</v>
       </c>
@@ -3860,7 +3861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="20">
         <v>43998</v>
       </c>
@@ -3892,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="29">
         <v>43999</v>
       </c>
@@ -3924,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="20">
         <v>44000</v>
       </c>
@@ -3953,6 +3954,38 @@
         <v>109</v>
       </c>
       <c r="J100" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" s="29">
+        <v>44001</v>
+      </c>
+      <c r="B101" s="30">
+        <v>92152</v>
+      </c>
+      <c r="C101" s="31">
+        <v>1147</v>
+      </c>
+      <c r="D101" s="31">
+        <v>1519</v>
+      </c>
+      <c r="E101" s="31">
+        <v>6</v>
+      </c>
+      <c r="F101" s="31">
+        <v>6</v>
+      </c>
+      <c r="G101" s="31">
+        <v>1</v>
+      </c>
+      <c r="H101" s="31">
+        <v>2</v>
+      </c>
+      <c r="I101" s="31">
+        <v>109</v>
+      </c>
+      <c r="J101" s="31">
         <v>0</v>
       </c>
     </row>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE09CBD-7DAA-4C74-9BA3-7F1963AA8E06}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9006D0F7-09D7-4EC0-A0E3-11905E8C747A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -439,8 +439,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J101" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J101" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J102" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J102" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -736,28 +736,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101:J101"/>
+      <selection activeCell="A102" sqref="A102:J102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -789,7 +789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43902</v>
       </c>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43903</v>
       </c>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43904</v>
       </c>
@@ -885,7 +885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43905</v>
       </c>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43906</v>
       </c>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43907</v>
       </c>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43908</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43909</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43910</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>43911</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>43912</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>43914</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>43915</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>43916</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43917</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>43918</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>43919</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>43920</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>43921</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>43922</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>43923</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>43924</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>43925</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>43926</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>43927</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>43928</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>43929</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>43930</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>43931</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>43932</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>43933</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>43934</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>43935</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>43936</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>43937</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>43938</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>43939</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>43940</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>43941</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>43942</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>43943</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43944</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43945</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>43946</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>43947</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>43948</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>43949</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>43950</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>43951</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>43952</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>43953</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>43954</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>43955</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>43956</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>43957</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>43958</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>43959</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>43960</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>43961</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>43962</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>43963</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
         <v>43964</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>43965</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>43966</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>43967</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>43968</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>43969</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>43970</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>43971</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>43972</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
         <v>43973</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
         <v>43974</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="20">
         <v>43975</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>43976</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
         <v>43977</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
         <v>43978</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="20">
         <v>43979</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>43980</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="20">
         <v>43981</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="20">
         <v>43982</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="20">
         <v>43983</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="20">
         <v>43984</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="20">
         <v>43985</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="26">
         <v>43986</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="29">
         <v>43987</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>43988</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="29">
         <v>43989</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="20">
         <v>43990</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="20">
         <v>43991</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>43992</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="29">
         <v>43993</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>43994</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="29">
         <v>43995</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>43996</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="20">
         <v>43997</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="20">
         <v>43998</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="29">
         <v>43999</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="20">
         <v>44000</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="29">
         <v>44001</v>
       </c>
@@ -3986,6 +3986,38 @@
         <v>109</v>
       </c>
       <c r="J101" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="23">
+        <v>44002</v>
+      </c>
+      <c r="B102" s="24">
+        <v>92919</v>
+      </c>
+      <c r="C102" s="25">
+        <v>758</v>
+      </c>
+      <c r="D102" s="25">
+        <v>1520</v>
+      </c>
+      <c r="E102" s="25">
+        <v>1</v>
+      </c>
+      <c r="F102" s="25">
+        <v>6</v>
+      </c>
+      <c r="G102" s="25">
+        <v>1</v>
+      </c>
+      <c r="H102" s="25">
+        <v>2</v>
+      </c>
+      <c r="I102" s="25">
+        <v>109</v>
+      </c>
+      <c r="J102" s="25">
         <v>0</v>
       </c>
     </row>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9006D0F7-09D7-4EC0-A0E3-11905E8C747A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF849C95-B7BC-48B8-9AEE-FFE54D73249A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -439,8 +439,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J102" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J102" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J103" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J103" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -736,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:J102"/>
+      <selection activeCell="A103" sqref="A103:J103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4021,6 +4021,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="29">
+        <v>44003</v>
+      </c>
+      <c r="B103" s="30">
+        <v>93181</v>
+      </c>
+      <c r="C103" s="31">
+        <v>271</v>
+      </c>
+      <c r="D103" s="31">
+        <v>1521</v>
+      </c>
+      <c r="E103" s="31">
+        <v>1</v>
+      </c>
+      <c r="F103" s="31">
+        <v>6</v>
+      </c>
+      <c r="G103" s="31">
+        <v>1</v>
+      </c>
+      <c r="H103" s="31">
+        <v>0</v>
+      </c>
+      <c r="I103" s="31">
+        <v>109</v>
+      </c>
+      <c r="J103" s="31">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF849C95-B7BC-48B8-9AEE-FFE54D73249A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
@@ -439,8 +438,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J103" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J103" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J104" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J104">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -453,16 +452,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -735,11 +734,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103:J103"/>
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4053,6 +4052,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="29">
+        <v>44004</v>
+      </c>
+      <c r="B104" s="30">
+        <v>94165</v>
+      </c>
+      <c r="C104" s="31">
+        <v>984</v>
+      </c>
+      <c r="D104" s="31">
+        <v>1534</v>
+      </c>
+      <c r="E104" s="31">
+        <v>13</v>
+      </c>
+      <c r="F104" s="31">
+        <v>5</v>
+      </c>
+      <c r="G104" s="31">
+        <v>1</v>
+      </c>
+      <c r="H104" s="31">
+        <v>1</v>
+      </c>
+      <c r="I104" s="31">
+        <v>109</v>
+      </c>
+      <c r="J104" s="31">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA752B0-19CD-4160-85F2-84C90D1D3AA5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -55,11 +56,14 @@
   <si>
     <t>Deaths (daily)</t>
   </si>
+  <si>
+    <t>111*</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
@@ -438,8 +442,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J104" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J105" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J105" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -452,16 +456,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -734,11 +738,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+      <selection activeCell="A105" sqref="A105:J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4084,6 +4088,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="29">
+        <v>44005</v>
+      </c>
+      <c r="B105" s="30">
+        <v>95387</v>
+      </c>
+      <c r="C105" s="31">
+        <v>1222</v>
+      </c>
+      <c r="D105" s="31">
+        <v>1541</v>
+      </c>
+      <c r="E105" s="31">
+        <v>7</v>
+      </c>
+      <c r="F105" s="31">
+        <v>7</v>
+      </c>
+      <c r="G105" s="31">
+        <v>2</v>
+      </c>
+      <c r="H105" s="31">
+        <v>0</v>
+      </c>
+      <c r="I105" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="J105" s="31">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA752B0-19CD-4160-85F2-84C90D1D3AA5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5AFACD-32B5-4F54-9BDF-A42BD6F56F00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -442,8 +442,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J105" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J105" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J106" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J106" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -739,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J105"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105:J105"/>
+      <selection activeCell="A106" sqref="A106:J106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4120,6 +4120,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="23">
+        <v>44006</v>
+      </c>
+      <c r="B106" s="24">
+        <v>96599</v>
+      </c>
+      <c r="C106" s="25">
+        <v>1212</v>
+      </c>
+      <c r="D106" s="25">
+        <v>1547</v>
+      </c>
+      <c r="E106" s="25">
+        <v>6</v>
+      </c>
+      <c r="F106" s="25">
+        <v>7</v>
+      </c>
+      <c r="G106" s="25">
+        <v>2</v>
+      </c>
+      <c r="H106" s="25">
+        <v>0</v>
+      </c>
+      <c r="I106" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="J106" s="25">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5AFACD-32B5-4F54-9BDF-A42BD6F56F00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
@@ -442,8 +441,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J106" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J106" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J107" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J107">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -456,16 +455,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -738,11 +737,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106:J106"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4152,6 +4151,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="29">
+        <v>44007</v>
+      </c>
+      <c r="B107" s="30">
+        <v>97442</v>
+      </c>
+      <c r="C107" s="31">
+        <v>843</v>
+      </c>
+      <c r="D107" s="31">
+        <v>1558</v>
+      </c>
+      <c r="E107" s="31">
+        <v>11</v>
+      </c>
+      <c r="F107" s="31">
+        <v>8</v>
+      </c>
+      <c r="G107" s="31">
+        <v>2</v>
+      </c>
+      <c r="H107" s="31">
+        <v>0</v>
+      </c>
+      <c r="I107" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="J107" s="31">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -441,8 +441,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J107" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J108" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J108">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -738,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="G113" sqref="G113"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="J108" sqref="J108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4183,6 +4183,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="29">
+        <v>44008</v>
+      </c>
+      <c r="B108" s="30">
+        <v>98320</v>
+      </c>
+      <c r="C108" s="31">
+        <v>878</v>
+      </c>
+      <c r="D108" s="31">
+        <v>1572</v>
+      </c>
+      <c r="E108" s="31">
+        <v>14</v>
+      </c>
+      <c r="F108" s="31">
+        <v>8</v>
+      </c>
+      <c r="G108" s="31">
+        <v>1</v>
+      </c>
+      <c r="H108" s="31">
+        <v>0</v>
+      </c>
+      <c r="I108" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="J108" s="31">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -441,8 +441,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J108" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J109" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J109">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -738,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J108"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J108" sqref="J108"/>
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4215,6 +4215,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="29">
+        <v>44009</v>
+      </c>
+      <c r="B109" s="30">
+        <v>98945</v>
+      </c>
+      <c r="C109" s="31">
+        <v>625</v>
+      </c>
+      <c r="D109" s="31">
+        <v>1581</v>
+      </c>
+      <c r="E109" s="31">
+        <v>9</v>
+      </c>
+      <c r="F109" s="31">
+        <v>7</v>
+      </c>
+      <c r="G109" s="31">
+        <v>0</v>
+      </c>
+      <c r="H109" s="31">
+        <v>1</v>
+      </c>
+      <c r="I109" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="J109" s="31">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -441,8 +441,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J109" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J110" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J110">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -738,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J109"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+      <selection activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4247,6 +4247,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="29">
+        <v>44010</v>
+      </c>
+      <c r="B110" s="30">
+        <v>99245</v>
+      </c>
+      <c r="C110" s="31">
+        <v>300</v>
+      </c>
+      <c r="D110" s="31">
+        <v>1585</v>
+      </c>
+      <c r="E110" s="31">
+        <v>4</v>
+      </c>
+      <c r="F110" s="31">
+        <v>8</v>
+      </c>
+      <c r="G110" s="31">
+        <v>0</v>
+      </c>
+      <c r="H110" s="31">
+        <v>0</v>
+      </c>
+      <c r="I110" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="J110" s="31">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -441,8 +441,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J110" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J110">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J111" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J111">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -738,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J110"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="I110" sqref="I110"/>
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4279,6 +4279,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="29">
+        <v>44011</v>
+      </c>
+      <c r="B111" s="30">
+        <v>100330</v>
+      </c>
+      <c r="C111" s="31">
+        <v>1085</v>
+      </c>
+      <c r="D111" s="31">
+        <v>1600</v>
+      </c>
+      <c r="E111" s="31">
+        <v>15</v>
+      </c>
+      <c r="F111" s="31">
+        <v>8</v>
+      </c>
+      <c r="G111" s="31">
+        <v>0</v>
+      </c>
+      <c r="H111" s="31">
+        <v>0</v>
+      </c>
+      <c r="I111" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="J111" s="31">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -441,8 +441,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J111" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J111">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J112" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J112">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -738,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J111"/>
+  <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+      <selection activeCell="J112" sqref="J112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4311,6 +4311,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="20">
+        <v>44012</v>
+      </c>
+      <c r="B112" s="21">
+        <v>101729</v>
+      </c>
+      <c r="C112" s="22">
+        <v>1399</v>
+      </c>
+      <c r="D112" s="22">
+        <v>1613</v>
+      </c>
+      <c r="E112" s="22">
+        <v>13</v>
+      </c>
+      <c r="F112" s="22">
+        <v>8</v>
+      </c>
+      <c r="G112" s="22">
+        <v>0</v>
+      </c>
+      <c r="H112" s="22">
+        <v>0</v>
+      </c>
+      <c r="I112" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J112" s="22">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -441,8 +441,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J112" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J112">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J113" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J113">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -738,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J112"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J112" sqref="J112"/>
+      <selection activeCell="I113" sqref="I113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4343,6 +4343,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="20">
+        <v>44013</v>
+      </c>
+      <c r="B113" s="21">
+        <v>102927</v>
+      </c>
+      <c r="C113" s="22">
+        <v>1198</v>
+      </c>
+      <c r="D113" s="22">
+        <v>1663</v>
+      </c>
+      <c r="E113" s="22">
+        <v>21</v>
+      </c>
+      <c r="F113" s="22">
+        <v>9</v>
+      </c>
+      <c r="G113" s="22">
+        <v>0</v>
+      </c>
+      <c r="H113" s="22">
+        <v>0</v>
+      </c>
+      <c r="I113" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J113" s="22">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -441,8 +441,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J113" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J113">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J114" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J114">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -738,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="I113" sqref="I113"/>
+      <selection activeCell="I114" sqref="I114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4375,6 +4375,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="20">
+        <v>44014</v>
+      </c>
+      <c r="B114" s="21">
+        <v>104201</v>
+      </c>
+      <c r="C114" s="22">
+        <v>1274</v>
+      </c>
+      <c r="D114" s="22">
+        <v>1649</v>
+      </c>
+      <c r="E114" s="22">
+        <v>16</v>
+      </c>
+      <c r="F114" s="22">
+        <v>10</v>
+      </c>
+      <c r="G114" s="22">
+        <v>0</v>
+      </c>
+      <c r="H114" s="22">
+        <v>0</v>
+      </c>
+      <c r="I114" s="22">
+        <v>111</v>
+      </c>
+      <c r="J114" s="22">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -441,8 +441,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J114" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J114">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J115" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J115">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -738,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J114"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="I114" sqref="I114"/>
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4354,7 +4354,7 @@
         <v>1198</v>
       </c>
       <c r="D113" s="22">
-        <v>1663</v>
+        <v>1633</v>
       </c>
       <c r="E113" s="22">
         <v>21</v>
@@ -4400,10 +4400,42 @@
       <c r="H114" s="22">
         <v>0</v>
       </c>
-      <c r="I114" s="22">
-        <v>111</v>
+      <c r="I114" s="22" t="s">
+        <v>10</v>
       </c>
       <c r="J114" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="20">
+        <v>44015</v>
+      </c>
+      <c r="B115" s="21">
+        <v>105652</v>
+      </c>
+      <c r="C115" s="22">
+        <v>1456</v>
+      </c>
+      <c r="D115" s="22">
+        <v>1679</v>
+      </c>
+      <c r="E115" s="22">
+        <v>30</v>
+      </c>
+      <c r="F115" s="22">
+        <v>6</v>
+      </c>
+      <c r="G115" s="22">
+        <v>0</v>
+      </c>
+      <c r="H115" s="22">
+        <v>4</v>
+      </c>
+      <c r="I115" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J115" s="22">
         <v>0</v>
       </c>
     </row>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -441,8 +441,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J115" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J116" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J116">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -738,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4439,6 +4439,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="20">
+        <v>44016</v>
+      </c>
+      <c r="B116" s="21">
+        <v>106368</v>
+      </c>
+      <c r="C116" s="22">
+        <v>716</v>
+      </c>
+      <c r="D116" s="22">
+        <v>1700</v>
+      </c>
+      <c r="E116" s="22">
+        <v>21</v>
+      </c>
+      <c r="F116" s="22">
+        <v>6</v>
+      </c>
+      <c r="G116" s="22">
+        <v>0</v>
+      </c>
+      <c r="H116" s="22">
+        <v>1</v>
+      </c>
+      <c r="I116" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J116" s="22">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAB2626-7145-4C8B-A441-894C65A6357B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
@@ -441,8 +442,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J116" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J116">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J117" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J117" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -455,16 +456,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -737,11 +738,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J116"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+      <selection activeCell="A117" sqref="A117:J117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4471,6 +4472,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="29">
+        <v>44017</v>
+      </c>
+      <c r="B117" s="30">
+        <v>106898</v>
+      </c>
+      <c r="C117" s="31">
+        <v>530</v>
+      </c>
+      <c r="D117" s="31">
+        <v>1716</v>
+      </c>
+      <c r="E117" s="31">
+        <v>16</v>
+      </c>
+      <c r="F117" s="31">
+        <v>11</v>
+      </c>
+      <c r="G117" s="31">
+        <v>0</v>
+      </c>
+      <c r="H117" s="31">
+        <v>0</v>
+      </c>
+      <c r="I117" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="J117" s="31">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAB2626-7145-4C8B-A441-894C65A6357B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -56,14 +55,11 @@
   <si>
     <t>Deaths (daily)</t>
   </si>
-  <si>
-    <t>111*</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
@@ -442,8 +438,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J117" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J117" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J118" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J118">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -456,16 +452,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -738,11 +734,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117:J117"/>
+      <selection activeCell="I117" sqref="I117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4113,8 +4109,8 @@
       <c r="H105" s="31">
         <v>0</v>
       </c>
-      <c r="I105" s="31" t="s">
-        <v>10</v>
+      <c r="I105" s="31">
+        <v>111</v>
       </c>
       <c r="J105" s="31">
         <v>0</v>
@@ -4145,8 +4141,8 @@
       <c r="H106" s="25">
         <v>0</v>
       </c>
-      <c r="I106" s="25" t="s">
-        <v>10</v>
+      <c r="I106" s="25">
+        <v>111</v>
       </c>
       <c r="J106" s="25">
         <v>0</v>
@@ -4177,8 +4173,8 @@
       <c r="H107" s="31">
         <v>0</v>
       </c>
-      <c r="I107" s="31" t="s">
-        <v>10</v>
+      <c r="I107" s="31">
+        <v>111</v>
       </c>
       <c r="J107" s="31">
         <v>0</v>
@@ -4209,8 +4205,8 @@
       <c r="H108" s="31">
         <v>0</v>
       </c>
-      <c r="I108" s="31" t="s">
-        <v>10</v>
+      <c r="I108" s="31">
+        <v>111</v>
       </c>
       <c r="J108" s="31">
         <v>0</v>
@@ -4241,8 +4237,8 @@
       <c r="H109" s="31">
         <v>1</v>
       </c>
-      <c r="I109" s="31" t="s">
-        <v>10</v>
+      <c r="I109" s="31">
+        <v>111</v>
       </c>
       <c r="J109" s="31">
         <v>0</v>
@@ -4273,8 +4269,8 @@
       <c r="H110" s="31">
         <v>0</v>
       </c>
-      <c r="I110" s="31" t="s">
-        <v>10</v>
+      <c r="I110" s="31">
+        <v>111</v>
       </c>
       <c r="J110" s="31">
         <v>0</v>
@@ -4305,8 +4301,8 @@
       <c r="H111" s="31">
         <v>0</v>
       </c>
-      <c r="I111" s="31" t="s">
-        <v>10</v>
+      <c r="I111" s="31">
+        <v>111</v>
       </c>
       <c r="J111" s="31">
         <v>0</v>
@@ -4337,8 +4333,8 @@
       <c r="H112" s="22">
         <v>0</v>
       </c>
-      <c r="I112" s="22" t="s">
-        <v>10</v>
+      <c r="I112" s="22">
+        <v>111</v>
       </c>
       <c r="J112" s="22">
         <v>0</v>
@@ -4369,8 +4365,8 @@
       <c r="H113" s="22">
         <v>0</v>
       </c>
-      <c r="I113" s="22" t="s">
-        <v>10</v>
+      <c r="I113" s="22">
+        <v>111</v>
       </c>
       <c r="J113" s="22">
         <v>0</v>
@@ -4401,8 +4397,8 @@
       <c r="H114" s="22">
         <v>0</v>
       </c>
-      <c r="I114" s="22" t="s">
-        <v>10</v>
+      <c r="I114" s="22">
+        <v>111</v>
       </c>
       <c r="J114" s="22">
         <v>0</v>
@@ -4433,8 +4429,8 @@
       <c r="H115" s="22">
         <v>4</v>
       </c>
-      <c r="I115" s="22" t="s">
-        <v>10</v>
+      <c r="I115" s="22">
+        <v>111</v>
       </c>
       <c r="J115" s="22">
         <v>0</v>
@@ -4465,8 +4461,8 @@
       <c r="H116" s="22">
         <v>1</v>
       </c>
-      <c r="I116" s="22" t="s">
-        <v>10</v>
+      <c r="I116" s="22">
+        <v>111</v>
       </c>
       <c r="J116" s="22">
         <v>0</v>
@@ -4497,10 +4493,42 @@
       <c r="H117" s="31">
         <v>0</v>
       </c>
-      <c r="I117" s="31" t="s">
-        <v>10</v>
+      <c r="I117" s="31">
+        <v>111</v>
       </c>
       <c r="J117" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="20">
+        <v>44018</v>
+      </c>
+      <c r="B118" s="21">
+        <v>108228</v>
+      </c>
+      <c r="C118" s="22">
+        <v>1325</v>
+      </c>
+      <c r="D118" s="22">
+        <v>1739</v>
+      </c>
+      <c r="E118" s="22">
+        <v>23</v>
+      </c>
+      <c r="F118" s="22">
+        <v>12</v>
+      </c>
+      <c r="G118" s="22">
+        <v>0</v>
+      </c>
+      <c r="H118" s="22">
+        <v>1</v>
+      </c>
+      <c r="I118" s="22">
+        <v>111</v>
+      </c>
+      <c r="J118" s="22">
         <v>0</v>
       </c>
     </row>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6C7FB3-796C-4D99-BC7A-97BE27474EEA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -55,15 +56,27 @@
   <si>
     <t>Deaths (daily)</t>
   </si>
+  <si>
+    <t xml:space="preserve">Notes: </t>
+  </si>
+  <si>
+    <t>22 June 2020: Two deaths that occurred in April were added to the statistics.</t>
+  </si>
+  <si>
+    <t>2 July 2020: One infection was deducted from the NIPH epidemiological report of 2 July 2020, since additional testing did not confirm the infection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 July 2020: Because the Nova Gorica General Hospital laboratory was included in the reporting on 2 July 2020, the laboratories corrected the sum of the tests in the joint report due to an error that occurred when adding up the numbers. The error was found and corrected on 6 July 2020 (5 tests were added).  </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +111,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="3">
@@ -154,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -248,6 +268,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,8 +464,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J118" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J119" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J119" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -452,16 +478,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -734,29 +760,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="I117" sqref="I117"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119:J119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -788,7 +814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>43902</v>
       </c>
@@ -820,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>43903</v>
       </c>
@@ -852,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>43904</v>
       </c>
@@ -884,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>43905</v>
       </c>
@@ -916,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>43906</v>
       </c>
@@ -948,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>43907</v>
       </c>
@@ -980,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>43908</v>
       </c>
@@ -1012,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>43909</v>
       </c>
@@ -1044,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>43910</v>
       </c>
@@ -1076,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>43911</v>
       </c>
@@ -1108,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>43912</v>
       </c>
@@ -1140,7 +1166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -1172,7 +1198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>43914</v>
       </c>
@@ -1204,7 +1230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>43915</v>
       </c>
@@ -1236,7 +1262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>43916</v>
       </c>
@@ -1268,7 +1294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>43917</v>
       </c>
@@ -1300,7 +1326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>43918</v>
       </c>
@@ -1332,7 +1358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>43919</v>
       </c>
@@ -1364,7 +1390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>43920</v>
       </c>
@@ -1396,7 +1422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>43921</v>
       </c>
@@ -1428,7 +1454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>43922</v>
       </c>
@@ -1460,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>43923</v>
       </c>
@@ -1492,7 +1518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>43924</v>
       </c>
@@ -1524,7 +1550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>43925</v>
       </c>
@@ -1556,7 +1582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>43926</v>
       </c>
@@ -1588,7 +1614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>43927</v>
       </c>
@@ -1620,7 +1646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>43928</v>
       </c>
@@ -1652,7 +1678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>43929</v>
       </c>
@@ -1684,7 +1710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>43930</v>
       </c>
@@ -1716,7 +1742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>43931</v>
       </c>
@@ -1748,7 +1774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>43932</v>
       </c>
@@ -1780,7 +1806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>43933</v>
       </c>
@@ -1812,7 +1838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>43934</v>
       </c>
@@ -1844,7 +1870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>43935</v>
       </c>
@@ -1876,7 +1902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>43936</v>
       </c>
@@ -1908,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>43937</v>
       </c>
@@ -1940,7 +1966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>43938</v>
       </c>
@@ -1972,7 +1998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>43939</v>
       </c>
@@ -2004,7 +2030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>43940</v>
       </c>
@@ -2036,7 +2062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>43941</v>
       </c>
@@ -2068,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>43942</v>
       </c>
@@ -2100,7 +2126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>43943</v>
       </c>
@@ -2132,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43944</v>
       </c>
@@ -2164,7 +2190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>43945</v>
       </c>
@@ -2196,7 +2222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>43946</v>
       </c>
@@ -2228,7 +2254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>43947</v>
       </c>
@@ -2260,7 +2286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>43948</v>
       </c>
@@ -2292,7 +2318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>43949</v>
       </c>
@@ -2324,7 +2350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>43950</v>
       </c>
@@ -2356,7 +2382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>43951</v>
       </c>
@@ -2388,7 +2414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>43952</v>
       </c>
@@ -2420,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>43953</v>
       </c>
@@ -2452,7 +2478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>43954</v>
       </c>
@@ -2484,7 +2510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>43955</v>
       </c>
@@ -2516,7 +2542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>43956</v>
       </c>
@@ -2548,7 +2574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>43957</v>
       </c>
@@ -2580,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>43958</v>
       </c>
@@ -2612,7 +2638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>43959</v>
       </c>
@@ -2644,7 +2670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>43960</v>
       </c>
@@ -2676,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>43961</v>
       </c>
@@ -2708,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>43962</v>
       </c>
@@ -2740,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>43963</v>
       </c>
@@ -2772,7 +2798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
         <v>43964</v>
       </c>
@@ -2804,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
         <v>43965</v>
       </c>
@@ -2836,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>43966</v>
       </c>
@@ -2868,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
         <v>43967</v>
       </c>
@@ -2900,7 +2926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>43968</v>
       </c>
@@ -2932,7 +2958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
         <v>43969</v>
       </c>
@@ -2964,7 +2990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>43970</v>
       </c>
@@ -2996,7 +3022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="20">
         <v>43971</v>
       </c>
@@ -3028,7 +3054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <v>43972</v>
       </c>
@@ -3060,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="20">
         <v>43973</v>
       </c>
@@ -3092,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="17">
         <v>43974</v>
       </c>
@@ -3124,7 +3150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="20">
         <v>43975</v>
       </c>
@@ -3156,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="20">
         <v>43976</v>
       </c>
@@ -3188,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="20">
         <v>43977</v>
       </c>
@@ -3220,7 +3246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="20">
         <v>43978</v>
       </c>
@@ -3252,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="20">
         <v>43979</v>
       </c>
@@ -3284,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="20">
         <v>43980</v>
       </c>
@@ -3316,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="20">
         <v>43981</v>
       </c>
@@ -3348,7 +3374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="20">
         <v>43982</v>
       </c>
@@ -3380,7 +3406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="20">
         <v>43983</v>
       </c>
@@ -3412,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="20">
         <v>43984</v>
       </c>
@@ -3444,7 +3470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="20">
         <v>43985</v>
       </c>
@@ -3476,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="26">
         <v>43986</v>
       </c>
@@ -3508,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="29">
         <v>43987</v>
       </c>
@@ -3540,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <v>43988</v>
       </c>
@@ -3572,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="29">
         <v>43989</v>
       </c>
@@ -3604,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="20">
         <v>43990</v>
       </c>
@@ -3636,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="20">
         <v>43991</v>
       </c>
@@ -3668,7 +3694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <v>43992</v>
       </c>
@@ -3700,7 +3726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="29">
         <v>43993</v>
       </c>
@@ -3732,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
         <v>43994</v>
       </c>
@@ -3764,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="29">
         <v>43995</v>
       </c>
@@ -3796,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <v>43996</v>
       </c>
@@ -3828,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="20">
         <v>43997</v>
       </c>
@@ -3860,7 +3886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="20">
         <v>43998</v>
       </c>
@@ -3892,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="29">
         <v>43999</v>
       </c>
@@ -3924,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="20">
         <v>44000</v>
       </c>
@@ -3956,7 +3982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="29">
         <v>44001</v>
       </c>
@@ -3988,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="23">
         <v>44002</v>
       </c>
@@ -4020,7 +4046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="29">
         <v>44003</v>
       </c>
@@ -4052,7 +4078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="29">
         <v>44004</v>
       </c>
@@ -4084,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="29">
         <v>44005</v>
       </c>
@@ -4116,7 +4142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
         <v>44006</v>
       </c>
@@ -4148,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="29">
         <v>44007</v>
       </c>
@@ -4180,7 +4206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="29">
         <v>44008</v>
       </c>
@@ -4212,7 +4238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="29">
         <v>44009</v>
       </c>
@@ -4244,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="29">
         <v>44010</v>
       </c>
@@ -4276,7 +4302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="29">
         <v>44011</v>
       </c>
@@ -4308,7 +4334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="20">
         <v>44012</v>
       </c>
@@ -4340,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="20">
         <v>44013</v>
       </c>
@@ -4372,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="20">
         <v>44014</v>
       </c>
@@ -4404,7 +4430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="20">
         <v>44015</v>
       </c>
@@ -4436,7 +4462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="20">
         <v>44016</v>
       </c>
@@ -4468,7 +4494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="29">
         <v>44017</v>
       </c>
@@ -4500,7 +4526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="20">
         <v>44018</v>
       </c>
@@ -4531,6 +4557,61 @@
       <c r="J118" s="22">
         <v>0</v>
       </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119" s="4">
+        <v>44019</v>
+      </c>
+      <c r="B119" s="7">
+        <v>109835</v>
+      </c>
+      <c r="C119" s="5">
+        <v>1607</v>
+      </c>
+      <c r="D119" s="5">
+        <v>1763</v>
+      </c>
+      <c r="E119" s="5">
+        <v>24</v>
+      </c>
+      <c r="F119" s="5">
+        <v>14</v>
+      </c>
+      <c r="G119" s="5">
+        <v>0</v>
+      </c>
+      <c r="H119" s="5">
+        <v>3</v>
+      </c>
+      <c r="I119" s="5">
+        <v>111</v>
+      </c>
+      <c r="J119" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" s="33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6C7FB3-796C-4D99-BC7A-97BE27474EEA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -72,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
@@ -464,8 +463,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J119" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J119" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J120" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J120">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -478,16 +477,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -760,29 +759,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A104" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119:J119"/>
+      <selection activeCell="A120" sqref="A120:J120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -814,7 +813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43902</v>
       </c>
@@ -846,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43903</v>
       </c>
@@ -878,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43904</v>
       </c>
@@ -910,7 +909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43905</v>
       </c>
@@ -942,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43906</v>
       </c>
@@ -974,7 +973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43907</v>
       </c>
@@ -1006,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43908</v>
       </c>
@@ -1038,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43909</v>
       </c>
@@ -1070,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43910</v>
       </c>
@@ -1102,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>43911</v>
       </c>
@@ -1134,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>43912</v>
       </c>
@@ -1166,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -1198,7 +1197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>43914</v>
       </c>
@@ -1230,7 +1229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>43915</v>
       </c>
@@ -1262,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>43916</v>
       </c>
@@ -1294,7 +1293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43917</v>
       </c>
@@ -1326,7 +1325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>43918</v>
       </c>
@@ -1358,7 +1357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>43919</v>
       </c>
@@ -1390,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>43920</v>
       </c>
@@ -1422,7 +1421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>43921</v>
       </c>
@@ -1454,7 +1453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>43922</v>
       </c>
@@ -1486,7 +1485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>43923</v>
       </c>
@@ -1518,7 +1517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>43924</v>
       </c>
@@ -1550,7 +1549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>43925</v>
       </c>
@@ -1582,7 +1581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>43926</v>
       </c>
@@ -1614,7 +1613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>43927</v>
       </c>
@@ -1646,7 +1645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>43928</v>
       </c>
@@ -1678,7 +1677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>43929</v>
       </c>
@@ -1710,7 +1709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>43930</v>
       </c>
@@ -1742,7 +1741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>43931</v>
       </c>
@@ -1774,7 +1773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>43932</v>
       </c>
@@ -1806,7 +1805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>43933</v>
       </c>
@@ -1838,7 +1837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>43934</v>
       </c>
@@ -1870,7 +1869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>43935</v>
       </c>
@@ -1902,7 +1901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>43936</v>
       </c>
@@ -1934,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>43937</v>
       </c>
@@ -1966,7 +1965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>43938</v>
       </c>
@@ -1998,7 +1997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>43939</v>
       </c>
@@ -2030,7 +2029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>43940</v>
       </c>
@@ -2062,7 +2061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>43941</v>
       </c>
@@ -2094,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>43942</v>
       </c>
@@ -2126,7 +2125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>43943</v>
       </c>
@@ -2158,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43944</v>
       </c>
@@ -2190,7 +2189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43945</v>
       </c>
@@ -2222,7 +2221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>43946</v>
       </c>
@@ -2254,7 +2253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>43947</v>
       </c>
@@ -2286,7 +2285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>43948</v>
       </c>
@@ -2318,7 +2317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>43949</v>
       </c>
@@ -2350,7 +2349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>43950</v>
       </c>
@@ -2382,7 +2381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>43951</v>
       </c>
@@ -2414,7 +2413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>43952</v>
       </c>
@@ -2446,7 +2445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>43953</v>
       </c>
@@ -2478,7 +2477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>43954</v>
       </c>
@@ -2510,7 +2509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>43955</v>
       </c>
@@ -2542,7 +2541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>43956</v>
       </c>
@@ -2574,7 +2573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>43957</v>
       </c>
@@ -2606,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>43958</v>
       </c>
@@ -2638,7 +2637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>43959</v>
       </c>
@@ -2670,7 +2669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>43960</v>
       </c>
@@ -2702,7 +2701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>43961</v>
       </c>
@@ -2734,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>43962</v>
       </c>
@@ -2766,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>43963</v>
       </c>
@@ -2798,7 +2797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
         <v>43964</v>
       </c>
@@ -2830,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>43965</v>
       </c>
@@ -2862,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>43966</v>
       </c>
@@ -2894,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>43967</v>
       </c>
@@ -2926,7 +2925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>43968</v>
       </c>
@@ -2958,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>43969</v>
       </c>
@@ -2990,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>43970</v>
       </c>
@@ -3022,7 +3021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>43971</v>
       </c>
@@ -3054,7 +3053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>43972</v>
       </c>
@@ -3086,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
         <v>43973</v>
       </c>
@@ -3118,7 +3117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
         <v>43974</v>
       </c>
@@ -3150,7 +3149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="20">
         <v>43975</v>
       </c>
@@ -3182,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>43976</v>
       </c>
@@ -3214,7 +3213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
         <v>43977</v>
       </c>
@@ -3246,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
         <v>43978</v>
       </c>
@@ -3278,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="20">
         <v>43979</v>
       </c>
@@ -3310,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>43980</v>
       </c>
@@ -3342,7 +3341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="20">
         <v>43981</v>
       </c>
@@ -3374,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="20">
         <v>43982</v>
       </c>
@@ -3406,7 +3405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="20">
         <v>43983</v>
       </c>
@@ -3438,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="20">
         <v>43984</v>
       </c>
@@ -3470,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="20">
         <v>43985</v>
       </c>
@@ -3502,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="26">
         <v>43986</v>
       </c>
@@ -3534,7 +3533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="29">
         <v>43987</v>
       </c>
@@ -3566,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>43988</v>
       </c>
@@ -3598,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="29">
         <v>43989</v>
       </c>
@@ -3630,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="20">
         <v>43990</v>
       </c>
@@ -3662,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="20">
         <v>43991</v>
       </c>
@@ -3694,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>43992</v>
       </c>
@@ -3726,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="29">
         <v>43993</v>
       </c>
@@ -3758,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>43994</v>
       </c>
@@ -3790,7 +3789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="29">
         <v>43995</v>
       </c>
@@ -3822,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>43996</v>
       </c>
@@ -3854,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="20">
         <v>43997</v>
       </c>
@@ -3886,7 +3885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="20">
         <v>43998</v>
       </c>
@@ -3918,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="29">
         <v>43999</v>
       </c>
@@ -3950,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="20">
         <v>44000</v>
       </c>
@@ -3982,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="29">
         <v>44001</v>
       </c>
@@ -4014,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>44002</v>
       </c>
@@ -4046,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="29">
         <v>44003</v>
       </c>
@@ -4078,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="29">
         <v>44004</v>
       </c>
@@ -4110,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="29">
         <v>44005</v>
       </c>
@@ -4142,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>44006</v>
       </c>
@@ -4174,7 +4173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="29">
         <v>44007</v>
       </c>
@@ -4206,7 +4205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="29">
         <v>44008</v>
       </c>
@@ -4238,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="29">
         <v>44009</v>
       </c>
@@ -4270,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="29">
         <v>44010</v>
       </c>
@@ -4302,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="29">
         <v>44011</v>
       </c>
@@ -4334,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="20">
         <v>44012</v>
       </c>
@@ -4366,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="20">
         <v>44013</v>
       </c>
@@ -4398,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="20">
         <v>44014</v>
       </c>
@@ -4430,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="20">
         <v>44015</v>
       </c>
@@ -4462,7 +4461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="20">
         <v>44016</v>
       </c>
@@ -4494,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="29">
         <v>44017</v>
       </c>
@@ -4526,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="20">
         <v>44018</v>
       </c>
@@ -4558,7 +4557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>44019</v>
       </c>
@@ -4590,27 +4589,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="20">
+        <v>44020</v>
+      </c>
+      <c r="B120" s="21">
+        <v>111106</v>
+      </c>
+      <c r="C120" s="22">
+        <v>1271</v>
+      </c>
+      <c r="D120" s="22">
+        <v>1776</v>
+      </c>
+      <c r="E120" s="22">
+        <v>13</v>
+      </c>
+      <c r="F120" s="22">
+        <v>15</v>
+      </c>
+      <c r="G120" s="22">
+        <v>0</v>
+      </c>
+      <c r="H120" s="22">
+        <v>1</v>
+      </c>
+      <c r="I120" s="22">
+        <v>111</v>
+      </c>
+      <c r="J120" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="33" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="33" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="32"/>
     </row>
   </sheetData>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE44281-B1CC-4CA1-A306-E1BF7A7FFE6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
@@ -463,8 +464,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J120" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J121" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J121" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -477,16 +478,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -759,11 +760,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A104" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120:J120"/>
+      <selection activeCell="A121" sqref="A121:J121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4621,6 +4622,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="29">
+        <v>44021</v>
+      </c>
+      <c r="B121" s="30">
+        <v>112496</v>
+      </c>
+      <c r="C121" s="31">
+        <v>1390</v>
+      </c>
+      <c r="D121" s="31">
+        <v>1793</v>
+      </c>
+      <c r="E121" s="31">
+        <v>17</v>
+      </c>
+      <c r="F121" s="31">
+        <v>16</v>
+      </c>
+      <c r="G121" s="31">
+        <v>0</v>
+      </c>
+      <c r="H121" s="31">
+        <v>0</v>
+      </c>
+      <c r="I121" s="31">
+        <v>111</v>
+      </c>
+      <c r="J121" s="31">
+        <v>0</v>
+      </c>
+    </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="33" t="s">
         <v>10</v>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE44281-B1CC-4CA1-A306-E1BF7A7FFE6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018F6EA6-3727-4109-B3DB-DC37070F548B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,8 +464,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J121" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J121" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J122" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J122" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -764,7 +764,7 @@
   <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A104" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121:J121"/>
+      <selection activeCell="A122" sqref="A122:J122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4654,6 +4654,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="23">
+        <v>44022</v>
+      </c>
+      <c r="B122" s="24">
+        <v>113665</v>
+      </c>
+      <c r="C122" s="25">
+        <v>1159</v>
+      </c>
+      <c r="D122" s="25">
+        <v>1827</v>
+      </c>
+      <c r="E122" s="25">
+        <v>34</v>
+      </c>
+      <c r="F122" s="25">
+        <v>16</v>
+      </c>
+      <c r="G122" s="25">
+        <v>0</v>
+      </c>
+      <c r="H122" s="25">
+        <v>0</v>
+      </c>
+      <c r="I122" s="25">
+        <v>111</v>
+      </c>
+      <c r="J122" s="25">
+        <v>0</v>
+      </c>
+    </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="33" t="s">
         <v>10</v>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018F6EA6-3727-4109-B3DB-DC37070F548B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584A2E6F-3F0B-4306-A134-78DED7A04AF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,8 +464,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J122" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J122" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J123" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J123" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -764,7 +764,7 @@
   <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A104" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122:J122"/>
+      <selection activeCell="F136" sqref="F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4686,6 +4686,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="29">
+        <v>44023</v>
+      </c>
+      <c r="B123" s="30">
+        <v>114215</v>
+      </c>
+      <c r="C123" s="31">
+        <v>560</v>
+      </c>
+      <c r="D123" s="31">
+        <v>1841</v>
+      </c>
+      <c r="E123" s="31">
+        <v>14</v>
+      </c>
+      <c r="F123" s="31">
+        <v>16</v>
+      </c>
+      <c r="G123" s="31">
+        <v>0</v>
+      </c>
+      <c r="H123" s="31">
+        <v>0</v>
+      </c>
+      <c r="I123" s="31">
+        <v>111</v>
+      </c>
+      <c r="J123" s="31">
+        <v>0</v>
+      </c>
+    </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="33" t="s">
         <v>10</v>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584A2E6F-3F0B-4306-A134-78DED7A04AF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -72,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
@@ -464,8 +463,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J123" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J123" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J124" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J124">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -478,16 +477,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -760,11 +759,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J130"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A104" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="F136" sqref="F136"/>
+      <selection activeCell="A140" sqref="A140:A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4718,28 +4717,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="33" t="s">
-        <v>13</v>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="20">
+        <v>44024</v>
+      </c>
+      <c r="B124" s="21">
+        <v>114665</v>
+      </c>
+      <c r="C124" s="22">
+        <v>440</v>
+      </c>
+      <c r="D124" s="22">
+        <v>1849</v>
+      </c>
+      <c r="E124" s="22">
+        <v>8</v>
+      </c>
+      <c r="F124" s="22">
+        <v>17</v>
+      </c>
+      <c r="G124" s="22">
+        <v>1</v>
+      </c>
+      <c r="H124" s="22">
+        <v>1</v>
+      </c>
+      <c r="I124" s="22">
+        <v>111</v>
+      </c>
+      <c r="J124" s="22">
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="32"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="33" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -96,12 +96,16 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="major"/>
     </font>
     <font>
@@ -463,8 +467,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J124" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J125" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J125">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -763,7 +767,7 @@
   <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A104" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140:A143"/>
+      <selection activeCell="A125" sqref="A125:J125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4749,6 +4753,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <v>44025</v>
+      </c>
+      <c r="B125" s="7">
+        <v>115873</v>
+      </c>
+      <c r="C125" s="5">
+        <v>1218</v>
+      </c>
+      <c r="D125" s="5">
+        <v>1859</v>
+      </c>
+      <c r="E125" s="5">
+        <v>10</v>
+      </c>
+      <c r="F125" s="5">
+        <v>17</v>
+      </c>
+      <c r="G125" s="5">
+        <v>1</v>
+      </c>
+      <c r="H125" s="5">
+        <v>3</v>
+      </c>
+      <c r="I125" s="5">
+        <v>111</v>
+      </c>
+      <c r="J125" s="5">
+        <v>0</v>
+      </c>
+    </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="32"/>
     </row>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -75,7 +75,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +121,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -177,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -277,6 +283,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,8 +482,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J125" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J126" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J126">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -767,7 +782,7 @@
   <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A104" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125:J125"/>
+      <selection activeCell="A126" sqref="A126:J126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4785,6 +4800,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="34">
+        <v>44026</v>
+      </c>
+      <c r="B126" s="35">
+        <v>116985</v>
+      </c>
+      <c r="C126" s="36">
+        <v>1112</v>
+      </c>
+      <c r="D126" s="36">
+        <v>1878</v>
+      </c>
+      <c r="E126" s="36">
+        <v>19</v>
+      </c>
+      <c r="F126" s="36">
+        <v>16</v>
+      </c>
+      <c r="G126" s="36">
+        <v>1</v>
+      </c>
+      <c r="H126" s="36">
+        <v>1</v>
+      </c>
+      <c r="I126" s="36">
+        <v>111</v>
+      </c>
+      <c r="J126" s="36">
+        <v>0</v>
+      </c>
+    </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="32"/>
     </row>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF8F0E4-CA02-4FF9-8C0A-2476455B290A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
@@ -183,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -291,6 +292,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -482,8 +492,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J126" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J126">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J127" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J127" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -496,16 +506,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -778,11 +788,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A104" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126:J126"/>
+      <selection activeCell="A127" sqref="A127:J127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4832,6 +4842,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="37">
+        <v>44027</v>
+      </c>
+      <c r="B127" s="38">
+        <v>118017</v>
+      </c>
+      <c r="C127" s="39">
+        <v>1032</v>
+      </c>
+      <c r="D127" s="39">
+        <v>1897</v>
+      </c>
+      <c r="E127" s="39">
+        <v>19</v>
+      </c>
+      <c r="F127" s="39">
+        <v>18</v>
+      </c>
+      <c r="G127" s="39">
+        <v>1</v>
+      </c>
+      <c r="H127" s="39">
+        <v>0</v>
+      </c>
+      <c r="I127" s="39">
+        <v>111</v>
+      </c>
+      <c r="J127" s="39">
+        <v>0</v>
+      </c>
+    </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="32"/>
     </row>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF8F0E4-CA02-4FF9-8C0A-2476455B290A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -72,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
@@ -492,8 +491,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J127" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J127" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J128" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J128">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -506,16 +505,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -788,11 +787,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A104" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127:J127"/>
+      <selection activeCell="A128" sqref="A128:J128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4874,6 +4873,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="34">
+        <v>44028</v>
+      </c>
+      <c r="B128" s="35">
+        <v>119029</v>
+      </c>
+      <c r="C128" s="36">
+        <v>1012</v>
+      </c>
+      <c r="D128" s="36">
+        <v>1916</v>
+      </c>
+      <c r="E128" s="36">
+        <v>19</v>
+      </c>
+      <c r="F128" s="36">
+        <v>19</v>
+      </c>
+      <c r="G128" s="36">
+        <v>1</v>
+      </c>
+      <c r="H128" s="36">
+        <v>1</v>
+      </c>
+      <c r="I128" s="36">
+        <v>111</v>
+      </c>
+      <c r="J128" s="36">
+        <v>0</v>
+      </c>
+    </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="32"/>
     </row>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF38372A-8819-4297-8653-B33FF37400FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
@@ -491,8 +492,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J128" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J128">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J129" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J129" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -505,16 +506,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -787,29 +788,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A104" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128:J128"/>
+      <selection activeCell="A129" sqref="A129:J129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -841,7 +842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>43902</v>
       </c>
@@ -873,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>43903</v>
       </c>
@@ -905,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>43904</v>
       </c>
@@ -937,7 +938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>43905</v>
       </c>
@@ -969,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>43906</v>
       </c>
@@ -1001,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>43907</v>
       </c>
@@ -1033,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>43908</v>
       </c>
@@ -1065,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>43909</v>
       </c>
@@ -1097,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>43910</v>
       </c>
@@ -1129,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>43911</v>
       </c>
@@ -1161,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>43912</v>
       </c>
@@ -1193,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -1225,7 +1226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>43914</v>
       </c>
@@ -1257,7 +1258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>43915</v>
       </c>
@@ -1289,7 +1290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>43916</v>
       </c>
@@ -1321,7 +1322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>43917</v>
       </c>
@@ -1353,7 +1354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>43918</v>
       </c>
@@ -1385,7 +1386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>43919</v>
       </c>
@@ -1417,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>43920</v>
       </c>
@@ -1449,7 +1450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>43921</v>
       </c>
@@ -1481,7 +1482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>43922</v>
       </c>
@@ -1513,7 +1514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>43923</v>
       </c>
@@ -1545,7 +1546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>43924</v>
       </c>
@@ -1577,7 +1578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>43925</v>
       </c>
@@ -1609,7 +1610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>43926</v>
       </c>
@@ -1641,7 +1642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>43927</v>
       </c>
@@ -1673,7 +1674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>43928</v>
       </c>
@@ -1705,7 +1706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>43929</v>
       </c>
@@ -1737,7 +1738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>43930</v>
       </c>
@@ -1769,7 +1770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>43931</v>
       </c>
@@ -1801,7 +1802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>43932</v>
       </c>
@@ -1833,7 +1834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>43933</v>
       </c>
@@ -1865,7 +1866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>43934</v>
       </c>
@@ -1897,7 +1898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>43935</v>
       </c>
@@ -1929,7 +1930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>43936</v>
       </c>
@@ -1961,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>43937</v>
       </c>
@@ -1993,7 +1994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>43938</v>
       </c>
@@ -2025,7 +2026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>43939</v>
       </c>
@@ -2057,7 +2058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>43940</v>
       </c>
@@ -2089,7 +2090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>43941</v>
       </c>
@@ -2121,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>43942</v>
       </c>
@@ -2153,7 +2154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>43943</v>
       </c>
@@ -2185,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43944</v>
       </c>
@@ -2217,7 +2218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>43945</v>
       </c>
@@ -2249,7 +2250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>43946</v>
       </c>
@@ -2281,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>43947</v>
       </c>
@@ -2313,7 +2314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>43948</v>
       </c>
@@ -2345,7 +2346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>43949</v>
       </c>
@@ -2377,7 +2378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>43950</v>
       </c>
@@ -2409,7 +2410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>43951</v>
       </c>
@@ -2441,7 +2442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>43952</v>
       </c>
@@ -2473,7 +2474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>43953</v>
       </c>
@@ -2505,7 +2506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>43954</v>
       </c>
@@ -2537,7 +2538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>43955</v>
       </c>
@@ -2569,7 +2570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>43956</v>
       </c>
@@ -2601,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>43957</v>
       </c>
@@ -2633,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>43958</v>
       </c>
@@ -2665,7 +2666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>43959</v>
       </c>
@@ -2697,7 +2698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>43960</v>
       </c>
@@ -2729,7 +2730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>43961</v>
       </c>
@@ -2761,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>43962</v>
       </c>
@@ -2793,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>43963</v>
       </c>
@@ -2825,7 +2826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
         <v>43964</v>
       </c>
@@ -2857,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
         <v>43965</v>
       </c>
@@ -2889,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>43966</v>
       </c>
@@ -2921,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
         <v>43967</v>
       </c>
@@ -2953,7 +2954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>43968</v>
       </c>
@@ -2985,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
         <v>43969</v>
       </c>
@@ -3017,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>43970</v>
       </c>
@@ -3049,7 +3050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="20">
         <v>43971</v>
       </c>
@@ -3081,7 +3082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <v>43972</v>
       </c>
@@ -3113,7 +3114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="20">
         <v>43973</v>
       </c>
@@ -3145,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="17">
         <v>43974</v>
       </c>
@@ -3177,7 +3178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="20">
         <v>43975</v>
       </c>
@@ -3209,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="20">
         <v>43976</v>
       </c>
@@ -3241,7 +3242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="20">
         <v>43977</v>
       </c>
@@ -3273,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="20">
         <v>43978</v>
       </c>
@@ -3305,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="20">
         <v>43979</v>
       </c>
@@ -3337,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="20">
         <v>43980</v>
       </c>
@@ -3369,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="20">
         <v>43981</v>
       </c>
@@ -3401,7 +3402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="20">
         <v>43982</v>
       </c>
@@ -3433,7 +3434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="20">
         <v>43983</v>
       </c>
@@ -3465,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="20">
         <v>43984</v>
       </c>
@@ -3497,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="20">
         <v>43985</v>
       </c>
@@ -3529,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="26">
         <v>43986</v>
       </c>
@@ -3561,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="29">
         <v>43987</v>
       </c>
@@ -3593,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <v>43988</v>
       </c>
@@ -3625,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="29">
         <v>43989</v>
       </c>
@@ -3657,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="20">
         <v>43990</v>
       </c>
@@ -3689,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="20">
         <v>43991</v>
       </c>
@@ -3721,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <v>43992</v>
       </c>
@@ -3753,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="29">
         <v>43993</v>
       </c>
@@ -3785,7 +3786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
         <v>43994</v>
       </c>
@@ -3817,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="29">
         <v>43995</v>
       </c>
@@ -3849,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <v>43996</v>
       </c>
@@ -3881,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="20">
         <v>43997</v>
       </c>
@@ -3913,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="20">
         <v>43998</v>
       </c>
@@ -3945,7 +3946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="29">
         <v>43999</v>
       </c>
@@ -3977,7 +3978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="20">
         <v>44000</v>
       </c>
@@ -4009,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="29">
         <v>44001</v>
       </c>
@@ -4041,7 +4042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="23">
         <v>44002</v>
       </c>
@@ -4073,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="29">
         <v>44003</v>
       </c>
@@ -4105,7 +4106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="29">
         <v>44004</v>
       </c>
@@ -4137,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="29">
         <v>44005</v>
       </c>
@@ -4169,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
         <v>44006</v>
       </c>
@@ -4201,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="29">
         <v>44007</v>
       </c>
@@ -4233,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="29">
         <v>44008</v>
       </c>
@@ -4265,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="29">
         <v>44009</v>
       </c>
@@ -4297,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="29">
         <v>44010</v>
       </c>
@@ -4329,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="29">
         <v>44011</v>
       </c>
@@ -4361,7 +4362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="20">
         <v>44012</v>
       </c>
@@ -4393,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="20">
         <v>44013</v>
       </c>
@@ -4425,7 +4426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="20">
         <v>44014</v>
       </c>
@@ -4457,7 +4458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="20">
         <v>44015</v>
       </c>
@@ -4489,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="20">
         <v>44016</v>
       </c>
@@ -4521,7 +4522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="29">
         <v>44017</v>
       </c>
@@ -4553,7 +4554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="20">
         <v>44018</v>
       </c>
@@ -4585,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>44019</v>
       </c>
@@ -4617,7 +4618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="20">
         <v>44020</v>
       </c>
@@ -4649,7 +4650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="29">
         <v>44021</v>
       </c>
@@ -4681,7 +4682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="23">
         <v>44022</v>
       </c>
@@ -4713,7 +4714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="29">
         <v>44023</v>
       </c>
@@ -4745,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="20">
         <v>44024</v>
       </c>
@@ -4777,7 +4778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>44025</v>
       </c>
@@ -4809,7 +4810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="34">
         <v>44026</v>
       </c>
@@ -4841,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="37">
         <v>44027</v>
       </c>
@@ -4873,7 +4874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="34">
         <v>44028</v>
       </c>
@@ -4905,25 +4906,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A129" s="37">
+        <v>44029</v>
+      </c>
+      <c r="B129" s="38">
+        <v>120056</v>
+      </c>
+      <c r="C129" s="39">
+        <v>1027</v>
+      </c>
+      <c r="D129" s="39">
+        <v>1940</v>
+      </c>
+      <c r="E129" s="39">
+        <v>24</v>
+      </c>
+      <c r="F129" s="39">
+        <v>19</v>
+      </c>
+      <c r="G129" s="39">
+        <v>2</v>
+      </c>
+      <c r="H129" s="39">
+        <v>2</v>
+      </c>
+      <c r="I129" s="39">
+        <v>111</v>
+      </c>
+      <c r="J129" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="32"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="33" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="33" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="33" t="s">
         <v>13</v>
       </c>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF38372A-8819-4297-8653-B33FF37400FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F0EDB2-CCF6-4FDD-9FD9-6C0FF55EBB9A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -279,9 +279,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -301,6 +298,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -492,8 +498,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J129" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J129" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J130" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J130" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -792,25 +798,25 @@
   <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A104" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129:J129"/>
+      <selection activeCell="H130" sqref="H130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -842,7 +848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43902</v>
       </c>
@@ -874,7 +880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43903</v>
       </c>
@@ -906,7 +912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43904</v>
       </c>
@@ -938,7 +944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43905</v>
       </c>
@@ -970,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43906</v>
       </c>
@@ -1002,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43907</v>
       </c>
@@ -1034,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43908</v>
       </c>
@@ -1066,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43909</v>
       </c>
@@ -1098,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43910</v>
       </c>
@@ -1130,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>43911</v>
       </c>
@@ -1162,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>43912</v>
       </c>
@@ -1194,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -1226,7 +1232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>43914</v>
       </c>
@@ -1258,7 +1264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>43915</v>
       </c>
@@ -1290,7 +1296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>43916</v>
       </c>
@@ -1322,7 +1328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43917</v>
       </c>
@@ -1354,7 +1360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>43918</v>
       </c>
@@ -1386,7 +1392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>43919</v>
       </c>
@@ -1418,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>43920</v>
       </c>
@@ -1450,7 +1456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>43921</v>
       </c>
@@ -1482,7 +1488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>43922</v>
       </c>
@@ -1514,7 +1520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>43923</v>
       </c>
@@ -1546,7 +1552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>43924</v>
       </c>
@@ -1578,7 +1584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>43925</v>
       </c>
@@ -1610,7 +1616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>43926</v>
       </c>
@@ -1642,7 +1648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>43927</v>
       </c>
@@ -1674,7 +1680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>43928</v>
       </c>
@@ -1706,7 +1712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>43929</v>
       </c>
@@ -1738,7 +1744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>43930</v>
       </c>
@@ -1770,7 +1776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>43931</v>
       </c>
@@ -1802,7 +1808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>43932</v>
       </c>
@@ -1834,7 +1840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>43933</v>
       </c>
@@ -1866,7 +1872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>43934</v>
       </c>
@@ -1898,7 +1904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>43935</v>
       </c>
@@ -1930,7 +1936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>43936</v>
       </c>
@@ -1962,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>43937</v>
       </c>
@@ -1994,7 +2000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>43938</v>
       </c>
@@ -2026,7 +2032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>43939</v>
       </c>
@@ -2058,7 +2064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>43940</v>
       </c>
@@ -2090,7 +2096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>43941</v>
       </c>
@@ -2122,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>43942</v>
       </c>
@@ -2154,7 +2160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>43943</v>
       </c>
@@ -2186,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43944</v>
       </c>
@@ -2218,7 +2224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43945</v>
       </c>
@@ -2250,7 +2256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>43946</v>
       </c>
@@ -2282,7 +2288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>43947</v>
       </c>
@@ -2314,7 +2320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>43948</v>
       </c>
@@ -2346,7 +2352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>43949</v>
       </c>
@@ -2378,7 +2384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>43950</v>
       </c>
@@ -2410,7 +2416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>43951</v>
       </c>
@@ -2442,7 +2448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>43952</v>
       </c>
@@ -2474,7 +2480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>43953</v>
       </c>
@@ -2506,7 +2512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>43954</v>
       </c>
@@ -2538,7 +2544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>43955</v>
       </c>
@@ -2570,7 +2576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>43956</v>
       </c>
@@ -2602,7 +2608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>43957</v>
       </c>
@@ -2634,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>43958</v>
       </c>
@@ -2666,7 +2672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>43959</v>
       </c>
@@ -2698,7 +2704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>43960</v>
       </c>
@@ -2730,7 +2736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>43961</v>
       </c>
@@ -2762,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>43962</v>
       </c>
@@ -2794,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>43963</v>
       </c>
@@ -2826,7 +2832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
         <v>43964</v>
       </c>
@@ -2858,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>43965</v>
       </c>
@@ -2890,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>43966</v>
       </c>
@@ -2922,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>43967</v>
       </c>
@@ -2954,7 +2960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>43968</v>
       </c>
@@ -2986,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>43969</v>
       </c>
@@ -3018,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>43970</v>
       </c>
@@ -3050,7 +3056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>43971</v>
       </c>
@@ -3082,7 +3088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>43972</v>
       </c>
@@ -3114,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
         <v>43973</v>
       </c>
@@ -3146,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
         <v>43974</v>
       </c>
@@ -3178,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="20">
         <v>43975</v>
       </c>
@@ -3210,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>43976</v>
       </c>
@@ -3242,7 +3248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
         <v>43977</v>
       </c>
@@ -3274,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
         <v>43978</v>
       </c>
@@ -3306,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="20">
         <v>43979</v>
       </c>
@@ -3338,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>43980</v>
       </c>
@@ -3370,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="20">
         <v>43981</v>
       </c>
@@ -3402,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="20">
         <v>43982</v>
       </c>
@@ -3434,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="20">
         <v>43983</v>
       </c>
@@ -3466,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="20">
         <v>43984</v>
       </c>
@@ -3498,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="20">
         <v>43985</v>
       </c>
@@ -3530,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="26">
         <v>43986</v>
       </c>
@@ -3562,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="29">
         <v>43987</v>
       </c>
@@ -3594,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>43988</v>
       </c>
@@ -3626,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="29">
         <v>43989</v>
       </c>
@@ -3658,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="20">
         <v>43990</v>
       </c>
@@ -3690,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="20">
         <v>43991</v>
       </c>
@@ -3722,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>43992</v>
       </c>
@@ -3754,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="29">
         <v>43993</v>
       </c>
@@ -3786,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>43994</v>
       </c>
@@ -3818,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="29">
         <v>43995</v>
       </c>
@@ -3850,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>43996</v>
       </c>
@@ -3882,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="20">
         <v>43997</v>
       </c>
@@ -3914,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="20">
         <v>43998</v>
       </c>
@@ -3946,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="29">
         <v>43999</v>
       </c>
@@ -3978,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="20">
         <v>44000</v>
       </c>
@@ -4010,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="29">
         <v>44001</v>
       </c>
@@ -4042,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>44002</v>
       </c>
@@ -4074,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="29">
         <v>44003</v>
       </c>
@@ -4106,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="29">
         <v>44004</v>
       </c>
@@ -4138,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="29">
         <v>44005</v>
       </c>
@@ -4170,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>44006</v>
       </c>
@@ -4202,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="29">
         <v>44007</v>
       </c>
@@ -4234,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="29">
         <v>44008</v>
       </c>
@@ -4266,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="29">
         <v>44009</v>
       </c>
@@ -4298,7 +4304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="29">
         <v>44010</v>
       </c>
@@ -4330,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="29">
         <v>44011</v>
       </c>
@@ -4362,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="20">
         <v>44012</v>
       </c>
@@ -4394,7 +4400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="20">
         <v>44013</v>
       </c>
@@ -4426,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="20">
         <v>44014</v>
       </c>
@@ -4458,7 +4464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="20">
         <v>44015</v>
       </c>
@@ -4490,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="20">
         <v>44016</v>
       </c>
@@ -4522,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="29">
         <v>44017</v>
       </c>
@@ -4554,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="20">
         <v>44018</v>
       </c>
@@ -4586,7 +4592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>44019</v>
       </c>
@@ -4618,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="20">
         <v>44020</v>
       </c>
@@ -4650,7 +4656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="29">
         <v>44021</v>
       </c>
@@ -4682,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <v>44022</v>
       </c>
@@ -4714,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="29">
         <v>44023</v>
       </c>
@@ -4746,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="20">
         <v>44024</v>
       </c>
@@ -4778,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>44025</v>
       </c>
@@ -4810,154 +4816,183 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A126" s="34">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="33">
         <v>44026</v>
       </c>
-      <c r="B126" s="35">
+      <c r="B126" s="34">
         <v>116985</v>
       </c>
-      <c r="C126" s="36">
+      <c r="C126" s="35">
         <v>1112</v>
       </c>
-      <c r="D126" s="36">
+      <c r="D126" s="35">
         <v>1878</v>
       </c>
-      <c r="E126" s="36">
+      <c r="E126" s="35">
         <v>19</v>
       </c>
-      <c r="F126" s="36">
+      <c r="F126" s="35">
         <v>16</v>
       </c>
-      <c r="G126" s="36">
-        <v>1</v>
-      </c>
-      <c r="H126" s="36">
-        <v>1</v>
-      </c>
-      <c r="I126" s="36">
+      <c r="G126" s="35">
+        <v>1</v>
+      </c>
+      <c r="H126" s="35">
+        <v>1</v>
+      </c>
+      <c r="I126" s="35">
         <v>111</v>
       </c>
-      <c r="J126" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A127" s="37">
+      <c r="J126" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="36">
         <v>44027</v>
       </c>
-      <c r="B127" s="38">
+      <c r="B127" s="37">
         <v>118017</v>
       </c>
-      <c r="C127" s="39">
+      <c r="C127" s="38">
         <v>1032</v>
       </c>
-      <c r="D127" s="39">
+      <c r="D127" s="38">
         <v>1897</v>
       </c>
-      <c r="E127" s="39">
+      <c r="E127" s="38">
         <v>19</v>
       </c>
-      <c r="F127" s="39">
+      <c r="F127" s="38">
         <v>18</v>
       </c>
-      <c r="G127" s="39">
-        <v>1</v>
-      </c>
-      <c r="H127" s="39">
-        <v>0</v>
-      </c>
-      <c r="I127" s="39">
+      <c r="G127" s="38">
+        <v>1</v>
+      </c>
+      <c r="H127" s="38">
+        <v>0</v>
+      </c>
+      <c r="I127" s="38">
         <v>111</v>
       </c>
-      <c r="J127" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A128" s="34">
+      <c r="J127" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="33">
         <v>44028</v>
       </c>
-      <c r="B128" s="35">
+      <c r="B128" s="34">
         <v>119029</v>
       </c>
-      <c r="C128" s="36">
+      <c r="C128" s="35">
         <v>1012</v>
       </c>
-      <c r="D128" s="36">
+      <c r="D128" s="35">
         <v>1916</v>
       </c>
-      <c r="E128" s="36">
+      <c r="E128" s="35">
         <v>19</v>
       </c>
-      <c r="F128" s="36">
+      <c r="F128" s="35">
         <v>19</v>
       </c>
-      <c r="G128" s="36">
-        <v>1</v>
-      </c>
-      <c r="H128" s="36">
-        <v>1</v>
-      </c>
-      <c r="I128" s="36">
+      <c r="G128" s="35">
+        <v>1</v>
+      </c>
+      <c r="H128" s="35">
+        <v>1</v>
+      </c>
+      <c r="I128" s="35">
         <v>111</v>
       </c>
-      <c r="J128" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A129" s="37">
+      <c r="J128" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="36">
         <v>44029</v>
       </c>
-      <c r="B129" s="38">
+      <c r="B129" s="37">
         <v>120056</v>
       </c>
-      <c r="C129" s="39">
+      <c r="C129" s="38">
         <v>1027</v>
       </c>
-      <c r="D129" s="39">
+      <c r="D129" s="38">
         <v>1940</v>
       </c>
-      <c r="E129" s="39">
+      <c r="E129" s="38">
         <v>24</v>
       </c>
-      <c r="F129" s="39">
+      <c r="F129" s="38">
         <v>19</v>
       </c>
-      <c r="G129" s="39">
-        <v>2</v>
-      </c>
-      <c r="H129" s="39">
-        <v>2</v>
-      </c>
-      <c r="I129" s="39">
+      <c r="G129" s="38">
+        <v>2</v>
+      </c>
+      <c r="H129" s="38">
+        <v>2</v>
+      </c>
+      <c r="I129" s="38">
         <v>111</v>
       </c>
-      <c r="J129" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A130" s="32"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A140" s="33" t="s">
+      <c r="J129" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="39">
+        <v>44030</v>
+      </c>
+      <c r="B130" s="40">
+        <v>120536</v>
+      </c>
+      <c r="C130" s="41">
+        <v>480</v>
+      </c>
+      <c r="D130" s="41">
+        <v>1946</v>
+      </c>
+      <c r="E130" s="41">
+        <v>18</v>
+      </c>
+      <c r="F130" s="41">
+        <v>2</v>
+      </c>
+      <c r="G130" s="41">
+        <v>1</v>
+      </c>
+      <c r="H130" s="41">
+        <v>0</v>
+      </c>
+      <c r="I130" s="41">
+        <v>111</v>
+      </c>
+      <c r="J130" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A141" s="33" t="s">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A142" s="33" t="s">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A143" s="33" t="s">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="32" t="s">
         <v>13</v>
       </c>
     </row>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F0EDB2-CCF6-4FDD-9FD9-6C0FF55EBB9A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E016C833-A7C8-4B8C-8281-9845C2B5247D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -798,7 +798,7 @@
   <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A104" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="H130" sqref="H130"/>
+      <selection activeCell="I130" sqref="I130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="I130" s="41">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J130" s="41">
         <v>1</v>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E016C833-A7C8-4B8C-8281-9845C2B5247D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -72,11 +71,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +127,12 @@
       <color theme="1"/>
       <name val="Calibri Light"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -300,13 +305,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -498,8 +503,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J130" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J130" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J131" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J131">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -512,16 +517,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -794,11 +799,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A104" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="I130" sqref="I130"/>
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4958,13 +4963,13 @@
         <v>1946</v>
       </c>
       <c r="E130" s="41">
+        <v>6</v>
+      </c>
+      <c r="F130" s="41">
         <v>18</v>
       </c>
-      <c r="F130" s="41">
-        <v>2</v>
-      </c>
       <c r="G130" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H130" s="41">
         <v>0</v>
@@ -4973,6 +4978,38 @@
         <v>112</v>
       </c>
       <c r="J130" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="39">
+        <v>44031</v>
+      </c>
+      <c r="B131" s="40">
+        <v>120907</v>
+      </c>
+      <c r="C131" s="41">
+        <v>371</v>
+      </c>
+      <c r="D131" s="41">
+        <v>1953</v>
+      </c>
+      <c r="E131" s="41">
+        <v>7</v>
+      </c>
+      <c r="F131" s="41">
+        <v>19</v>
+      </c>
+      <c r="G131" s="41">
+        <v>3</v>
+      </c>
+      <c r="H131" s="41">
+        <v>0</v>
+      </c>
+      <c r="I131" s="41">
+        <v>113</v>
+      </c>
+      <c r="J131" s="41">
         <v>1</v>
       </c>
     </row>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -503,8 +503,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J131" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J131">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J132" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J132">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -803,7 +803,7 @@
   <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A104" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A132" sqref="A132"/>
+      <selection activeCell="A132" sqref="A132:J132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5013,6 +5013,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="33">
+        <v>44032</v>
+      </c>
+      <c r="B132" s="34">
+        <v>121821</v>
+      </c>
+      <c r="C132" s="35">
+        <v>914</v>
+      </c>
+      <c r="D132" s="35">
+        <v>1977</v>
+      </c>
+      <c r="E132" s="35">
+        <v>24</v>
+      </c>
+      <c r="F132" s="35">
+        <v>22</v>
+      </c>
+      <c r="G132" s="35">
+        <v>3</v>
+      </c>
+      <c r="H132" s="35">
+        <v>2</v>
+      </c>
+      <c r="I132" s="35">
+        <v>114</v>
+      </c>
+      <c r="J132" s="35">
+        <v>1</v>
+      </c>
+    </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="32" t="s">
         <v>10</v>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6476C8B2-1BAC-45ED-BE8B-78C0ECFEC5D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
@@ -503,8 +504,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J132" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J132">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J133" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J133" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -517,16 +518,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -799,11 +800,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A104" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A132" sqref="A132:J132"/>
+      <selection activeCell="A133" sqref="A133:J133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5045,6 +5046,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="36">
+        <v>44033</v>
+      </c>
+      <c r="B133" s="37">
+        <v>122971</v>
+      </c>
+      <c r="C133" s="38">
+        <v>1150</v>
+      </c>
+      <c r="D133" s="38">
+        <v>2006</v>
+      </c>
+      <c r="E133" s="38">
+        <v>29</v>
+      </c>
+      <c r="F133" s="38">
+        <v>22</v>
+      </c>
+      <c r="G133" s="38">
+        <v>2</v>
+      </c>
+      <c r="H133" s="38">
+        <v>1</v>
+      </c>
+      <c r="I133" s="38">
+        <v>115</v>
+      </c>
+      <c r="J133" s="38">
+        <v>1</v>
+      </c>
+    </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="32" t="s">
         <v>10</v>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6476C8B2-1BAC-45ED-BE8B-78C0ECFEC5D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -72,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
@@ -504,8 +503,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J133" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J133" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J134" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J134">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -518,16 +517,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -800,11 +799,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A104" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133:J133"/>
+      <selection activeCell="A134" sqref="A134:J134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5078,6 +5077,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="33">
+        <v>44034</v>
+      </c>
+      <c r="B134" s="34">
+        <v>123906</v>
+      </c>
+      <c r="C134" s="35">
+        <v>935</v>
+      </c>
+      <c r="D134" s="35">
+        <v>2033</v>
+      </c>
+      <c r="E134" s="35">
+        <v>27</v>
+      </c>
+      <c r="F134" s="35">
+        <v>24</v>
+      </c>
+      <c r="G134" s="35">
+        <v>2</v>
+      </c>
+      <c r="H134" s="35">
+        <v>1</v>
+      </c>
+      <c r="I134" s="35">
+        <v>115</v>
+      </c>
+      <c r="J134" s="35">
+        <v>0</v>
+      </c>
+    </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="32" t="s">
         <v>10</v>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -503,8 +503,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J134" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J134">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J135" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J135">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -803,7 +803,7 @@
   <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A104" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134:J134"/>
+      <selection activeCell="A135" sqref="A135:J135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5109,6 +5109,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="33">
+        <v>44035</v>
+      </c>
+      <c r="B135" s="34">
+        <v>124754</v>
+      </c>
+      <c r="C135" s="35">
+        <v>848</v>
+      </c>
+      <c r="D135" s="35">
+        <v>2052</v>
+      </c>
+      <c r="E135" s="35">
+        <v>19</v>
+      </c>
+      <c r="F135" s="35">
+        <v>23</v>
+      </c>
+      <c r="G135" s="35">
+        <v>2</v>
+      </c>
+      <c r="H135" s="35">
+        <v>3</v>
+      </c>
+      <c r="I135" s="35">
+        <v>115</v>
+      </c>
+      <c r="J135" s="35">
+        <v>0</v>
+      </c>
+    </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="32" t="s">
         <v>10</v>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4B5B4D-7BE3-45CD-9377-CDFDA2B5B78C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
@@ -189,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -312,6 +313,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -503,8 +513,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J135" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J135">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J136" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J136" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -517,16 +527,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -799,11 +809,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135:J135"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136:J136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5141,6 +5151,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="42">
+        <v>44036</v>
+      </c>
+      <c r="B136" s="43">
+        <v>125672</v>
+      </c>
+      <c r="C136" s="44">
+        <v>918</v>
+      </c>
+      <c r="D136" s="44">
+        <v>2066</v>
+      </c>
+      <c r="E136" s="44">
+        <v>14</v>
+      </c>
+      <c r="F136" s="44">
+        <v>19</v>
+      </c>
+      <c r="G136" s="44">
+        <v>4</v>
+      </c>
+      <c r="H136" s="44">
+        <v>4</v>
+      </c>
+      <c r="I136" s="44">
+        <v>116</v>
+      </c>
+      <c r="J136" s="44">
+        <v>1</v>
+      </c>
+    </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="32" t="s">
         <v>10</v>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4B5B4D-7BE3-45CD-9377-CDFDA2B5B78C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382EB182-25DA-47BE-A94D-2E806EF0537D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -513,8 +513,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J136" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J136" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J137" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J137" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -812,26 +812,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136:J136"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137:J137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -863,7 +863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>43902</v>
       </c>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>43903</v>
       </c>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>43904</v>
       </c>
@@ -959,7 +959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>43905</v>
       </c>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>43906</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>43907</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>43908</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>43909</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>43910</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>43911</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>43912</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>43914</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>43915</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>43916</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>43917</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>43918</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>43919</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>43920</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>43921</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>43922</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>43923</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>43924</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>43925</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>43926</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>43927</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>43928</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>43929</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>43930</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>43931</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>43932</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>43933</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>43934</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>43935</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>43936</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>43937</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>43938</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>43939</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>43940</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>43941</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>43942</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>43943</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43944</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>43945</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>43946</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>43947</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>43948</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>43949</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>43950</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>43951</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>43952</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>43953</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>43954</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>43955</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>43956</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>43957</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>43958</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>43959</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>43960</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>43961</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>43962</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>43963</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
         <v>43964</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
         <v>43965</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>43966</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
         <v>43967</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>43968</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
         <v>43969</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>43970</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="20">
         <v>43971</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <v>43972</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="20">
         <v>43973</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="17">
         <v>43974</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="20">
         <v>43975</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="20">
         <v>43976</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="20">
         <v>43977</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="20">
         <v>43978</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="20">
         <v>43979</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="20">
         <v>43980</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="20">
         <v>43981</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="20">
         <v>43982</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="20">
         <v>43983</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="20">
         <v>43984</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="20">
         <v>43985</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="26">
         <v>43986</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="29">
         <v>43987</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <v>43988</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="29">
         <v>43989</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="20">
         <v>43990</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="20">
         <v>43991</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <v>43992</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="29">
         <v>43993</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
         <v>43994</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="29">
         <v>43995</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <v>43996</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="20">
         <v>43997</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="20">
         <v>43998</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="29">
         <v>43999</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="20">
         <v>44000</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="29">
         <v>44001</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="23">
         <v>44002</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="29">
         <v>44003</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="29">
         <v>44004</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="29">
         <v>44005</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
         <v>44006</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="29">
         <v>44007</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="29">
         <v>44008</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="29">
         <v>44009</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="29">
         <v>44010</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="29">
         <v>44011</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="20">
         <v>44012</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="20">
         <v>44013</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="20">
         <v>44014</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="20">
         <v>44015</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="20">
         <v>44016</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="29">
         <v>44017</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="20">
         <v>44018</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>44019</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="20">
         <v>44020</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="29">
         <v>44021</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="23">
         <v>44022</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="29">
         <v>44023</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="20">
         <v>44024</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>44025</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="33">
         <v>44026</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="36">
         <v>44027</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="33">
         <v>44028</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="36">
         <v>44029</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="39">
         <v>44030</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="39">
         <v>44031</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="33">
         <v>44032</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="36">
         <v>44033</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="33">
         <v>44034</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="33">
         <v>44035</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="42">
         <v>44036</v>
       </c>
@@ -5183,22 +5183,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A137" s="33">
+        <v>44037</v>
+      </c>
+      <c r="B137" s="34">
+        <v>126237</v>
+      </c>
+      <c r="C137" s="35">
+        <v>565</v>
+      </c>
+      <c r="D137" s="35">
+        <v>2082</v>
+      </c>
+      <c r="E137" s="35">
+        <v>16</v>
+      </c>
+      <c r="F137" s="35">
+        <v>21</v>
+      </c>
+      <c r="G137" s="35">
+        <v>4</v>
+      </c>
+      <c r="H137" s="35">
+        <v>2</v>
+      </c>
+      <c r="I137" s="35">
+        <v>116</v>
+      </c>
+      <c r="J137" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="32" t="s">
         <v>13</v>
       </c>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382EB182-25DA-47BE-A94D-2E806EF0537D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1890" yWindow="1890" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -72,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
@@ -513,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J137" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J137" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J138" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J138">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -527,16 +526,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -809,29 +808,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J143"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137:J137"/>
+      <selection activeCell="A161" sqref="A161:A164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -863,7 +862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43902</v>
       </c>
@@ -895,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43903</v>
       </c>
@@ -927,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43904</v>
       </c>
@@ -959,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43905</v>
       </c>
@@ -991,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43906</v>
       </c>
@@ -1023,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43907</v>
       </c>
@@ -1055,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43908</v>
       </c>
@@ -1087,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43909</v>
       </c>
@@ -1119,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43910</v>
       </c>
@@ -1151,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>43911</v>
       </c>
@@ -1183,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>43912</v>
       </c>
@@ -1215,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -1247,7 +1246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>43914</v>
       </c>
@@ -1279,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>43915</v>
       </c>
@@ -1311,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>43916</v>
       </c>
@@ -1343,7 +1342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43917</v>
       </c>
@@ -1375,7 +1374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>43918</v>
       </c>
@@ -1407,7 +1406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>43919</v>
       </c>
@@ -1439,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>43920</v>
       </c>
@@ -1471,7 +1470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>43921</v>
       </c>
@@ -1503,7 +1502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>43922</v>
       </c>
@@ -1535,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>43923</v>
       </c>
@@ -1567,7 +1566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>43924</v>
       </c>
@@ -1599,7 +1598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>43925</v>
       </c>
@@ -1631,7 +1630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>43926</v>
       </c>
@@ -1663,7 +1662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>43927</v>
       </c>
@@ -1695,7 +1694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>43928</v>
       </c>
@@ -1727,7 +1726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>43929</v>
       </c>
@@ -1759,7 +1758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>43930</v>
       </c>
@@ -1791,7 +1790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>43931</v>
       </c>
@@ -1823,7 +1822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>43932</v>
       </c>
@@ -1855,7 +1854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>43933</v>
       </c>
@@ -1887,7 +1886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>43934</v>
       </c>
@@ -1919,7 +1918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>43935</v>
       </c>
@@ -1951,7 +1950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>43936</v>
       </c>
@@ -1983,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>43937</v>
       </c>
@@ -2015,7 +2014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>43938</v>
       </c>
@@ -2047,7 +2046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>43939</v>
       </c>
@@ -2079,7 +2078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>43940</v>
       </c>
@@ -2111,7 +2110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>43941</v>
       </c>
@@ -2143,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>43942</v>
       </c>
@@ -2175,7 +2174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>43943</v>
       </c>
@@ -2207,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43944</v>
       </c>
@@ -2239,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43945</v>
       </c>
@@ -2271,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>43946</v>
       </c>
@@ -2303,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>43947</v>
       </c>
@@ -2335,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>43948</v>
       </c>
@@ -2367,7 +2366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>43949</v>
       </c>
@@ -2399,7 +2398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>43950</v>
       </c>
@@ -2431,7 +2430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>43951</v>
       </c>
@@ -2463,7 +2462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>43952</v>
       </c>
@@ -2495,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>43953</v>
       </c>
@@ -2527,7 +2526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>43954</v>
       </c>
@@ -2559,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>43955</v>
       </c>
@@ -2591,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>43956</v>
       </c>
@@ -2623,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>43957</v>
       </c>
@@ -2655,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>43958</v>
       </c>
@@ -2687,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>43959</v>
       </c>
@@ -2719,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>43960</v>
       </c>
@@ -2751,7 +2750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>43961</v>
       </c>
@@ -2783,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>43962</v>
       </c>
@@ -2815,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>43963</v>
       </c>
@@ -2847,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
         <v>43964</v>
       </c>
@@ -2879,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>43965</v>
       </c>
@@ -2911,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>43966</v>
       </c>
@@ -2943,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>43967</v>
       </c>
@@ -2975,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>43968</v>
       </c>
@@ -3007,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>43969</v>
       </c>
@@ -3039,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>43970</v>
       </c>
@@ -3071,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>43971</v>
       </c>
@@ -3103,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>43972</v>
       </c>
@@ -3135,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
         <v>43973</v>
       </c>
@@ -3167,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
         <v>43974</v>
       </c>
@@ -3199,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="20">
         <v>43975</v>
       </c>
@@ -3231,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>43976</v>
       </c>
@@ -3263,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
         <v>43977</v>
       </c>
@@ -3295,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
         <v>43978</v>
       </c>
@@ -3327,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="20">
         <v>43979</v>
       </c>
@@ -3359,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>43980</v>
       </c>
@@ -3391,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="20">
         <v>43981</v>
       </c>
@@ -3423,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="20">
         <v>43982</v>
       </c>
@@ -3455,7 +3454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="20">
         <v>43983</v>
       </c>
@@ -3487,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="20">
         <v>43984</v>
       </c>
@@ -3519,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="20">
         <v>43985</v>
       </c>
@@ -3551,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="26">
         <v>43986</v>
       </c>
@@ -3583,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="29">
         <v>43987</v>
       </c>
@@ -3615,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>43988</v>
       </c>
@@ -3647,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="29">
         <v>43989</v>
       </c>
@@ -3679,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="20">
         <v>43990</v>
       </c>
@@ -3711,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="20">
         <v>43991</v>
       </c>
@@ -3743,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>43992</v>
       </c>
@@ -3775,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="29">
         <v>43993</v>
       </c>
@@ -3807,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>43994</v>
       </c>
@@ -3839,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="29">
         <v>43995</v>
       </c>
@@ -3871,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>43996</v>
       </c>
@@ -3903,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="20">
         <v>43997</v>
       </c>
@@ -3935,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="20">
         <v>43998</v>
       </c>
@@ -3967,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="29">
         <v>43999</v>
       </c>
@@ -3999,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="20">
         <v>44000</v>
       </c>
@@ -4031,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="29">
         <v>44001</v>
       </c>
@@ -4063,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>44002</v>
       </c>
@@ -4095,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="29">
         <v>44003</v>
       </c>
@@ -4127,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="29">
         <v>44004</v>
       </c>
@@ -4159,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="29">
         <v>44005</v>
       </c>
@@ -4191,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>44006</v>
       </c>
@@ -4223,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="29">
         <v>44007</v>
       </c>
@@ -4255,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="29">
         <v>44008</v>
       </c>
@@ -4287,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="29">
         <v>44009</v>
       </c>
@@ -4319,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="29">
         <v>44010</v>
       </c>
@@ -4351,7 +4350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="29">
         <v>44011</v>
       </c>
@@ -4383,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="20">
         <v>44012</v>
       </c>
@@ -4415,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="20">
         <v>44013</v>
       </c>
@@ -4447,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="20">
         <v>44014</v>
       </c>
@@ -4479,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="20">
         <v>44015</v>
       </c>
@@ -4511,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="20">
         <v>44016</v>
       </c>
@@ -4543,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="29">
         <v>44017</v>
       </c>
@@ -4575,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="20">
         <v>44018</v>
       </c>
@@ -4607,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>44019</v>
       </c>
@@ -4639,7 +4638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="20">
         <v>44020</v>
       </c>
@@ -4671,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="29">
         <v>44021</v>
       </c>
@@ -4703,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <v>44022</v>
       </c>
@@ -4735,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="29">
         <v>44023</v>
       </c>
@@ -4767,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="20">
         <v>44024</v>
       </c>
@@ -4799,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>44025</v>
       </c>
@@ -4831,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="33">
         <v>44026</v>
       </c>
@@ -4863,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="36">
         <v>44027</v>
       </c>
@@ -4895,7 +4894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="33">
         <v>44028</v>
       </c>
@@ -4927,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="36">
         <v>44029</v>
       </c>
@@ -4959,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="39">
         <v>44030</v>
       </c>
@@ -4991,7 +4990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="39">
         <v>44031</v>
       </c>
@@ -5023,7 +5022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="33">
         <v>44032</v>
       </c>
@@ -5055,7 +5054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="36">
         <v>44033</v>
       </c>
@@ -5087,7 +5086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="33">
         <v>44034</v>
       </c>
@@ -5119,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="33">
         <v>44035</v>
       </c>
@@ -5151,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="42">
         <v>44036</v>
       </c>
@@ -5183,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="33">
         <v>44037</v>
       </c>
@@ -5215,23 +5214,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A140" s="32" t="s">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="33">
+        <v>44038</v>
+      </c>
+      <c r="B138" s="34">
+        <v>126572</v>
+      </c>
+      <c r="C138" s="35">
+        <v>335</v>
+      </c>
+      <c r="D138" s="35">
+        <v>2087</v>
+      </c>
+      <c r="E138" s="35">
+        <v>5</v>
+      </c>
+      <c r="F138" s="35">
+        <v>20</v>
+      </c>
+      <c r="G138" s="35">
+        <v>3</v>
+      </c>
+      <c r="H138" s="35">
+        <v>1</v>
+      </c>
+      <c r="I138" s="35">
+        <v>116</v>
+      </c>
+      <c r="J138" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A141" s="32" t="s">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A142" s="32" t="s">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A143" s="32" t="s">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="32" t="s">
         <v>13</v>
       </c>
     </row>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -512,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J138" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J138">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J139" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J139">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -812,7 +812,7 @@
   <dimension ref="A1:J164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161:A164"/>
+      <selection activeCell="A139" sqref="A139:J139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5246,6 +5246,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="33">
+        <v>44039</v>
+      </c>
+      <c r="B139" s="35">
+        <v>127446</v>
+      </c>
+      <c r="C139" s="35">
+        <v>874</v>
+      </c>
+      <c r="D139" s="35">
+        <v>2101</v>
+      </c>
+      <c r="E139" s="35">
+        <v>14</v>
+      </c>
+      <c r="F139" s="35">
+        <v>17</v>
+      </c>
+      <c r="G139" s="35">
+        <v>3</v>
+      </c>
+      <c r="H139" s="35">
+        <v>3</v>
+      </c>
+      <c r="I139" s="35">
+        <v>117</v>
+      </c>
+      <c r="J139" s="35">
+        <v>1</v>
+      </c>
+    </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="32" t="s">
         <v>10</v>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -512,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J141" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J141">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J142" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J142">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -812,7 +812,7 @@
   <dimension ref="A1:J164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141:J141"/>
+      <selection activeCell="A142" sqref="A142:J142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5342,6 +5342,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="33">
+        <v>44042</v>
+      </c>
+      <c r="B142" s="34">
+        <v>130161</v>
+      </c>
+      <c r="C142" s="35">
+        <v>917</v>
+      </c>
+      <c r="D142" s="35">
+        <v>2156</v>
+      </c>
+      <c r="E142" s="35">
+        <v>17</v>
+      </c>
+      <c r="F142" s="35">
+        <v>24</v>
+      </c>
+      <c r="G142" s="35">
+        <v>5</v>
+      </c>
+      <c r="H142" s="35">
+        <v>0</v>
+      </c>
+      <c r="I142" s="35">
+        <v>119</v>
+      </c>
+      <c r="J142" s="35">
+        <v>1</v>
+      </c>
+    </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="32" t="s">
         <v>10</v>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F50CF8A-A148-42EA-992F-FEED02FC49AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
@@ -512,8 +513,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J142" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J142">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J143" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J143" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -526,16 +527,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -808,29 +809,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142:J142"/>
+      <selection activeCell="A143" sqref="A143:J143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -862,7 +863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>43902</v>
       </c>
@@ -894,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>43903</v>
       </c>
@@ -926,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>43904</v>
       </c>
@@ -958,7 +959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>43905</v>
       </c>
@@ -990,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>43906</v>
       </c>
@@ -1022,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>43907</v>
       </c>
@@ -1054,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>43908</v>
       </c>
@@ -1086,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>43909</v>
       </c>
@@ -1118,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>43910</v>
       </c>
@@ -1150,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>43911</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>43912</v>
       </c>
@@ -1214,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -1246,7 +1247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>43914</v>
       </c>
@@ -1278,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>43915</v>
       </c>
@@ -1310,7 +1311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>43916</v>
       </c>
@@ -1342,7 +1343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>43917</v>
       </c>
@@ -1374,7 +1375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>43918</v>
       </c>
@@ -1406,7 +1407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>43919</v>
       </c>
@@ -1438,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>43920</v>
       </c>
@@ -1470,7 +1471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>43921</v>
       </c>
@@ -1502,7 +1503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>43922</v>
       </c>
@@ -1534,7 +1535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>43923</v>
       </c>
@@ -1566,7 +1567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>43924</v>
       </c>
@@ -1598,7 +1599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>43925</v>
       </c>
@@ -1630,7 +1631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>43926</v>
       </c>
@@ -1662,7 +1663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>43927</v>
       </c>
@@ -1694,7 +1695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>43928</v>
       </c>
@@ -1726,7 +1727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>43929</v>
       </c>
@@ -1758,7 +1759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>43930</v>
       </c>
@@ -1790,7 +1791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>43931</v>
       </c>
@@ -1822,7 +1823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>43932</v>
       </c>
@@ -1854,7 +1855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>43933</v>
       </c>
@@ -1886,7 +1887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>43934</v>
       </c>
@@ -1918,7 +1919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>43935</v>
       </c>
@@ -1950,7 +1951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>43936</v>
       </c>
@@ -1982,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>43937</v>
       </c>
@@ -2014,7 +2015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>43938</v>
       </c>
@@ -2046,7 +2047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>43939</v>
       </c>
@@ -2078,7 +2079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>43940</v>
       </c>
@@ -2110,7 +2111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>43941</v>
       </c>
@@ -2142,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>43942</v>
       </c>
@@ -2174,7 +2175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>43943</v>
       </c>
@@ -2206,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43944</v>
       </c>
@@ -2238,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>43945</v>
       </c>
@@ -2270,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>43946</v>
       </c>
@@ -2302,7 +2303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>43947</v>
       </c>
@@ -2334,7 +2335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>43948</v>
       </c>
@@ -2366,7 +2367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>43949</v>
       </c>
@@ -2398,7 +2399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>43950</v>
       </c>
@@ -2430,7 +2431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>43951</v>
       </c>
@@ -2462,7 +2463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>43952</v>
       </c>
@@ -2494,7 +2495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>43953</v>
       </c>
@@ -2526,7 +2527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>43954</v>
       </c>
@@ -2558,7 +2559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>43955</v>
       </c>
@@ -2590,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>43956</v>
       </c>
@@ -2622,7 +2623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>43957</v>
       </c>
@@ -2654,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>43958</v>
       </c>
@@ -2686,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>43959</v>
       </c>
@@ -2718,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>43960</v>
       </c>
@@ -2750,7 +2751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>43961</v>
       </c>
@@ -2782,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>43962</v>
       </c>
@@ -2814,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>43963</v>
       </c>
@@ -2846,7 +2847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
         <v>43964</v>
       </c>
@@ -2878,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
         <v>43965</v>
       </c>
@@ -2910,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>43966</v>
       </c>
@@ -2942,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
         <v>43967</v>
       </c>
@@ -2974,7 +2975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>43968</v>
       </c>
@@ -3006,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
         <v>43969</v>
       </c>
@@ -3038,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>43970</v>
       </c>
@@ -3070,7 +3071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="20">
         <v>43971</v>
       </c>
@@ -3102,7 +3103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <v>43972</v>
       </c>
@@ -3134,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="20">
         <v>43973</v>
       </c>
@@ -3166,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="17">
         <v>43974</v>
       </c>
@@ -3198,7 +3199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="20">
         <v>43975</v>
       </c>
@@ -3230,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="20">
         <v>43976</v>
       </c>
@@ -3262,7 +3263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="20">
         <v>43977</v>
       </c>
@@ -3294,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="20">
         <v>43978</v>
       </c>
@@ -3326,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="20">
         <v>43979</v>
       </c>
@@ -3358,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="20">
         <v>43980</v>
       </c>
@@ -3390,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="20">
         <v>43981</v>
       </c>
@@ -3422,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="20">
         <v>43982</v>
       </c>
@@ -3454,7 +3455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="20">
         <v>43983</v>
       </c>
@@ -3486,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="20">
         <v>43984</v>
       </c>
@@ -3518,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="20">
         <v>43985</v>
       </c>
@@ -3550,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="26">
         <v>43986</v>
       </c>
@@ -3582,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="29">
         <v>43987</v>
       </c>
@@ -3614,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <v>43988</v>
       </c>
@@ -3646,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="29">
         <v>43989</v>
       </c>
@@ -3678,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="20">
         <v>43990</v>
       </c>
@@ -3710,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="20">
         <v>43991</v>
       </c>
@@ -3742,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <v>43992</v>
       </c>
@@ -3774,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="29">
         <v>43993</v>
       </c>
@@ -3806,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
         <v>43994</v>
       </c>
@@ -3838,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="29">
         <v>43995</v>
       </c>
@@ -3870,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <v>43996</v>
       </c>
@@ -3902,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="20">
         <v>43997</v>
       </c>
@@ -3934,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="20">
         <v>43998</v>
       </c>
@@ -3966,7 +3967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="29">
         <v>43999</v>
       </c>
@@ -3998,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="20">
         <v>44000</v>
       </c>
@@ -4030,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="29">
         <v>44001</v>
       </c>
@@ -4062,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="23">
         <v>44002</v>
       </c>
@@ -4094,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="29">
         <v>44003</v>
       </c>
@@ -4126,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="29">
         <v>44004</v>
       </c>
@@ -4158,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="29">
         <v>44005</v>
       </c>
@@ -4190,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
         <v>44006</v>
       </c>
@@ -4222,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="29">
         <v>44007</v>
       </c>
@@ -4254,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="29">
         <v>44008</v>
       </c>
@@ -4286,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="29">
         <v>44009</v>
       </c>
@@ -4318,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="29">
         <v>44010</v>
       </c>
@@ -4350,7 +4351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="29">
         <v>44011</v>
       </c>
@@ -4382,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="20">
         <v>44012</v>
       </c>
@@ -4414,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="20">
         <v>44013</v>
       </c>
@@ -4446,7 +4447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="20">
         <v>44014</v>
       </c>
@@ -4478,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="20">
         <v>44015</v>
       </c>
@@ -4510,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="20">
         <v>44016</v>
       </c>
@@ -4542,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="29">
         <v>44017</v>
       </c>
@@ -4574,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="20">
         <v>44018</v>
       </c>
@@ -4606,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>44019</v>
       </c>
@@ -4638,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="20">
         <v>44020</v>
       </c>
@@ -4670,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="29">
         <v>44021</v>
       </c>
@@ -4702,7 +4703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="23">
         <v>44022</v>
       </c>
@@ -4734,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="29">
         <v>44023</v>
       </c>
@@ -4766,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="20">
         <v>44024</v>
       </c>
@@ -4798,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>44025</v>
       </c>
@@ -4830,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="33">
         <v>44026</v>
       </c>
@@ -4862,7 +4863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="36">
         <v>44027</v>
       </c>
@@ -4894,7 +4895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="33">
         <v>44028</v>
       </c>
@@ -4926,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="36">
         <v>44029</v>
       </c>
@@ -4958,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="39">
         <v>44030</v>
       </c>
@@ -4990,7 +4991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="39">
         <v>44031</v>
       </c>
@@ -5022,7 +5023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="33">
         <v>44032</v>
       </c>
@@ -5054,7 +5055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="36">
         <v>44033</v>
       </c>
@@ -5086,7 +5087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="33">
         <v>44034</v>
       </c>
@@ -5118,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="33">
         <v>44035</v>
       </c>
@@ -5150,7 +5151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="42">
         <v>44036</v>
       </c>
@@ -5182,7 +5183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="33">
         <v>44037</v>
       </c>
@@ -5214,7 +5215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="33">
         <v>44038</v>
       </c>
@@ -5246,7 +5247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="33">
         <v>44039</v>
       </c>
@@ -5278,7 +5279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="33">
         <v>44040</v>
       </c>
@@ -5310,7 +5311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="33">
         <v>44041</v>
       </c>
@@ -5342,7 +5343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="33">
         <v>44042</v>
       </c>
@@ -5374,22 +5375,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143" s="36">
+        <v>44043</v>
+      </c>
+      <c r="B143" s="37">
+        <v>131053</v>
+      </c>
+      <c r="C143" s="38">
+        <v>892</v>
+      </c>
+      <c r="D143" s="38">
+        <v>2171</v>
+      </c>
+      <c r="E143" s="38">
+        <v>15</v>
+      </c>
+      <c r="F143" s="38">
+        <v>22</v>
+      </c>
+      <c r="G143" s="38">
+        <v>5</v>
+      </c>
+      <c r="H143" s="38">
+        <v>2</v>
+      </c>
+      <c r="I143" s="38">
+        <v>119</v>
+      </c>
+      <c r="J143" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="32" t="s">
         <v>13</v>
       </c>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F50CF8A-A148-42EA-992F-FEED02FC49AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CAA1D4-D466-4D16-B383-CDA248B17610}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -513,8 +513,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J143" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J143" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J144" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J144" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -813,25 +813,25 @@
   <dimension ref="A1:J164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143:J143"/>
+      <selection activeCell="A144" sqref="A144:J144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -863,7 +863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43902</v>
       </c>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43903</v>
       </c>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43904</v>
       </c>
@@ -959,7 +959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43905</v>
       </c>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43906</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43907</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43908</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43909</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43910</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>43911</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>43912</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>43914</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>43915</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>43916</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43917</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>43918</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>43919</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>43920</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>43921</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>43922</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>43923</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>43924</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>43925</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>43926</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>43927</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>43928</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>43929</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>43930</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>43931</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>43932</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>43933</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>43934</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>43935</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>43936</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>43937</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>43938</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>43939</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>43940</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>43941</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>43942</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>43943</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43944</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43945</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>43946</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>43947</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>43948</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>43949</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>43950</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>43951</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>43952</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>43953</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>43954</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>43955</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>43956</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>43957</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>43958</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>43959</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>43960</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>43961</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>43962</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>43963</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
         <v>43964</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>43965</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>43966</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>43967</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>43968</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>43969</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>43970</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>43971</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>43972</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
         <v>43973</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
         <v>43974</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="20">
         <v>43975</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>43976</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
         <v>43977</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
         <v>43978</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="20">
         <v>43979</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>43980</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="20">
         <v>43981</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="20">
         <v>43982</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="20">
         <v>43983</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="20">
         <v>43984</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="20">
         <v>43985</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="26">
         <v>43986</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="29">
         <v>43987</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>43988</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="29">
         <v>43989</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="20">
         <v>43990</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="20">
         <v>43991</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>43992</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="29">
         <v>43993</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>43994</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="29">
         <v>43995</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>43996</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="20">
         <v>43997</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="20">
         <v>43998</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="29">
         <v>43999</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="20">
         <v>44000</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="29">
         <v>44001</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>44002</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="29">
         <v>44003</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="29">
         <v>44004</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="29">
         <v>44005</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>44006</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="29">
         <v>44007</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="29">
         <v>44008</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="29">
         <v>44009</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="29">
         <v>44010</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="29">
         <v>44011</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="20">
         <v>44012</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="20">
         <v>44013</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="20">
         <v>44014</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="20">
         <v>44015</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="20">
         <v>44016</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="29">
         <v>44017</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="20">
         <v>44018</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>44019</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="20">
         <v>44020</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="29">
         <v>44021</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <v>44022</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="29">
         <v>44023</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="20">
         <v>44024</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>44025</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="33">
         <v>44026</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="36">
         <v>44027</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="33">
         <v>44028</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="36">
         <v>44029</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="39">
         <v>44030</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="39">
         <v>44031</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="33">
         <v>44032</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="36">
         <v>44033</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="33">
         <v>44034</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="33">
         <v>44035</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="42">
         <v>44036</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="33">
         <v>44037</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="33">
         <v>44038</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="33">
         <v>44039</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="33">
         <v>44040</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="33">
         <v>44041</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="33">
         <v>44042</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="36">
         <v>44043</v>
       </c>
@@ -5407,22 +5407,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="42">
+        <v>44044</v>
+      </c>
+      <c r="B144" s="43">
+        <v>131427</v>
+      </c>
+      <c r="C144" s="44">
+        <v>374</v>
+      </c>
+      <c r="D144" s="44">
+        <v>2180</v>
+      </c>
+      <c r="E144" s="44">
+        <v>9</v>
+      </c>
+      <c r="F144" s="44">
+        <v>22</v>
+      </c>
+      <c r="G144" s="44">
+        <v>2</v>
+      </c>
+      <c r="H144" s="44">
+        <v>0</v>
+      </c>
+      <c r="I144" s="44">
+        <v>120</v>
+      </c>
+      <c r="J144" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="32" t="s">
         <v>13</v>
       </c>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CAA1D4-D466-4D16-B383-CDA248B17610}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -72,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
@@ -513,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J144" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J144" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J145" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J145">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -527,16 +526,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -809,11 +808,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144:J144"/>
+      <selection activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5439,6 +5438,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="42">
+        <v>44045</v>
+      </c>
+      <c r="B145" s="34">
+        <v>131699</v>
+      </c>
+      <c r="C145" s="35">
+        <v>272</v>
+      </c>
+      <c r="D145" s="35">
+        <v>2181</v>
+      </c>
+      <c r="E145" s="35">
+        <v>1</v>
+      </c>
+      <c r="F145" s="35">
+        <v>22</v>
+      </c>
+      <c r="G145" s="35">
+        <v>2</v>
+      </c>
+      <c r="H145" s="35">
+        <v>0</v>
+      </c>
+      <c r="I145" s="35">
+        <v>122</v>
+      </c>
+      <c r="J145" s="35">
+        <v>2</v>
+      </c>
+    </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="32" t="s">
         <v>10</v>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -512,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J145" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J145">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J146" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J146">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -812,7 +812,7 @@
   <dimension ref="A1:J164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146"/>
+      <selection activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5455,10 +5455,10 @@
         <v>1</v>
       </c>
       <c r="F145" s="35">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G145" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H145" s="35">
         <v>0</v>
@@ -5468,6 +5468,38 @@
       </c>
       <c r="J145" s="35">
         <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="42">
+        <v>44046</v>
+      </c>
+      <c r="B146" s="34">
+        <v>132589</v>
+      </c>
+      <c r="C146" s="35">
+        <v>890</v>
+      </c>
+      <c r="D146" s="35">
+        <v>2190</v>
+      </c>
+      <c r="E146" s="35">
+        <v>9</v>
+      </c>
+      <c r="F146" s="35">
+        <v>22</v>
+      </c>
+      <c r="G146" s="35">
+        <v>2</v>
+      </c>
+      <c r="H146" s="35">
+        <v>3</v>
+      </c>
+      <c r="I146" s="35">
+        <v>123</v>
+      </c>
+      <c r="J146" s="35">
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -512,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J146" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J146">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J147" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J147">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -812,7 +812,7 @@
   <dimension ref="A1:J164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147"/>
+      <selection activeCell="J147" sqref="J147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5502,6 +5502,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="42">
+        <v>44047</v>
+      </c>
+      <c r="B147" s="34">
+        <v>133563</v>
+      </c>
+      <c r="C147" s="35">
+        <v>974</v>
+      </c>
+      <c r="D147" s="35">
+        <v>2208</v>
+      </c>
+      <c r="E147" s="35">
+        <v>18</v>
+      </c>
+      <c r="F147" s="35">
+        <v>22</v>
+      </c>
+      <c r="G147" s="35">
+        <v>3</v>
+      </c>
+      <c r="H147" s="35">
+        <v>2</v>
+      </c>
+      <c r="I147" s="35">
+        <v>124</v>
+      </c>
+      <c r="J147" s="35">
+        <v>1</v>
+      </c>
+    </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="32" t="s">
         <v>10</v>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -512,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J147" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J147">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J148" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J148">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -812,7 +812,7 @@
   <dimension ref="A1:J164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J147" sqref="J147"/>
+      <selection activeCell="J148" sqref="J148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5534,6 +5534,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="42">
+        <v>44048</v>
+      </c>
+      <c r="B148" s="34">
+        <v>134334</v>
+      </c>
+      <c r="C148" s="35">
+        <v>771</v>
+      </c>
+      <c r="D148" s="35">
+        <v>2223</v>
+      </c>
+      <c r="E148" s="35">
+        <v>15</v>
+      </c>
+      <c r="F148" s="35">
+        <v>24</v>
+      </c>
+      <c r="G148" s="35">
+        <v>3</v>
+      </c>
+      <c r="H148" s="35">
+        <v>1</v>
+      </c>
+      <c r="I148" s="35">
+        <v>125</v>
+      </c>
+      <c r="J148" s="35">
+        <v>1</v>
+      </c>
+    </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="32" t="s">
         <v>10</v>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -512,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J148" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J148">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J149" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J149">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -812,7 +812,7 @@
   <dimension ref="A1:J164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J148" sqref="J148"/>
+      <selection activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5566,6 +5566,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="42">
+        <v>44049</v>
+      </c>
+      <c r="B149" s="34">
+        <v>135087</v>
+      </c>
+      <c r="C149" s="35">
+        <v>753</v>
+      </c>
+      <c r="D149" s="35">
+        <v>2233</v>
+      </c>
+      <c r="E149" s="35">
+        <v>10</v>
+      </c>
+      <c r="F149" s="35">
+        <v>24</v>
+      </c>
+      <c r="G149" s="35">
+        <v>4</v>
+      </c>
+      <c r="H149" s="35">
+        <v>1</v>
+      </c>
+      <c r="I149" s="35">
+        <v>125</v>
+      </c>
+      <c r="J149" s="35">
+        <v>0</v>
+      </c>
+    </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="32" t="s">
         <v>10</v>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akriz\Desktop\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -512,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J149" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J149">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J150" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J150">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -812,25 +812,25 @@
   <dimension ref="A1:J164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A149" sqref="A149"/>
+      <selection activeCell="J150" sqref="J150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -862,7 +862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>43902</v>
       </c>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>43903</v>
       </c>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>43904</v>
       </c>
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>43905</v>
       </c>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>43906</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>43907</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>43908</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>43909</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>43910</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>43911</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>43912</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>43914</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>43915</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>43916</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>43917</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>43918</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>43919</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>43920</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>43921</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>43922</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>43923</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>43924</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>43925</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>43926</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>43927</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>43928</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>43929</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>43930</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>43931</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>43932</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>43933</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>43934</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>43935</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>43936</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>43937</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>43938</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>43939</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>43940</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>43941</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>43942</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>43943</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43944</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>43945</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>43946</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>43947</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>43948</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>43949</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>43950</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>43951</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>43952</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>43953</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>43954</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>43955</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>43956</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>43957</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>43958</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>43959</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>43960</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>43961</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>43962</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>43963</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
         <v>43964</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
         <v>43965</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>43966</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
         <v>43967</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>43968</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
         <v>43969</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>43970</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="20">
         <v>43971</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <v>43972</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="20">
         <v>43973</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="17">
         <v>43974</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="20">
         <v>43975</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="20">
         <v>43976</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="20">
         <v>43977</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="20">
         <v>43978</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="20">
         <v>43979</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="20">
         <v>43980</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="20">
         <v>43981</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="20">
         <v>43982</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="20">
         <v>43983</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="20">
         <v>43984</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="20">
         <v>43985</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="26">
         <v>43986</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="29">
         <v>43987</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <v>43988</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="29">
         <v>43989</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="20">
         <v>43990</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="20">
         <v>43991</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <v>43992</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="29">
         <v>43993</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
         <v>43994</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="29">
         <v>43995</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <v>43996</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="20">
         <v>43997</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="20">
         <v>43998</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="29">
         <v>43999</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="20">
         <v>44000</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="29">
         <v>44001</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="23">
         <v>44002</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="29">
         <v>44003</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="29">
         <v>44004</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="29">
         <v>44005</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
         <v>44006</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="29">
         <v>44007</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="29">
         <v>44008</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="29">
         <v>44009</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="29">
         <v>44010</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="29">
         <v>44011</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="20">
         <v>44012</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="20">
         <v>44013</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="20">
         <v>44014</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="20">
         <v>44015</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="20">
         <v>44016</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="29">
         <v>44017</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="20">
         <v>44018</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>44019</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="20">
         <v>44020</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="29">
         <v>44021</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="23">
         <v>44022</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="29">
         <v>44023</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="20">
         <v>44024</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>44025</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="33">
         <v>44026</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="36">
         <v>44027</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="33">
         <v>44028</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="36">
         <v>44029</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="39">
         <v>44030</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="39">
         <v>44031</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="33">
         <v>44032</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="36">
         <v>44033</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="33">
         <v>44034</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="33">
         <v>44035</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="42">
         <v>44036</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="33">
         <v>44037</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="33">
         <v>44038</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="33">
         <v>44039</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="33">
         <v>44040</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="33">
         <v>44041</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="33">
         <v>44042</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="36">
         <v>44043</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="42">
         <v>44044</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="42">
         <v>44045</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="42">
         <v>44046</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="42">
         <v>44047</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="42">
         <v>44048</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="42">
         <v>44049</v>
       </c>
@@ -5598,22 +5598,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A150" s="42">
+        <v>44050</v>
+      </c>
+      <c r="B150" s="34">
+        <v>135916</v>
+      </c>
+      <c r="C150" s="35">
+        <v>829</v>
+      </c>
+      <c r="D150" s="35">
+        <v>2247</v>
+      </c>
+      <c r="E150" s="35">
+        <v>14</v>
+      </c>
+      <c r="F150" s="35">
+        <v>22</v>
+      </c>
+      <c r="G150" s="35">
+        <v>3</v>
+      </c>
+      <c r="H150" s="35">
+        <v>1</v>
+      </c>
+      <c r="I150" s="35">
+        <v>126</v>
+      </c>
+      <c r="J150" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="32" t="s">
         <v>13</v>
       </c>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -512,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J150" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J150">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J151" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J151">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -812,7 +812,7 @@
   <dimension ref="A1:J164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J150" sqref="J150"/>
+      <selection activeCell="J151" sqref="J151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5630,6 +5630,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A151" s="42">
+        <v>44051</v>
+      </c>
+      <c r="B151" s="34">
+        <v>136220</v>
+      </c>
+      <c r="C151" s="35">
+        <v>304</v>
+      </c>
+      <c r="D151" s="35">
+        <v>2249</v>
+      </c>
+      <c r="E151" s="35">
+        <v>2</v>
+      </c>
+      <c r="F151" s="35">
+        <v>24</v>
+      </c>
+      <c r="G151" s="35">
+        <v>3</v>
+      </c>
+      <c r="H151" s="35">
+        <v>0</v>
+      </c>
+      <c r="I151" s="35">
+        <v>127</v>
+      </c>
+      <c r="J151" s="35">
+        <v>1</v>
+      </c>
+    </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="32" t="s">
         <v>10</v>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akriz\Desktop\Za objavo na GOV.SI\ang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -512,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J151" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J151">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J152" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J152">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -812,25 +812,25 @@
   <dimension ref="A1:J164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J151" sqref="J151"/>
+      <selection activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -862,7 +862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43902</v>
       </c>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43903</v>
       </c>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43904</v>
       </c>
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43905</v>
       </c>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43906</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43907</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43908</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43909</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43910</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>43911</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>43912</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>43914</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>43915</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>43916</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43917</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>43918</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>43919</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>43920</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>43921</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>43922</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>43923</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>43924</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>43925</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>43926</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>43927</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>43928</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>43929</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>43930</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>43931</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>43932</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>43933</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>43934</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>43935</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>43936</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>43937</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>43938</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>43939</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>43940</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>43941</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>43942</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>43943</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43944</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43945</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>43946</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>43947</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>43948</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>43949</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>43950</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>43951</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>43952</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>43953</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>43954</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>43955</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>43956</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>43957</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>43958</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>43959</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>43960</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>43961</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>43962</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>43963</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
         <v>43964</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>43965</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>43966</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>43967</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>43968</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>43969</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>43970</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>43971</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>43972</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
         <v>43973</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
         <v>43974</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="20">
         <v>43975</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>43976</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
         <v>43977</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
         <v>43978</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="20">
         <v>43979</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>43980</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="20">
         <v>43981</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="20">
         <v>43982</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="20">
         <v>43983</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="20">
         <v>43984</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="20">
         <v>43985</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="26">
         <v>43986</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="29">
         <v>43987</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>43988</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="29">
         <v>43989</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="20">
         <v>43990</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="20">
         <v>43991</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>43992</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="29">
         <v>43993</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>43994</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="29">
         <v>43995</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>43996</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="20">
         <v>43997</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="20">
         <v>43998</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="29">
         <v>43999</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="20">
         <v>44000</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="29">
         <v>44001</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>44002</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="29">
         <v>44003</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="29">
         <v>44004</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="29">
         <v>44005</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>44006</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="29">
         <v>44007</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="29">
         <v>44008</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="29">
         <v>44009</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="29">
         <v>44010</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="29">
         <v>44011</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="20">
         <v>44012</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="20">
         <v>44013</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="20">
         <v>44014</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="20">
         <v>44015</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="20">
         <v>44016</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="29">
         <v>44017</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="20">
         <v>44018</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>44019</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="20">
         <v>44020</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="29">
         <v>44021</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <v>44022</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="29">
         <v>44023</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="20">
         <v>44024</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>44025</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="33">
         <v>44026</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="36">
         <v>44027</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="33">
         <v>44028</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="36">
         <v>44029</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="39">
         <v>44030</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="39">
         <v>44031</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="33">
         <v>44032</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="36">
         <v>44033</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="33">
         <v>44034</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="33">
         <v>44035</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="42">
         <v>44036</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="33">
         <v>44037</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="33">
         <v>44038</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="33">
         <v>44039</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="33">
         <v>44040</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="33">
         <v>44041</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="33">
         <v>44042</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="36">
         <v>44043</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="42">
         <v>44044</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="42">
         <v>44045</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="42">
         <v>44046</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="42">
         <v>44047</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="42">
         <v>44048</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="42">
         <v>44049</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="42">
         <v>44050</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="42">
         <v>44051</v>
       </c>
@@ -5662,22 +5662,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="33">
+        <v>44052</v>
+      </c>
+      <c r="B152" s="34">
+        <v>136542</v>
+      </c>
+      <c r="C152" s="35">
+        <v>332</v>
+      </c>
+      <c r="D152" s="35">
+        <v>2255</v>
+      </c>
+      <c r="E152" s="35">
+        <v>6</v>
+      </c>
+      <c r="F152" s="35">
+        <v>24</v>
+      </c>
+      <c r="G152" s="35">
+        <v>2</v>
+      </c>
+      <c r="H152" s="35">
+        <v>0</v>
+      </c>
+      <c r="I152" s="35">
+        <v>128</v>
+      </c>
+      <c r="J152" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="32" t="s">
         <v>13</v>
       </c>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -512,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J152" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J152">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J153" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J153">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -812,7 +812,7 @@
   <dimension ref="A1:J164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D154" sqref="D154"/>
+      <selection activeCell="J153" sqref="J153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5694,6 +5694,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="33">
+        <v>44053</v>
+      </c>
+      <c r="B153" s="34">
+        <v>137600</v>
+      </c>
+      <c r="C153" s="35">
+        <v>1058</v>
+      </c>
+      <c r="D153" s="35">
+        <v>2272</v>
+      </c>
+      <c r="E153" s="35">
+        <v>17</v>
+      </c>
+      <c r="F153" s="35">
+        <v>23</v>
+      </c>
+      <c r="G153" s="35">
+        <v>2</v>
+      </c>
+      <c r="H153" s="35">
+        <v>1</v>
+      </c>
+      <c r="I153" s="35">
+        <v>129</v>
+      </c>
+      <c r="J153" s="35">
+        <v>1</v>
+      </c>
+    </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="32" t="s">
         <v>10</v>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -512,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J153" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J153">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J154" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J154">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -812,7 +812,7 @@
   <dimension ref="A1:J164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J153" sqref="J153"/>
+      <selection activeCell="J154" sqref="J154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5726,6 +5726,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="33">
+        <v>44054</v>
+      </c>
+      <c r="B154" s="34">
+        <v>138718</v>
+      </c>
+      <c r="C154" s="35">
+        <v>1118</v>
+      </c>
+      <c r="D154" s="35">
+        <v>2303</v>
+      </c>
+      <c r="E154" s="35">
+        <v>31</v>
+      </c>
+      <c r="F154" s="35">
+        <v>23</v>
+      </c>
+      <c r="G154" s="35">
+        <v>2</v>
+      </c>
+      <c r="H154" s="35">
+        <v>1</v>
+      </c>
+      <c r="I154" s="35">
+        <v>129</v>
+      </c>
+      <c r="J154" s="35">
+        <v>0</v>
+      </c>
+    </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="32" t="s">
         <v>10</v>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -512,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J154" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J154">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J155" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J155">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -622,6 +622,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -657,6 +674,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pisarna">
@@ -812,25 +846,25 @@
   <dimension ref="A1:J164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J154" sqref="J154"/>
+      <selection activeCell="J156" sqref="J156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -862,7 +896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>43902</v>
       </c>
@@ -894,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>43903</v>
       </c>
@@ -926,7 +960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>43904</v>
       </c>
@@ -958,7 +992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>43905</v>
       </c>
@@ -990,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>43906</v>
       </c>
@@ -1022,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>43907</v>
       </c>
@@ -1054,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>43908</v>
       </c>
@@ -1086,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>43909</v>
       </c>
@@ -1118,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>43910</v>
       </c>
@@ -1150,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>43911</v>
       </c>
@@ -1182,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>43912</v>
       </c>
@@ -1214,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -1246,7 +1280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>43914</v>
       </c>
@@ -1278,7 +1312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>43915</v>
       </c>
@@ -1310,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>43916</v>
       </c>
@@ -1342,7 +1376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>43917</v>
       </c>
@@ -1374,7 +1408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>43918</v>
       </c>
@@ -1406,7 +1440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>43919</v>
       </c>
@@ -1438,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>43920</v>
       </c>
@@ -1470,7 +1504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>43921</v>
       </c>
@@ -1502,7 +1536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>43922</v>
       </c>
@@ -1534,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>43923</v>
       </c>
@@ -1566,7 +1600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>43924</v>
       </c>
@@ -1598,7 +1632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>43925</v>
       </c>
@@ -1630,7 +1664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>43926</v>
       </c>
@@ -1662,7 +1696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>43927</v>
       </c>
@@ -1694,7 +1728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>43928</v>
       </c>
@@ -1726,7 +1760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>43929</v>
       </c>
@@ -1758,7 +1792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>43930</v>
       </c>
@@ -1790,7 +1824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>43931</v>
       </c>
@@ -1822,7 +1856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>43932</v>
       </c>
@@ -1854,7 +1888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>43933</v>
       </c>
@@ -1886,7 +1920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>43934</v>
       </c>
@@ -1918,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>43935</v>
       </c>
@@ -1950,7 +1984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>43936</v>
       </c>
@@ -1982,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>43937</v>
       </c>
@@ -2014,7 +2048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>43938</v>
       </c>
@@ -2046,7 +2080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>43939</v>
       </c>
@@ -2078,7 +2112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>43940</v>
       </c>
@@ -2110,7 +2144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>43941</v>
       </c>
@@ -2142,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>43942</v>
       </c>
@@ -2174,7 +2208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>43943</v>
       </c>
@@ -2206,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43944</v>
       </c>
@@ -2238,7 +2272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>43945</v>
       </c>
@@ -2270,7 +2304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>43946</v>
       </c>
@@ -2302,7 +2336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>43947</v>
       </c>
@@ -2334,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>43948</v>
       </c>
@@ -2366,7 +2400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>43949</v>
       </c>
@@ -2398,7 +2432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>43950</v>
       </c>
@@ -2430,7 +2464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>43951</v>
       </c>
@@ -2462,7 +2496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>43952</v>
       </c>
@@ -2494,7 +2528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>43953</v>
       </c>
@@ -2526,7 +2560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>43954</v>
       </c>
@@ -2558,7 +2592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>43955</v>
       </c>
@@ -2590,7 +2624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>43956</v>
       </c>
@@ -2622,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>43957</v>
       </c>
@@ -2654,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>43958</v>
       </c>
@@ -2686,7 +2720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>43959</v>
       </c>
@@ -2718,7 +2752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>43960</v>
       </c>
@@ -2750,7 +2784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>43961</v>
       </c>
@@ -2782,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>43962</v>
       </c>
@@ -2814,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>43963</v>
       </c>
@@ -2846,7 +2880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
         <v>43964</v>
       </c>
@@ -2878,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
         <v>43965</v>
       </c>
@@ -2910,7 +2944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>43966</v>
       </c>
@@ -2942,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
         <v>43967</v>
       </c>
@@ -2974,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>43968</v>
       </c>
@@ -3006,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
         <v>43969</v>
       </c>
@@ -3038,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>43970</v>
       </c>
@@ -3070,7 +3104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="20">
         <v>43971</v>
       </c>
@@ -3102,7 +3136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <v>43972</v>
       </c>
@@ -3134,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="20">
         <v>43973</v>
       </c>
@@ -3166,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="17">
         <v>43974</v>
       </c>
@@ -3198,7 +3232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="20">
         <v>43975</v>
       </c>
@@ -3230,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="20">
         <v>43976</v>
       </c>
@@ -3262,7 +3296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="20">
         <v>43977</v>
       </c>
@@ -3294,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="20">
         <v>43978</v>
       </c>
@@ -3326,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="20">
         <v>43979</v>
       </c>
@@ -3358,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="20">
         <v>43980</v>
       </c>
@@ -3390,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="20">
         <v>43981</v>
       </c>
@@ -3422,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="20">
         <v>43982</v>
       </c>
@@ -3454,7 +3488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="20">
         <v>43983</v>
       </c>
@@ -3486,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="20">
         <v>43984</v>
       </c>
@@ -3518,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="20">
         <v>43985</v>
       </c>
@@ -3550,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="26">
         <v>43986</v>
       </c>
@@ -3582,7 +3616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="29">
         <v>43987</v>
       </c>
@@ -3614,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <v>43988</v>
       </c>
@@ -3646,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="29">
         <v>43989</v>
       </c>
@@ -3678,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="20">
         <v>43990</v>
       </c>
@@ -3710,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="20">
         <v>43991</v>
       </c>
@@ -3742,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <v>43992</v>
       </c>
@@ -3774,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="29">
         <v>43993</v>
       </c>
@@ -3806,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
         <v>43994</v>
       </c>
@@ -3838,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="29">
         <v>43995</v>
       </c>
@@ -3870,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <v>43996</v>
       </c>
@@ -3902,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="20">
         <v>43997</v>
       </c>
@@ -3934,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="20">
         <v>43998</v>
       </c>
@@ -3966,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="29">
         <v>43999</v>
       </c>
@@ -3998,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="20">
         <v>44000</v>
       </c>
@@ -4030,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="29">
         <v>44001</v>
       </c>
@@ -4062,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="23">
         <v>44002</v>
       </c>
@@ -4094,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="29">
         <v>44003</v>
       </c>
@@ -4126,7 +4160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="29">
         <v>44004</v>
       </c>
@@ -4158,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="29">
         <v>44005</v>
       </c>
@@ -4190,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
         <v>44006</v>
       </c>
@@ -4222,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="29">
         <v>44007</v>
       </c>
@@ -4254,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="29">
         <v>44008</v>
       </c>
@@ -4286,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="29">
         <v>44009</v>
       </c>
@@ -4318,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="29">
         <v>44010</v>
       </c>
@@ -4350,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="29">
         <v>44011</v>
       </c>
@@ -4382,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="20">
         <v>44012</v>
       </c>
@@ -4414,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="20">
         <v>44013</v>
       </c>
@@ -4446,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="20">
         <v>44014</v>
       </c>
@@ -4478,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="20">
         <v>44015</v>
       </c>
@@ -4510,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="20">
         <v>44016</v>
       </c>
@@ -4542,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="29">
         <v>44017</v>
       </c>
@@ -4574,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="20">
         <v>44018</v>
       </c>
@@ -4606,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>44019</v>
       </c>
@@ -4638,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="20">
         <v>44020</v>
       </c>
@@ -4670,7 +4704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="29">
         <v>44021</v>
       </c>
@@ -4702,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="23">
         <v>44022</v>
       </c>
@@ -4734,7 +4768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="29">
         <v>44023</v>
       </c>
@@ -4766,7 +4800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="20">
         <v>44024</v>
       </c>
@@ -4798,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>44025</v>
       </c>
@@ -4830,7 +4864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="33">
         <v>44026</v>
       </c>
@@ -4862,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="36">
         <v>44027</v>
       </c>
@@ -4894,7 +4928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="33">
         <v>44028</v>
       </c>
@@ -4926,7 +4960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="36">
         <v>44029</v>
       </c>
@@ -4958,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="39">
         <v>44030</v>
       </c>
@@ -4990,7 +5024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="39">
         <v>44031</v>
       </c>
@@ -5022,7 +5056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="33">
         <v>44032</v>
       </c>
@@ -5054,7 +5088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="36">
         <v>44033</v>
       </c>
@@ -5086,7 +5120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="33">
         <v>44034</v>
       </c>
@@ -5118,7 +5152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="33">
         <v>44035</v>
       </c>
@@ -5150,7 +5184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="42">
         <v>44036</v>
       </c>
@@ -5182,7 +5216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="33">
         <v>44037</v>
       </c>
@@ -5214,7 +5248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="33">
         <v>44038</v>
       </c>
@@ -5246,7 +5280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="33">
         <v>44039</v>
       </c>
@@ -5278,7 +5312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="33">
         <v>44040</v>
       </c>
@@ -5310,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="33">
         <v>44041</v>
       </c>
@@ -5342,7 +5376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="33">
         <v>44042</v>
       </c>
@@ -5374,7 +5408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="36">
         <v>44043</v>
       </c>
@@ -5406,7 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="42">
         <v>44044</v>
       </c>
@@ -5438,7 +5472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="42">
         <v>44045</v>
       </c>
@@ -5470,7 +5504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="42">
         <v>44046</v>
       </c>
@@ -5502,7 +5536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="42">
         <v>44047</v>
       </c>
@@ -5534,7 +5568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="42">
         <v>44048</v>
       </c>
@@ -5566,7 +5600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="42">
         <v>44049</v>
       </c>
@@ -5598,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="42">
         <v>44050</v>
       </c>
@@ -5630,7 +5664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="42">
         <v>44051</v>
       </c>
@@ -5662,7 +5696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="33">
         <v>44052</v>
       </c>
@@ -5694,7 +5728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="33">
         <v>44053</v>
       </c>
@@ -5726,7 +5760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="33">
         <v>44054</v>
       </c>
@@ -5758,22 +5792,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A155" s="33">
+        <v>44055</v>
+      </c>
+      <c r="B155" s="34">
+        <v>139574</v>
+      </c>
+      <c r="C155" s="35">
+        <v>856</v>
+      </c>
+      <c r="D155" s="35">
+        <v>2332</v>
+      </c>
+      <c r="E155" s="35">
+        <v>29</v>
+      </c>
+      <c r="F155" s="35">
+        <v>19</v>
+      </c>
+      <c r="G155" s="35">
+        <v>2</v>
+      </c>
+      <c r="H155" s="35">
+        <v>5</v>
+      </c>
+      <c r="I155" s="35">
+        <v>129</v>
+      </c>
+      <c r="J155" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="32" t="s">
         <v>13</v>
       </c>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Za objavo na GOV.SI\ang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -512,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J155" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J155">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J156" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J156">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -622,23 +622,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -674,23 +657,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pisarna">
@@ -849,22 +815,22 @@
       <selection activeCell="J156" sqref="J156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -896,7 +862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43902</v>
       </c>
@@ -928,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43903</v>
       </c>
@@ -960,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43904</v>
       </c>
@@ -992,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43905</v>
       </c>
@@ -1024,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43906</v>
       </c>
@@ -1056,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43907</v>
       </c>
@@ -1088,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43908</v>
       </c>
@@ -1120,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43909</v>
       </c>
@@ -1152,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43910</v>
       </c>
@@ -1184,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>43911</v>
       </c>
@@ -1216,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>43912</v>
       </c>
@@ -1248,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -1280,7 +1246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>43914</v>
       </c>
@@ -1312,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>43915</v>
       </c>
@@ -1344,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>43916</v>
       </c>
@@ -1376,7 +1342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43917</v>
       </c>
@@ -1408,7 +1374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>43918</v>
       </c>
@@ -1440,7 +1406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>43919</v>
       </c>
@@ -1472,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>43920</v>
       </c>
@@ -1504,7 +1470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>43921</v>
       </c>
@@ -1536,7 +1502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>43922</v>
       </c>
@@ -1568,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>43923</v>
       </c>
@@ -1600,7 +1566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>43924</v>
       </c>
@@ -1632,7 +1598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>43925</v>
       </c>
@@ -1664,7 +1630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>43926</v>
       </c>
@@ -1696,7 +1662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>43927</v>
       </c>
@@ -1728,7 +1694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>43928</v>
       </c>
@@ -1760,7 +1726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>43929</v>
       </c>
@@ -1792,7 +1758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>43930</v>
       </c>
@@ -1824,7 +1790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>43931</v>
       </c>
@@ -1856,7 +1822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>43932</v>
       </c>
@@ -1888,7 +1854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>43933</v>
       </c>
@@ -1920,7 +1886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>43934</v>
       </c>
@@ -1952,7 +1918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>43935</v>
       </c>
@@ -1984,7 +1950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>43936</v>
       </c>
@@ -2016,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>43937</v>
       </c>
@@ -2048,7 +2014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>43938</v>
       </c>
@@ -2080,7 +2046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>43939</v>
       </c>
@@ -2112,7 +2078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>43940</v>
       </c>
@@ -2144,7 +2110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>43941</v>
       </c>
@@ -2176,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>43942</v>
       </c>
@@ -2208,7 +2174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>43943</v>
       </c>
@@ -2240,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43944</v>
       </c>
@@ -2272,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43945</v>
       </c>
@@ -2304,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>43946</v>
       </c>
@@ -2336,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>43947</v>
       </c>
@@ -2368,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>43948</v>
       </c>
@@ -2400,7 +2366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>43949</v>
       </c>
@@ -2432,7 +2398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>43950</v>
       </c>
@@ -2464,7 +2430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>43951</v>
       </c>
@@ -2496,7 +2462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>43952</v>
       </c>
@@ -2528,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>43953</v>
       </c>
@@ -2560,7 +2526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>43954</v>
       </c>
@@ -2592,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>43955</v>
       </c>
@@ -2624,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>43956</v>
       </c>
@@ -2656,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>43957</v>
       </c>
@@ -2688,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>43958</v>
       </c>
@@ -2720,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>43959</v>
       </c>
@@ -2752,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>43960</v>
       </c>
@@ -2784,7 +2750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>43961</v>
       </c>
@@ -2816,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>43962</v>
       </c>
@@ -2848,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>43963</v>
       </c>
@@ -2880,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
         <v>43964</v>
       </c>
@@ -2912,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>43965</v>
       </c>
@@ -2944,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>43966</v>
       </c>
@@ -2976,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>43967</v>
       </c>
@@ -3008,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>43968</v>
       </c>
@@ -3040,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>43969</v>
       </c>
@@ -3072,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>43970</v>
       </c>
@@ -3104,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>43971</v>
       </c>
@@ -3136,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>43972</v>
       </c>
@@ -3168,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
         <v>43973</v>
       </c>
@@ -3200,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
         <v>43974</v>
       </c>
@@ -3232,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="20">
         <v>43975</v>
       </c>
@@ -3264,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>43976</v>
       </c>
@@ -3296,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
         <v>43977</v>
       </c>
@@ -3328,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
         <v>43978</v>
       </c>
@@ -3360,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="20">
         <v>43979</v>
       </c>
@@ -3392,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>43980</v>
       </c>
@@ -3424,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="20">
         <v>43981</v>
       </c>
@@ -3456,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="20">
         <v>43982</v>
       </c>
@@ -3488,7 +3454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="20">
         <v>43983</v>
       </c>
@@ -3520,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="20">
         <v>43984</v>
       </c>
@@ -3552,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="20">
         <v>43985</v>
       </c>
@@ -3584,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="26">
         <v>43986</v>
       </c>
@@ -3616,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="29">
         <v>43987</v>
       </c>
@@ -3648,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>43988</v>
       </c>
@@ -3680,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="29">
         <v>43989</v>
       </c>
@@ -3712,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="20">
         <v>43990</v>
       </c>
@@ -3744,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="20">
         <v>43991</v>
       </c>
@@ -3776,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>43992</v>
       </c>
@@ -3808,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="29">
         <v>43993</v>
       </c>
@@ -3840,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>43994</v>
       </c>
@@ -3872,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="29">
         <v>43995</v>
       </c>
@@ -3904,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>43996</v>
       </c>
@@ -3936,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="20">
         <v>43997</v>
       </c>
@@ -3968,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="20">
         <v>43998</v>
       </c>
@@ -4000,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="29">
         <v>43999</v>
       </c>
@@ -4032,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="20">
         <v>44000</v>
       </c>
@@ -4064,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="29">
         <v>44001</v>
       </c>
@@ -4096,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>44002</v>
       </c>
@@ -4128,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="29">
         <v>44003</v>
       </c>
@@ -4160,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="29">
         <v>44004</v>
       </c>
@@ -4192,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="29">
         <v>44005</v>
       </c>
@@ -4224,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>44006</v>
       </c>
@@ -4256,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="29">
         <v>44007</v>
       </c>
@@ -4288,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="29">
         <v>44008</v>
       </c>
@@ -4320,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="29">
         <v>44009</v>
       </c>
@@ -4352,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="29">
         <v>44010</v>
       </c>
@@ -4384,7 +4350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="29">
         <v>44011</v>
       </c>
@@ -4416,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="20">
         <v>44012</v>
       </c>
@@ -4448,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="20">
         <v>44013</v>
       </c>
@@ -4480,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="20">
         <v>44014</v>
       </c>
@@ -4512,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="20">
         <v>44015</v>
       </c>
@@ -4544,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="20">
         <v>44016</v>
       </c>
@@ -4576,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="29">
         <v>44017</v>
       </c>
@@ -4608,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="20">
         <v>44018</v>
       </c>
@@ -4640,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>44019</v>
       </c>
@@ -4672,7 +4638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="20">
         <v>44020</v>
       </c>
@@ -4704,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="29">
         <v>44021</v>
       </c>
@@ -4736,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <v>44022</v>
       </c>
@@ -4768,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="29">
         <v>44023</v>
       </c>
@@ -4800,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="20">
         <v>44024</v>
       </c>
@@ -4832,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>44025</v>
       </c>
@@ -4864,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="33">
         <v>44026</v>
       </c>
@@ -4896,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="36">
         <v>44027</v>
       </c>
@@ -4928,7 +4894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="33">
         <v>44028</v>
       </c>
@@ -4960,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="36">
         <v>44029</v>
       </c>
@@ -4992,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="39">
         <v>44030</v>
       </c>
@@ -5024,7 +4990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="39">
         <v>44031</v>
       </c>
@@ -5056,7 +5022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="33">
         <v>44032</v>
       </c>
@@ -5088,7 +5054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="36">
         <v>44033</v>
       </c>
@@ -5120,7 +5086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="33">
         <v>44034</v>
       </c>
@@ -5152,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="33">
         <v>44035</v>
       </c>
@@ -5184,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="42">
         <v>44036</v>
       </c>
@@ -5216,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="33">
         <v>44037</v>
       </c>
@@ -5248,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="33">
         <v>44038</v>
       </c>
@@ -5280,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="33">
         <v>44039</v>
       </c>
@@ -5312,7 +5278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="33">
         <v>44040</v>
       </c>
@@ -5344,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="33">
         <v>44041</v>
       </c>
@@ -5376,7 +5342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="33">
         <v>44042</v>
       </c>
@@ -5408,7 +5374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="36">
         <v>44043</v>
       </c>
@@ -5440,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="42">
         <v>44044</v>
       </c>
@@ -5472,7 +5438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="42">
         <v>44045</v>
       </c>
@@ -5504,7 +5470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="42">
         <v>44046</v>
       </c>
@@ -5536,7 +5502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="42">
         <v>44047</v>
       </c>
@@ -5568,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="42">
         <v>44048</v>
       </c>
@@ -5600,7 +5566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="42">
         <v>44049</v>
       </c>
@@ -5632,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="42">
         <v>44050</v>
       </c>
@@ -5664,7 +5630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="42">
         <v>44051</v>
       </c>
@@ -5696,7 +5662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="33">
         <v>44052</v>
       </c>
@@ -5728,7 +5694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="33">
         <v>44053</v>
       </c>
@@ -5760,7 +5726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="33">
         <v>44054</v>
       </c>
@@ -5792,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="33">
         <v>44055</v>
       </c>
@@ -5824,22 +5790,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="33">
+        <v>44056</v>
+      </c>
+      <c r="B156" s="34">
+        <v>140511</v>
+      </c>
+      <c r="C156" s="35">
+        <v>937</v>
+      </c>
+      <c r="D156" s="35">
+        <v>2369</v>
+      </c>
+      <c r="E156" s="35">
+        <v>37</v>
+      </c>
+      <c r="F156" s="35">
+        <v>18</v>
+      </c>
+      <c r="G156" s="35">
+        <v>3</v>
+      </c>
+      <c r="H156" s="35">
+        <v>4</v>
+      </c>
+      <c r="I156" s="35">
+        <v>129</v>
+      </c>
+      <c r="J156" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="32" t="s">
         <v>13</v>
       </c>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Za objavo na GOV.SI\ang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akriz\Desktop\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -512,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J156" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J156">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J157" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J157">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -812,25 +812,25 @@
   <dimension ref="A1:J164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J156" sqref="J156"/>
+      <selection activeCell="J157" sqref="J157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -862,7 +862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>43902</v>
       </c>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>43903</v>
       </c>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>43904</v>
       </c>
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>43905</v>
       </c>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>43906</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>43907</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>43908</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>43909</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>43910</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>43911</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>43912</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>43914</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>43915</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>43916</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>43917</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>43918</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>43919</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>43920</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>43921</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>43922</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>43923</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>43924</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>43925</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>43926</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>43927</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>43928</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>43929</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>43930</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>43931</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>43932</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>43933</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>43934</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>43935</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>43936</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>43937</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>43938</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>43939</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>43940</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>43941</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>43942</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>43943</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43944</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>43945</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>43946</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>43947</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>43948</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>43949</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>43950</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>43951</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>43952</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>43953</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>43954</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>43955</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>43956</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>43957</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>43958</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>43959</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>43960</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>43961</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>43962</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>43963</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
         <v>43964</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
         <v>43965</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>43966</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
         <v>43967</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>43968</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
         <v>43969</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>43970</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="20">
         <v>43971</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <v>43972</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="20">
         <v>43973</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="17">
         <v>43974</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="20">
         <v>43975</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="20">
         <v>43976</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="20">
         <v>43977</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="20">
         <v>43978</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="20">
         <v>43979</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="20">
         <v>43980</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="20">
         <v>43981</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="20">
         <v>43982</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="20">
         <v>43983</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="20">
         <v>43984</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="20">
         <v>43985</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="26">
         <v>43986</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="29">
         <v>43987</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <v>43988</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="29">
         <v>43989</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="20">
         <v>43990</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="20">
         <v>43991</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <v>43992</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="29">
         <v>43993</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
         <v>43994</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="29">
         <v>43995</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <v>43996</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="20">
         <v>43997</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="20">
         <v>43998</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="29">
         <v>43999</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="20">
         <v>44000</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="29">
         <v>44001</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="23">
         <v>44002</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="29">
         <v>44003</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="29">
         <v>44004</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="29">
         <v>44005</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
         <v>44006</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="29">
         <v>44007</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="29">
         <v>44008</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="29">
         <v>44009</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="29">
         <v>44010</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="29">
         <v>44011</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="20">
         <v>44012</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="20">
         <v>44013</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="20">
         <v>44014</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="20">
         <v>44015</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="20">
         <v>44016</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="29">
         <v>44017</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="20">
         <v>44018</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>44019</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="20">
         <v>44020</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="29">
         <v>44021</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="23">
         <v>44022</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="29">
         <v>44023</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="20">
         <v>44024</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>44025</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="33">
         <v>44026</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="36">
         <v>44027</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="33">
         <v>44028</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="36">
         <v>44029</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="39">
         <v>44030</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="39">
         <v>44031</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="33">
         <v>44032</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="36">
         <v>44033</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="33">
         <v>44034</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="33">
         <v>44035</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="42">
         <v>44036</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="33">
         <v>44037</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="33">
         <v>44038</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="33">
         <v>44039</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="33">
         <v>44040</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="33">
         <v>44041</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="33">
         <v>44042</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="36">
         <v>44043</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="42">
         <v>44044</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="42">
         <v>44045</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="42">
         <v>44046</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="42">
         <v>44047</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="42">
         <v>44048</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="42">
         <v>44049</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="42">
         <v>44050</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="42">
         <v>44051</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="33">
         <v>44052</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="33">
         <v>44053</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="33">
         <v>44054</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="33">
         <v>44055</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="33">
         <v>44056</v>
       </c>
@@ -5822,22 +5822,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A157" s="33">
+        <v>44057</v>
+      </c>
+      <c r="B157" s="34">
+        <v>141545</v>
+      </c>
+      <c r="C157" s="35">
+        <v>1034</v>
+      </c>
+      <c r="D157" s="35">
+        <v>2401</v>
+      </c>
+      <c r="E157" s="35">
+        <v>32</v>
+      </c>
+      <c r="F157" s="35">
+        <v>16</v>
+      </c>
+      <c r="G157" s="35">
+        <v>3</v>
+      </c>
+      <c r="H157" s="35">
+        <v>4</v>
+      </c>
+      <c r="I157" s="35">
+        <v>129</v>
+      </c>
+      <c r="J157" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="32" t="s">
         <v>13</v>
       </c>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -512,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J157" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J157">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J158" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J158">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -812,7 +812,7 @@
   <dimension ref="A1:J164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J157" sqref="J157"/>
+      <selection activeCell="J158" sqref="J158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5854,6 +5854,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A158" s="33">
+        <v>44058</v>
+      </c>
+      <c r="B158" s="34">
+        <v>141927</v>
+      </c>
+      <c r="C158" s="35">
+        <v>382</v>
+      </c>
+      <c r="D158" s="35">
+        <v>2416</v>
+      </c>
+      <c r="E158" s="35">
+        <v>15</v>
+      </c>
+      <c r="F158" s="35">
+        <v>17</v>
+      </c>
+      <c r="G158" s="35">
+        <v>4</v>
+      </c>
+      <c r="H158" s="35">
+        <v>1</v>
+      </c>
+      <c r="I158" s="35">
+        <v>129</v>
+      </c>
+      <c r="J158" s="35">
+        <v>0</v>
+      </c>
+    </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="32" t="s">
         <v>10</v>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -512,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J158" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J158">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J159" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J159">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -812,25 +812,25 @@
   <dimension ref="A1:J164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J158" sqref="J158"/>
+      <selection activeCell="J159" sqref="J159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -862,7 +862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43902</v>
       </c>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43903</v>
       </c>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43904</v>
       </c>
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43905</v>
       </c>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43906</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43907</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43908</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43909</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43910</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>43911</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>43912</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>43914</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>43915</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>43916</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43917</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>43918</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>43919</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>43920</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>43921</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>43922</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>43923</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>43924</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>43925</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>43926</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>43927</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>43928</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>43929</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>43930</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>43931</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>43932</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>43933</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>43934</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>43935</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>43936</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>43937</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>43938</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>43939</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>43940</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>43941</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>43942</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>43943</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43944</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43945</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>43946</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>43947</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>43948</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>43949</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>43950</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>43951</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>43952</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>43953</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>43954</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>43955</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>43956</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>43957</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>43958</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>43959</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>43960</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>43961</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>43962</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>43963</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
         <v>43964</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>43965</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>43966</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>43967</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>43968</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>43969</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>43970</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>43971</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>43972</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
         <v>43973</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
         <v>43974</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="20">
         <v>43975</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>43976</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
         <v>43977</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
         <v>43978</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="20">
         <v>43979</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>43980</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="20">
         <v>43981</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="20">
         <v>43982</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="20">
         <v>43983</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="20">
         <v>43984</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="20">
         <v>43985</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="26">
         <v>43986</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="29">
         <v>43987</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>43988</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="29">
         <v>43989</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="20">
         <v>43990</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="20">
         <v>43991</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>43992</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="29">
         <v>43993</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>43994</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="29">
         <v>43995</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>43996</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="20">
         <v>43997</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="20">
         <v>43998</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="29">
         <v>43999</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="20">
         <v>44000</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="29">
         <v>44001</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>44002</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="29">
         <v>44003</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="29">
         <v>44004</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="29">
         <v>44005</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>44006</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="29">
         <v>44007</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="29">
         <v>44008</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="29">
         <v>44009</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="29">
         <v>44010</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="29">
         <v>44011</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="20">
         <v>44012</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="20">
         <v>44013</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="20">
         <v>44014</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="20">
         <v>44015</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="20">
         <v>44016</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="29">
         <v>44017</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="20">
         <v>44018</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>44019</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="20">
         <v>44020</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="29">
         <v>44021</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <v>44022</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="29">
         <v>44023</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="20">
         <v>44024</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>44025</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="33">
         <v>44026</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="36">
         <v>44027</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="33">
         <v>44028</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="36">
         <v>44029</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="39">
         <v>44030</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="39">
         <v>44031</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="33">
         <v>44032</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="36">
         <v>44033</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="33">
         <v>44034</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="33">
         <v>44035</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="42">
         <v>44036</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="33">
         <v>44037</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="33">
         <v>44038</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="33">
         <v>44039</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="33">
         <v>44040</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="33">
         <v>44041</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="33">
         <v>44042</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="36">
         <v>44043</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="42">
         <v>44044</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="42">
         <v>44045</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="42">
         <v>44046</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="42">
         <v>44047</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="42">
         <v>44048</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="42">
         <v>44049</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="42">
         <v>44050</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="42">
         <v>44051</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="33">
         <v>44052</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="33">
         <v>44053</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="33">
         <v>44054</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="33">
         <v>44055</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="33">
         <v>44056</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="33">
         <v>44057</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="33">
         <v>44058</v>
       </c>
@@ -5886,22 +5886,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="33">
+        <v>44059</v>
+      </c>
+      <c r="B159" s="34">
+        <v>142320</v>
+      </c>
+      <c r="C159" s="35">
+        <v>393</v>
+      </c>
+      <c r="D159" s="35">
+        <v>2429</v>
+      </c>
+      <c r="E159" s="35">
+        <v>13</v>
+      </c>
+      <c r="F159" s="35">
+        <v>19</v>
+      </c>
+      <c r="G159" s="35">
+        <v>3</v>
+      </c>
+      <c r="H159" s="35">
+        <v>0</v>
+      </c>
+      <c r="I159" s="35">
+        <v>129</v>
+      </c>
+      <c r="J159" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="32" t="s">
         <v>13</v>
       </c>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -512,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J159" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J159">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J160" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J160">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -812,7 +812,7 @@
   <dimension ref="A1:J164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J159" sqref="J159"/>
+      <selection activeCell="J160" sqref="J160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5918,6 +5918,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="33">
+        <v>44060</v>
+      </c>
+      <c r="B160" s="34">
+        <v>143463</v>
+      </c>
+      <c r="C160" s="35">
+        <v>1143</v>
+      </c>
+      <c r="D160" s="35">
+        <v>2456</v>
+      </c>
+      <c r="E160" s="35">
+        <v>27</v>
+      </c>
+      <c r="F160" s="35">
+        <v>16</v>
+      </c>
+      <c r="G160" s="35">
+        <v>3</v>
+      </c>
+      <c r="H160" s="35">
+        <v>3</v>
+      </c>
+      <c r="I160" s="35">
+        <v>129</v>
+      </c>
+      <c r="J160" s="35">
+        <v>0</v>
+      </c>
+    </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="32" t="s">
         <v>10</v>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -512,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J160" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J160">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J161" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J161">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -809,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J164"/>
+  <dimension ref="A1:J172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J160" sqref="J160"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="J161" sqref="J161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5950,23 +5950,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="32" t="s">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="33">
+        <v>44061</v>
+      </c>
+      <c r="B161" s="34">
+        <v>144555</v>
+      </c>
+      <c r="C161" s="35">
+        <v>1092</v>
+      </c>
+      <c r="D161" s="35">
+        <v>2493</v>
+      </c>
+      <c r="E161" s="35">
+        <v>37</v>
+      </c>
+      <c r="F161" s="35">
+        <v>17</v>
+      </c>
+      <c r="G161" s="35">
+        <v>3</v>
+      </c>
+      <c r="H161" s="35">
+        <v>0</v>
+      </c>
+      <c r="I161" s="35">
+        <v>129</v>
+      </c>
+      <c r="J161" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="32"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="32"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="32"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="32" t="s">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="32" t="s">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="32" t="s">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="32" t="s">
         <v>13</v>
       </c>
     </row>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -512,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J161" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J161">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J162" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J162">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -812,25 +812,25 @@
   <dimension ref="A1:J172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A134" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J161" sqref="J161"/>
+      <selection activeCell="J162" sqref="J162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -862,7 +862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>43902</v>
       </c>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>43903</v>
       </c>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>43904</v>
       </c>
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>43905</v>
       </c>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>43906</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>43907</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>43908</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>43909</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>43910</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>43911</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>43912</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>43914</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>43915</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>43916</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>43917</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>43918</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>43919</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>43920</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>43921</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>43922</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>43923</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>43924</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>43925</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>43926</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>43927</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>43928</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>43929</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>43930</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>43931</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>43932</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>43933</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>43934</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>43935</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>43936</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>43937</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>43938</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>43939</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>43940</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>43941</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>43942</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>43943</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43944</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>43945</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>43946</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>43947</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>43948</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>43949</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>43950</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>43951</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>43952</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>43953</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>43954</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>43955</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>43956</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>43957</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>43958</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>43959</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>43960</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>43961</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>43962</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>43963</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
         <v>43964</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
         <v>43965</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>43966</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
         <v>43967</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>43968</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
         <v>43969</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>43970</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="20">
         <v>43971</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <v>43972</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="20">
         <v>43973</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="17">
         <v>43974</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="20">
         <v>43975</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="20">
         <v>43976</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="20">
         <v>43977</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="20">
         <v>43978</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="20">
         <v>43979</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="20">
         <v>43980</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="20">
         <v>43981</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="20">
         <v>43982</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="20">
         <v>43983</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="20">
         <v>43984</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="20">
         <v>43985</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="26">
         <v>43986</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="29">
         <v>43987</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <v>43988</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="29">
         <v>43989</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="20">
         <v>43990</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="20">
         <v>43991</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <v>43992</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="29">
         <v>43993</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
         <v>43994</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="29">
         <v>43995</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <v>43996</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="20">
         <v>43997</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="20">
         <v>43998</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="29">
         <v>43999</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="20">
         <v>44000</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="29">
         <v>44001</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="23">
         <v>44002</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="29">
         <v>44003</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="29">
         <v>44004</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="29">
         <v>44005</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
         <v>44006</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="29">
         <v>44007</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="29">
         <v>44008</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="29">
         <v>44009</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="29">
         <v>44010</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="29">
         <v>44011</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="20">
         <v>44012</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="20">
         <v>44013</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="20">
         <v>44014</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="20">
         <v>44015</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="20">
         <v>44016</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="29">
         <v>44017</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="20">
         <v>44018</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>44019</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="20">
         <v>44020</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="29">
         <v>44021</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="23">
         <v>44022</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="29">
         <v>44023</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="20">
         <v>44024</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>44025</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="33">
         <v>44026</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="36">
         <v>44027</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="33">
         <v>44028</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="36">
         <v>44029</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="39">
         <v>44030</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="39">
         <v>44031</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="33">
         <v>44032</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="36">
         <v>44033</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="33">
         <v>44034</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="33">
         <v>44035</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="42">
         <v>44036</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="33">
         <v>44037</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="33">
         <v>44038</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="33">
         <v>44039</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="33">
         <v>44040</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="33">
         <v>44041</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="33">
         <v>44042</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="36">
         <v>44043</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="42">
         <v>44044</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="42">
         <v>44045</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="42">
         <v>44046</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="42">
         <v>44047</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="42">
         <v>44048</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="42">
         <v>44049</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="42">
         <v>44050</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="42">
         <v>44051</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="33">
         <v>44052</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="33">
         <v>44053</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="33">
         <v>44054</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="33">
         <v>44055</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="33">
         <v>44056</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="33">
         <v>44057</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="33">
         <v>44058</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="33">
         <v>44059</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="33">
         <v>44060</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="33">
         <v>44061</v>
       </c>
@@ -5982,31 +5982,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="32"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A162" s="33">
+        <v>44062</v>
+      </c>
+      <c r="B162" s="34">
+        <v>145723</v>
+      </c>
+      <c r="C162" s="35">
+        <v>1168</v>
+      </c>
+      <c r="D162" s="35">
+        <v>2536</v>
+      </c>
+      <c r="E162" s="35">
+        <v>43</v>
+      </c>
+      <c r="F162" s="35">
+        <v>17</v>
+      </c>
+      <c r="G162" s="35">
+        <v>2</v>
+      </c>
+      <c r="H162" s="35">
+        <v>3</v>
+      </c>
+      <c r="I162" s="35">
+        <v>129</v>
+      </c>
+      <c r="J162" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="32"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="32"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="32" t="s">
         <v>13</v>
       </c>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -512,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J162" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J162">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J163" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J163">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -812,25 +812,25 @@
   <dimension ref="A1:J172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A134" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J162" sqref="J162"/>
+      <selection activeCell="G163" sqref="G163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -862,7 +862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43902</v>
       </c>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43903</v>
       </c>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43904</v>
       </c>
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43905</v>
       </c>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43906</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43907</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43908</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43909</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43910</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>43911</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>43912</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>43914</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>43915</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>43916</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43917</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>43918</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>43919</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>43920</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>43921</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>43922</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>43923</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>43924</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>43925</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>43926</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>43927</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>43928</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>43929</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>43930</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>43931</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>43932</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>43933</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>43934</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>43935</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>43936</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>43937</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>43938</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>43939</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>43940</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>43941</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>43942</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>43943</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43944</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43945</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>43946</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>43947</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>43948</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>43949</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>43950</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>43951</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>43952</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>43953</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>43954</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>43955</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>43956</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>43957</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>43958</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>43959</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>43960</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>43961</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>43962</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>43963</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
         <v>43964</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>43965</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>43966</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>43967</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>43968</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>43969</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>43970</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>43971</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>43972</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
         <v>43973</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
         <v>43974</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="20">
         <v>43975</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>43976</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
         <v>43977</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
         <v>43978</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="20">
         <v>43979</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>43980</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="20">
         <v>43981</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="20">
         <v>43982</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="20">
         <v>43983</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="20">
         <v>43984</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="20">
         <v>43985</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="26">
         <v>43986</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="29">
         <v>43987</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>43988</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="29">
         <v>43989</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="20">
         <v>43990</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="20">
         <v>43991</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>43992</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="29">
         <v>43993</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>43994</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="29">
         <v>43995</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>43996</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="20">
         <v>43997</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="20">
         <v>43998</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="29">
         <v>43999</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="20">
         <v>44000</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="29">
         <v>44001</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>44002</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="29">
         <v>44003</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="29">
         <v>44004</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="29">
         <v>44005</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>44006</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="29">
         <v>44007</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="29">
         <v>44008</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="29">
         <v>44009</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="29">
         <v>44010</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="29">
         <v>44011</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="20">
         <v>44012</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="20">
         <v>44013</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="20">
         <v>44014</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="20">
         <v>44015</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="20">
         <v>44016</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="29">
         <v>44017</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="20">
         <v>44018</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>44019</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="20">
         <v>44020</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="29">
         <v>44021</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <v>44022</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="29">
         <v>44023</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="20">
         <v>44024</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>44025</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="33">
         <v>44026</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="36">
         <v>44027</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="33">
         <v>44028</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="36">
         <v>44029</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="39">
         <v>44030</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="39">
         <v>44031</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="33">
         <v>44032</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="36">
         <v>44033</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="33">
         <v>44034</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="33">
         <v>44035</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="42">
         <v>44036</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="33">
         <v>44037</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="33">
         <v>44038</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="33">
         <v>44039</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="33">
         <v>44040</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="33">
         <v>44041</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="33">
         <v>44042</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="36">
         <v>44043</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="42">
         <v>44044</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="42">
         <v>44045</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="42">
         <v>44046</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="42">
         <v>44047</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="42">
         <v>44048</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="42">
         <v>44049</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="42">
         <v>44050</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="42">
         <v>44051</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="33">
         <v>44052</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="33">
         <v>44053</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="33">
         <v>44054</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="33">
         <v>44055</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="33">
         <v>44056</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="33">
         <v>44057</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="33">
         <v>44058</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="33">
         <v>44059</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="33">
         <v>44060</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="33">
         <v>44061</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="33">
         <v>44062</v>
       </c>
@@ -6014,28 +6014,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A163" s="32"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="33">
+        <v>44063</v>
+      </c>
+      <c r="B163" s="34">
+        <v>146819</v>
+      </c>
+      <c r="C163" s="35">
+        <v>1096</v>
+      </c>
+      <c r="D163" s="35">
+        <v>2574</v>
+      </c>
+      <c r="E163" s="35">
+        <v>38</v>
+      </c>
+      <c r="F163" s="35">
+        <v>18</v>
+      </c>
+      <c r="G163" s="35">
+        <v>0</v>
+      </c>
+      <c r="H163" s="35">
+        <v>1</v>
+      </c>
+      <c r="I163" s="35">
+        <v>130</v>
+      </c>
+      <c r="J163" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="32"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="32" t="s">
         <v>13</v>
       </c>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -512,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J163" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J163">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J164" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J164">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -812,25 +812,25 @@
   <dimension ref="A1:J172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A134" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="G163" sqref="G163"/>
+      <selection activeCell="J164" sqref="J164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -862,7 +862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>43902</v>
       </c>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>43903</v>
       </c>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>43904</v>
       </c>
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>43905</v>
       </c>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>43906</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>43907</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>43908</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>43909</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>43910</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>43911</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>43912</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>43914</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>43915</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>43916</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>43917</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>43918</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>43919</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>43920</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>43921</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>43922</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>43923</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>43924</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>43925</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>43926</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>43927</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>43928</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>43929</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>43930</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>43931</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>43932</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>43933</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>43934</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>43935</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>43936</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>43937</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>43938</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>43939</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>43940</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>43941</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>43942</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>43943</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43944</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>43945</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>43946</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>43947</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>43948</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>43949</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>43950</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>43951</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>43952</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>43953</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>43954</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>43955</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>43956</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>43957</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>43958</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>43959</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>43960</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>43961</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>43962</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>43963</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
         <v>43964</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
         <v>43965</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>43966</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
         <v>43967</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>43968</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
         <v>43969</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>43970</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="20">
         <v>43971</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <v>43972</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="20">
         <v>43973</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="17">
         <v>43974</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="20">
         <v>43975</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="20">
         <v>43976</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="20">
         <v>43977</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="20">
         <v>43978</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="20">
         <v>43979</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="20">
         <v>43980</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="20">
         <v>43981</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="20">
         <v>43982</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="20">
         <v>43983</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="20">
         <v>43984</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="20">
         <v>43985</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="26">
         <v>43986</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="29">
         <v>43987</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <v>43988</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="29">
         <v>43989</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="20">
         <v>43990</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="20">
         <v>43991</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <v>43992</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="29">
         <v>43993</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
         <v>43994</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="29">
         <v>43995</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <v>43996</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="20">
         <v>43997</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="20">
         <v>43998</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="29">
         <v>43999</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="20">
         <v>44000</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="29">
         <v>44001</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="23">
         <v>44002</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="29">
         <v>44003</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="29">
         <v>44004</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="29">
         <v>44005</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
         <v>44006</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="29">
         <v>44007</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="29">
         <v>44008</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="29">
         <v>44009</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="29">
         <v>44010</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="29">
         <v>44011</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="20">
         <v>44012</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="20">
         <v>44013</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="20">
         <v>44014</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="20">
         <v>44015</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="20">
         <v>44016</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="29">
         <v>44017</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="20">
         <v>44018</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>44019</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="20">
         <v>44020</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="29">
         <v>44021</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="23">
         <v>44022</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="29">
         <v>44023</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="20">
         <v>44024</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>44025</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="33">
         <v>44026</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="36">
         <v>44027</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="33">
         <v>44028</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="36">
         <v>44029</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="39">
         <v>44030</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="39">
         <v>44031</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="33">
         <v>44032</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="36">
         <v>44033</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="33">
         <v>44034</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="33">
         <v>44035</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="42">
         <v>44036</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="33">
         <v>44037</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="33">
         <v>44038</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="33">
         <v>44039</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="33">
         <v>44040</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="33">
         <v>44041</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="33">
         <v>44042</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="36">
         <v>44043</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="42">
         <v>44044</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="42">
         <v>44045</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="42">
         <v>44046</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="42">
         <v>44047</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="42">
         <v>44048</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="42">
         <v>44049</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="42">
         <v>44050</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="42">
         <v>44051</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="33">
         <v>44052</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="33">
         <v>44053</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="33">
         <v>44054</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="33">
         <v>44055</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="33">
         <v>44056</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="33">
         <v>44057</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="33">
         <v>44058</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="33">
         <v>44059</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="33">
         <v>44060</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="33">
         <v>44061</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="33">
         <v>44062</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="33">
         <v>44063</v>
       </c>
@@ -6046,25 +6046,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="32"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A164" s="33">
+        <v>44064</v>
+      </c>
+      <c r="B164" s="34">
+        <v>148022</v>
+      </c>
+      <c r="C164" s="35">
+        <v>1203</v>
+      </c>
+      <c r="D164" s="35">
+        <v>2617</v>
+      </c>
+      <c r="E164" s="35">
+        <v>43</v>
+      </c>
+      <c r="F164" s="35">
+        <v>18</v>
+      </c>
+      <c r="G164" s="35">
+        <v>0</v>
+      </c>
+      <c r="H164" s="35">
+        <v>2</v>
+      </c>
+      <c r="I164" s="35">
+        <v>131</v>
+      </c>
+      <c r="J164" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="32" t="s">
         <v>13</v>
       </c>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -512,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J164" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J164">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J165" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J165">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -812,7 +812,7 @@
   <dimension ref="A1:J172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A134" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J164" sqref="J164"/>
+      <selection activeCell="J165" sqref="J165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6078,6 +6078,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A165" s="33">
+        <v>44065</v>
+      </c>
+      <c r="B165" s="34">
+        <v>148782</v>
+      </c>
+      <c r="C165" s="35">
+        <v>760</v>
+      </c>
+      <c r="D165" s="35">
+        <v>2651</v>
+      </c>
+      <c r="E165" s="35">
+        <v>34</v>
+      </c>
+      <c r="F165" s="35">
+        <v>17</v>
+      </c>
+      <c r="G165" s="35">
+        <v>0</v>
+      </c>
+      <c r="H165" s="35">
+        <v>1</v>
+      </c>
+      <c r="I165" s="35">
+        <v>131</v>
+      </c>
+      <c r="J165" s="35">
+        <v>0</v>
+      </c>
+    </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="32" t="s">
         <v>10</v>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -512,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J165" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J165">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J167" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J167">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -812,25 +812,25 @@
   <dimension ref="A1:J172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A134" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J165" sqref="J165"/>
+      <selection activeCell="J166" sqref="J166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -862,7 +862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43902</v>
       </c>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43903</v>
       </c>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43904</v>
       </c>
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43905</v>
       </c>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43906</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43907</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43908</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43909</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43910</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>43911</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>43912</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>43914</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>43915</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>43916</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43917</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>43918</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>43919</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>43920</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>43921</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>43922</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>43923</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>43924</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>43925</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>43926</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>43927</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>43928</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>43929</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>43930</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>43931</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>43932</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>43933</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>43934</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>43935</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>43936</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>43937</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>43938</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>43939</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>43940</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>43941</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>43942</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>43943</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43944</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43945</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>43946</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>43947</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>43948</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>43949</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>43950</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>43951</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>43952</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>43953</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>43954</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>43955</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>43956</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>43957</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>43958</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>43959</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>43960</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>43961</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>43962</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>43963</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
         <v>43964</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>43965</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>43966</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>43967</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>43968</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>43969</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>43970</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>43971</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>43972</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
         <v>43973</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
         <v>43974</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="20">
         <v>43975</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>43976</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
         <v>43977</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
         <v>43978</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="20">
         <v>43979</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>43980</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="20">
         <v>43981</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="20">
         <v>43982</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="20">
         <v>43983</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="20">
         <v>43984</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="20">
         <v>43985</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="26">
         <v>43986</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="29">
         <v>43987</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>43988</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="29">
         <v>43989</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="20">
         <v>43990</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="20">
         <v>43991</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>43992</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="29">
         <v>43993</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>43994</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="29">
         <v>43995</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>43996</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="20">
         <v>43997</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="20">
         <v>43998</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="29">
         <v>43999</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="20">
         <v>44000</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="29">
         <v>44001</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>44002</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="29">
         <v>44003</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="29">
         <v>44004</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="29">
         <v>44005</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>44006</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="29">
         <v>44007</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="29">
         <v>44008</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="29">
         <v>44009</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="29">
         <v>44010</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="29">
         <v>44011</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="20">
         <v>44012</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="20">
         <v>44013</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="20">
         <v>44014</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="20">
         <v>44015</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="20">
         <v>44016</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="29">
         <v>44017</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="20">
         <v>44018</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>44019</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="20">
         <v>44020</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="29">
         <v>44021</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <v>44022</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="29">
         <v>44023</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="20">
         <v>44024</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>44025</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="33">
         <v>44026</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="36">
         <v>44027</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="33">
         <v>44028</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="36">
         <v>44029</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="39">
         <v>44030</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="39">
         <v>44031</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="33">
         <v>44032</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="36">
         <v>44033</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="33">
         <v>44034</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="33">
         <v>44035</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="42">
         <v>44036</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="33">
         <v>44037</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="33">
         <v>44038</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="33">
         <v>44039</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="33">
         <v>44040</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="33">
         <v>44041</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="33">
         <v>44042</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="36">
         <v>44043</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="42">
         <v>44044</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="42">
         <v>44045</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="42">
         <v>44046</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="42">
         <v>44047</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="42">
         <v>44048</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="42">
         <v>44049</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="42">
         <v>44050</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="42">
         <v>44051</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="33">
         <v>44052</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="33">
         <v>44053</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="33">
         <v>44054</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="33">
         <v>44055</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="33">
         <v>44056</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="33">
         <v>44057</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="33">
         <v>44058</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="33">
         <v>44059</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="33">
         <v>44060</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="33">
         <v>44061</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="33">
         <v>44062</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="33">
         <v>44063</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="33">
         <v>44064</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="33">
         <v>44065</v>
       </c>
@@ -6110,22 +6110,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="33">
+        <v>44066</v>
+      </c>
+      <c r="B166" s="34">
+        <v>149235</v>
+      </c>
+      <c r="C166" s="35">
+        <v>543</v>
+      </c>
+      <c r="D166" s="35">
+        <v>2665</v>
+      </c>
+      <c r="E166" s="35">
+        <v>14</v>
+      </c>
+      <c r="F166" s="35">
+        <v>17</v>
+      </c>
+      <c r="G166" s="35">
+        <v>0</v>
+      </c>
+      <c r="H166" s="35">
+        <v>1</v>
+      </c>
+      <c r="I166" s="35">
+        <v>133</v>
+      </c>
+      <c r="J166" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="33"/>
+      <c r="B167" s="35"/>
+      <c r="C167" s="35"/>
+      <c r="D167" s="35"/>
+      <c r="E167" s="35"/>
+      <c r="F167" s="35"/>
+      <c r="G167" s="35"/>
+      <c r="H167" s="35"/>
+      <c r="I167" s="35"/>
+      <c r="J167" s="35"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="32" t="s">
         <v>13</v>
       </c>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -811,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J166" sqref="J166"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="J167" sqref="J167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6143,16 +6143,36 @@
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="33"/>
-      <c r="B167" s="35"/>
-      <c r="C167" s="35"/>
-      <c r="D167" s="35"/>
-      <c r="E167" s="35"/>
-      <c r="F167" s="35"/>
-      <c r="G167" s="35"/>
-      <c r="H167" s="35"/>
-      <c r="I167" s="35"/>
-      <c r="J167" s="35"/>
+      <c r="A167" s="33">
+        <v>44067</v>
+      </c>
+      <c r="B167" s="34">
+        <v>150695</v>
+      </c>
+      <c r="C167" s="35">
+        <v>1370</v>
+      </c>
+      <c r="D167" s="35">
+        <v>2686</v>
+      </c>
+      <c r="E167" s="35">
+        <v>21</v>
+      </c>
+      <c r="F167" s="35">
+        <v>17</v>
+      </c>
+      <c r="G167" s="35">
+        <v>0</v>
+      </c>
+      <c r="H167" s="35">
+        <v>2</v>
+      </c>
+      <c r="I167" s="35">
+        <v>133</v>
+      </c>
+      <c r="J167" s="35">
+        <v>0</v>
+      </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="32" t="s">

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -512,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J167" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J167">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J168" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J168">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -809,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J172"/>
+  <dimension ref="A1:J180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J167" sqref="J167"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6174,23 +6174,67 @@
         <v>0</v>
       </c>
     </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="33">
+        <v>44068</v>
+      </c>
+      <c r="B168" s="34">
+        <v>152134</v>
+      </c>
+      <c r="C168" s="35">
+        <v>1439</v>
+      </c>
+      <c r="D168" s="35">
+        <v>2722</v>
+      </c>
+      <c r="E168" s="35">
+        <v>36</v>
+      </c>
+      <c r="F168" s="35">
+        <v>20</v>
+      </c>
+      <c r="G168" s="35">
+        <v>0</v>
+      </c>
+      <c r="H168" s="35">
+        <v>1</v>
+      </c>
+      <c r="I168" s="35">
+        <v>133</v>
+      </c>
+      <c r="J168" s="35">
+        <v>0</v>
+      </c>
+    </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="32" t="s">
+      <c r="A169" s="32"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="32"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="32"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="32"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="32" t="s">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="32" t="s">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="32" t="s">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="32" t="s">
         <v>13</v>
       </c>
     </row>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akriz\Desktop\Za objavo na GOV.SI\ang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CE1D7D-46CF-4334-9071-C7EEEFFBA4F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
@@ -512,8 +513,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J168" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J168">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J169" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J169" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -526,16 +527,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -808,29 +809,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J180"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A143" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168"/>
+      <selection activeCell="J170" sqref="J170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -862,7 +863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>43902</v>
       </c>
@@ -894,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>43903</v>
       </c>
@@ -926,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>43904</v>
       </c>
@@ -958,7 +959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>43905</v>
       </c>
@@ -990,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>43906</v>
       </c>
@@ -1022,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>43907</v>
       </c>
@@ -1054,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>43908</v>
       </c>
@@ -1086,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>43909</v>
       </c>
@@ -1118,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>43910</v>
       </c>
@@ -1150,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>43911</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>43912</v>
       </c>
@@ -1214,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -1246,7 +1247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>43914</v>
       </c>
@@ -1278,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>43915</v>
       </c>
@@ -1310,7 +1311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>43916</v>
       </c>
@@ -1342,7 +1343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>43917</v>
       </c>
@@ -1374,7 +1375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>43918</v>
       </c>
@@ -1406,7 +1407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>43919</v>
       </c>
@@ -1438,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>43920</v>
       </c>
@@ -1470,7 +1471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>43921</v>
       </c>
@@ -1502,7 +1503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>43922</v>
       </c>
@@ -1534,7 +1535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>43923</v>
       </c>
@@ -1566,7 +1567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>43924</v>
       </c>
@@ -1598,7 +1599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>43925</v>
       </c>
@@ -1630,7 +1631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>43926</v>
       </c>
@@ -1662,7 +1663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>43927</v>
       </c>
@@ -1694,7 +1695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>43928</v>
       </c>
@@ -1726,7 +1727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>43929</v>
       </c>
@@ -1758,7 +1759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>43930</v>
       </c>
@@ -1790,7 +1791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>43931</v>
       </c>
@@ -1822,7 +1823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>43932</v>
       </c>
@@ -1854,7 +1855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>43933</v>
       </c>
@@ -1886,7 +1887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>43934</v>
       </c>
@@ -1918,7 +1919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>43935</v>
       </c>
@@ -1950,7 +1951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>43936</v>
       </c>
@@ -1982,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>43937</v>
       </c>
@@ -2014,7 +2015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>43938</v>
       </c>
@@ -2046,7 +2047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>43939</v>
       </c>
@@ -2078,7 +2079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>43940</v>
       </c>
@@ -2110,7 +2111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>43941</v>
       </c>
@@ -2142,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>43942</v>
       </c>
@@ -2174,7 +2175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>43943</v>
       </c>
@@ -2206,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43944</v>
       </c>
@@ -2238,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>43945</v>
       </c>
@@ -2270,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>43946</v>
       </c>
@@ -2302,7 +2303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>43947</v>
       </c>
@@ -2334,7 +2335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>43948</v>
       </c>
@@ -2366,7 +2367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>43949</v>
       </c>
@@ -2398,7 +2399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>43950</v>
       </c>
@@ -2430,7 +2431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>43951</v>
       </c>
@@ -2462,7 +2463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>43952</v>
       </c>
@@ -2494,7 +2495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>43953</v>
       </c>
@@ -2526,7 +2527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>43954</v>
       </c>
@@ -2558,7 +2559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>43955</v>
       </c>
@@ -2590,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>43956</v>
       </c>
@@ -2622,7 +2623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>43957</v>
       </c>
@@ -2654,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>43958</v>
       </c>
@@ -2686,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>43959</v>
       </c>
@@ -2718,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>43960</v>
       </c>
@@ -2750,7 +2751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>43961</v>
       </c>
@@ -2782,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>43962</v>
       </c>
@@ -2814,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>43963</v>
       </c>
@@ -2846,7 +2847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
         <v>43964</v>
       </c>
@@ -2878,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
         <v>43965</v>
       </c>
@@ -2910,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>43966</v>
       </c>
@@ -2942,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
         <v>43967</v>
       </c>
@@ -2974,7 +2975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>43968</v>
       </c>
@@ -3006,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
         <v>43969</v>
       </c>
@@ -3038,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>43970</v>
       </c>
@@ -3070,7 +3071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="20">
         <v>43971</v>
       </c>
@@ -3102,7 +3103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <v>43972</v>
       </c>
@@ -3134,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="20">
         <v>43973</v>
       </c>
@@ -3166,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="17">
         <v>43974</v>
       </c>
@@ -3198,7 +3199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="20">
         <v>43975</v>
       </c>
@@ -3230,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="20">
         <v>43976</v>
       </c>
@@ -3262,7 +3263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="20">
         <v>43977</v>
       </c>
@@ -3294,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="20">
         <v>43978</v>
       </c>
@@ -3326,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="20">
         <v>43979</v>
       </c>
@@ -3358,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="20">
         <v>43980</v>
       </c>
@@ -3390,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="20">
         <v>43981</v>
       </c>
@@ -3422,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="20">
         <v>43982</v>
       </c>
@@ -3454,7 +3455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="20">
         <v>43983</v>
       </c>
@@ -3486,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="20">
         <v>43984</v>
       </c>
@@ -3518,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="20">
         <v>43985</v>
       </c>
@@ -3550,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="26">
         <v>43986</v>
       </c>
@@ -3582,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="29">
         <v>43987</v>
       </c>
@@ -3614,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <v>43988</v>
       </c>
@@ -3646,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="29">
         <v>43989</v>
       </c>
@@ -3678,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="20">
         <v>43990</v>
       </c>
@@ -3710,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="20">
         <v>43991</v>
       </c>
@@ -3742,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <v>43992</v>
       </c>
@@ -3774,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="29">
         <v>43993</v>
       </c>
@@ -3806,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
         <v>43994</v>
       </c>
@@ -3838,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="29">
         <v>43995</v>
       </c>
@@ -3870,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <v>43996</v>
       </c>
@@ -3902,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="20">
         <v>43997</v>
       </c>
@@ -3934,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="20">
         <v>43998</v>
       </c>
@@ -3966,7 +3967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="29">
         <v>43999</v>
       </c>
@@ -3998,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="20">
         <v>44000</v>
       </c>
@@ -4030,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="29">
         <v>44001</v>
       </c>
@@ -4062,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="23">
         <v>44002</v>
       </c>
@@ -4094,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="29">
         <v>44003</v>
       </c>
@@ -4126,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="29">
         <v>44004</v>
       </c>
@@ -4158,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="29">
         <v>44005</v>
       </c>
@@ -4190,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
         <v>44006</v>
       </c>
@@ -4222,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="29">
         <v>44007</v>
       </c>
@@ -4254,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="29">
         <v>44008</v>
       </c>
@@ -4286,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="29">
         <v>44009</v>
       </c>
@@ -4318,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="29">
         <v>44010</v>
       </c>
@@ -4350,7 +4351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="29">
         <v>44011</v>
       </c>
@@ -4382,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="20">
         <v>44012</v>
       </c>
@@ -4414,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="20">
         <v>44013</v>
       </c>
@@ -4446,7 +4447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="20">
         <v>44014</v>
       </c>
@@ -4478,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="20">
         <v>44015</v>
       </c>
@@ -4510,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="20">
         <v>44016</v>
       </c>
@@ -4542,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="29">
         <v>44017</v>
       </c>
@@ -4574,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="20">
         <v>44018</v>
       </c>
@@ -4606,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>44019</v>
       </c>
@@ -4638,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="20">
         <v>44020</v>
       </c>
@@ -4670,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="29">
         <v>44021</v>
       </c>
@@ -4702,7 +4703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="23">
         <v>44022</v>
       </c>
@@ -4734,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="29">
         <v>44023</v>
       </c>
@@ -4766,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="20">
         <v>44024</v>
       </c>
@@ -4798,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>44025</v>
       </c>
@@ -4830,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="33">
         <v>44026</v>
       </c>
@@ -4862,7 +4863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="36">
         <v>44027</v>
       </c>
@@ -4894,7 +4895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="33">
         <v>44028</v>
       </c>
@@ -4926,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="36">
         <v>44029</v>
       </c>
@@ -4958,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="39">
         <v>44030</v>
       </c>
@@ -4990,7 +4991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="39">
         <v>44031</v>
       </c>
@@ -5022,7 +5023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="33">
         <v>44032</v>
       </c>
@@ -5054,7 +5055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="36">
         <v>44033</v>
       </c>
@@ -5086,7 +5087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="33">
         <v>44034</v>
       </c>
@@ -5118,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="33">
         <v>44035</v>
       </c>
@@ -5150,7 +5151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="42">
         <v>44036</v>
       </c>
@@ -5182,7 +5183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="33">
         <v>44037</v>
       </c>
@@ -5214,7 +5215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="33">
         <v>44038</v>
       </c>
@@ -5246,7 +5247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="33">
         <v>44039</v>
       </c>
@@ -5278,7 +5279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="33">
         <v>44040</v>
       </c>
@@ -5310,7 +5311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="33">
         <v>44041</v>
       </c>
@@ -5342,7 +5343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="33">
         <v>44042</v>
       </c>
@@ -5374,7 +5375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="36">
         <v>44043</v>
       </c>
@@ -5406,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="42">
         <v>44044</v>
       </c>
@@ -5438,7 +5439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="42">
         <v>44045</v>
       </c>
@@ -5470,7 +5471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="42">
         <v>44046</v>
       </c>
@@ -5502,7 +5503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="42">
         <v>44047</v>
       </c>
@@ -5534,7 +5535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="42">
         <v>44048</v>
       </c>
@@ -5566,7 +5567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="42">
         <v>44049</v>
       </c>
@@ -5598,7 +5599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="42">
         <v>44050</v>
       </c>
@@ -5630,7 +5631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="42">
         <v>44051</v>
       </c>
@@ -5662,7 +5663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="33">
         <v>44052</v>
       </c>
@@ -5694,7 +5695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="33">
         <v>44053</v>
       </c>
@@ -5726,7 +5727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="33">
         <v>44054</v>
       </c>
@@ -5758,7 +5759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="33">
         <v>44055</v>
       </c>
@@ -5790,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="33">
         <v>44056</v>
       </c>
@@ -5822,7 +5823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="33">
         <v>44057</v>
       </c>
@@ -5854,7 +5855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="33">
         <v>44058</v>
       </c>
@@ -5886,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="33">
         <v>44059</v>
       </c>
@@ -5918,7 +5919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="33">
         <v>44060</v>
       </c>
@@ -5950,7 +5951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="33">
         <v>44061</v>
       </c>
@@ -5982,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="33">
         <v>44062</v>
       </c>
@@ -6014,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="33">
         <v>44063</v>
       </c>
@@ -6046,7 +6047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="33">
         <v>44064</v>
       </c>
@@ -6078,7 +6079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="33">
         <v>44065</v>
       </c>
@@ -6110,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="33">
         <v>44066</v>
       </c>
@@ -6142,7 +6143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="33">
         <v>44067</v>
       </c>
@@ -6174,7 +6175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="33">
         <v>44068</v>
       </c>
@@ -6206,34 +6207,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="32"/>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A169" s="33">
+        <v>44069</v>
+      </c>
+      <c r="B169" s="34">
+        <v>153433</v>
+      </c>
+      <c r="C169" s="35">
+        <v>1299</v>
+      </c>
+      <c r="D169" s="35">
+        <v>2755</v>
+      </c>
+      <c r="E169" s="35">
+        <v>33</v>
+      </c>
+      <c r="F169" s="35">
+        <v>23</v>
+      </c>
+      <c r="G169" s="35">
+        <v>0</v>
+      </c>
+      <c r="H169" s="35">
+        <v>0</v>
+      </c>
+      <c r="I169" s="35">
+        <v>133</v>
+      </c>
+      <c r="J169" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="32"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="32"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="32"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="32" t="s">
         <v>13</v>
       </c>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Za objavo na GOV.SI\ang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CE1D7D-46CF-4334-9071-C7EEEFFBA4F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -72,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
@@ -513,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J169" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J169" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J170" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J170">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -527,16 +526,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -809,29 +808,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J180"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A143" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J170" sqref="J170"/>
+      <selection activeCell="J173" sqref="J173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -863,7 +862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43902</v>
       </c>
@@ -895,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43903</v>
       </c>
@@ -927,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43904</v>
       </c>
@@ -959,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43905</v>
       </c>
@@ -991,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43906</v>
       </c>
@@ -1023,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43907</v>
       </c>
@@ -1055,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43908</v>
       </c>
@@ -1087,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43909</v>
       </c>
@@ -1119,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43910</v>
       </c>
@@ -1151,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>43911</v>
       </c>
@@ -1183,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>43912</v>
       </c>
@@ -1215,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -1247,7 +1246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>43914</v>
       </c>
@@ -1279,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>43915</v>
       </c>
@@ -1311,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>43916</v>
       </c>
@@ -1343,7 +1342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43917</v>
       </c>
@@ -1375,7 +1374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>43918</v>
       </c>
@@ -1407,7 +1406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>43919</v>
       </c>
@@ -1439,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>43920</v>
       </c>
@@ -1471,7 +1470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>43921</v>
       </c>
@@ -1503,7 +1502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>43922</v>
       </c>
@@ -1535,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>43923</v>
       </c>
@@ -1567,7 +1566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>43924</v>
       </c>
@@ -1599,7 +1598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>43925</v>
       </c>
@@ -1631,7 +1630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>43926</v>
       </c>
@@ -1663,7 +1662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>43927</v>
       </c>
@@ -1695,7 +1694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>43928</v>
       </c>
@@ -1727,7 +1726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>43929</v>
       </c>
@@ -1759,7 +1758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>43930</v>
       </c>
@@ -1791,7 +1790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>43931</v>
       </c>
@@ -1823,7 +1822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>43932</v>
       </c>
@@ -1855,7 +1854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>43933</v>
       </c>
@@ -1887,7 +1886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>43934</v>
       </c>
@@ -1919,7 +1918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>43935</v>
       </c>
@@ -1951,7 +1950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>43936</v>
       </c>
@@ -1983,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>43937</v>
       </c>
@@ -2015,7 +2014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>43938</v>
       </c>
@@ -2047,7 +2046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>43939</v>
       </c>
@@ -2079,7 +2078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>43940</v>
       </c>
@@ -2111,7 +2110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>43941</v>
       </c>
@@ -2143,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>43942</v>
       </c>
@@ -2175,7 +2174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>43943</v>
       </c>
@@ -2207,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43944</v>
       </c>
@@ -2239,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43945</v>
       </c>
@@ -2271,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>43946</v>
       </c>
@@ -2303,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>43947</v>
       </c>
@@ -2335,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>43948</v>
       </c>
@@ -2367,7 +2366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>43949</v>
       </c>
@@ -2399,7 +2398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>43950</v>
       </c>
@@ -2431,7 +2430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>43951</v>
       </c>
@@ -2463,7 +2462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>43952</v>
       </c>
@@ -2495,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>43953</v>
       </c>
@@ -2527,7 +2526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>43954</v>
       </c>
@@ -2559,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>43955</v>
       </c>
@@ -2591,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>43956</v>
       </c>
@@ -2623,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>43957</v>
       </c>
@@ -2655,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>43958</v>
       </c>
@@ -2687,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>43959</v>
       </c>
@@ -2719,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>43960</v>
       </c>
@@ -2751,7 +2750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>43961</v>
       </c>
@@ -2783,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>43962</v>
       </c>
@@ -2815,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>43963</v>
       </c>
@@ -2847,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
         <v>43964</v>
       </c>
@@ -2879,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>43965</v>
       </c>
@@ -2911,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>43966</v>
       </c>
@@ -2943,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>43967</v>
       </c>
@@ -2975,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>43968</v>
       </c>
@@ -3007,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>43969</v>
       </c>
@@ -3039,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>43970</v>
       </c>
@@ -3071,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>43971</v>
       </c>
@@ -3103,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>43972</v>
       </c>
@@ -3135,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
         <v>43973</v>
       </c>
@@ -3167,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
         <v>43974</v>
       </c>
@@ -3199,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="20">
         <v>43975</v>
       </c>
@@ -3231,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>43976</v>
       </c>
@@ -3263,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
         <v>43977</v>
       </c>
@@ -3295,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
         <v>43978</v>
       </c>
@@ -3327,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="20">
         <v>43979</v>
       </c>
@@ -3359,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>43980</v>
       </c>
@@ -3391,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="20">
         <v>43981</v>
       </c>
@@ -3423,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="20">
         <v>43982</v>
       </c>
@@ -3455,7 +3454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="20">
         <v>43983</v>
       </c>
@@ -3487,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="20">
         <v>43984</v>
       </c>
@@ -3519,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="20">
         <v>43985</v>
       </c>
@@ -3551,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="26">
         <v>43986</v>
       </c>
@@ -3583,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="29">
         <v>43987</v>
       </c>
@@ -3615,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>43988</v>
       </c>
@@ -3647,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="29">
         <v>43989</v>
       </c>
@@ -3679,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="20">
         <v>43990</v>
       </c>
@@ -3711,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="20">
         <v>43991</v>
       </c>
@@ -3743,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>43992</v>
       </c>
@@ -3775,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="29">
         <v>43993</v>
       </c>
@@ -3807,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>43994</v>
       </c>
@@ -3839,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="29">
         <v>43995</v>
       </c>
@@ -3871,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>43996</v>
       </c>
@@ -3903,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="20">
         <v>43997</v>
       </c>
@@ -3935,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="20">
         <v>43998</v>
       </c>
@@ -3967,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="29">
         <v>43999</v>
       </c>
@@ -3999,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="20">
         <v>44000</v>
       </c>
@@ -4031,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="29">
         <v>44001</v>
       </c>
@@ -4063,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>44002</v>
       </c>
@@ -4095,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="29">
         <v>44003</v>
       </c>
@@ -4127,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="29">
         <v>44004</v>
       </c>
@@ -4159,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="29">
         <v>44005</v>
       </c>
@@ -4191,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>44006</v>
       </c>
@@ -4223,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="29">
         <v>44007</v>
       </c>
@@ -4255,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="29">
         <v>44008</v>
       </c>
@@ -4287,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="29">
         <v>44009</v>
       </c>
@@ -4319,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="29">
         <v>44010</v>
       </c>
@@ -4351,7 +4350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="29">
         <v>44011</v>
       </c>
@@ -4383,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="20">
         <v>44012</v>
       </c>
@@ -4415,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="20">
         <v>44013</v>
       </c>
@@ -4447,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="20">
         <v>44014</v>
       </c>
@@ -4479,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="20">
         <v>44015</v>
       </c>
@@ -4511,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="20">
         <v>44016</v>
       </c>
@@ -4543,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="29">
         <v>44017</v>
       </c>
@@ -4575,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="20">
         <v>44018</v>
       </c>
@@ -4607,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>44019</v>
       </c>
@@ -4639,7 +4638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="20">
         <v>44020</v>
       </c>
@@ -4671,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="29">
         <v>44021</v>
       </c>
@@ -4703,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <v>44022</v>
       </c>
@@ -4735,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="29">
         <v>44023</v>
       </c>
@@ -4767,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="20">
         <v>44024</v>
       </c>
@@ -4799,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>44025</v>
       </c>
@@ -4831,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="33">
         <v>44026</v>
       </c>
@@ -4863,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="36">
         <v>44027</v>
       </c>
@@ -4895,7 +4894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="33">
         <v>44028</v>
       </c>
@@ -4927,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="36">
         <v>44029</v>
       </c>
@@ -4959,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="39">
         <v>44030</v>
       </c>
@@ -4991,7 +4990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="39">
         <v>44031</v>
       </c>
@@ -5023,7 +5022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="33">
         <v>44032</v>
       </c>
@@ -5055,7 +5054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="36">
         <v>44033</v>
       </c>
@@ -5087,7 +5086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="33">
         <v>44034</v>
       </c>
@@ -5119,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="33">
         <v>44035</v>
       </c>
@@ -5151,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="42">
         <v>44036</v>
       </c>
@@ -5183,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="33">
         <v>44037</v>
       </c>
@@ -5215,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="33">
         <v>44038</v>
       </c>
@@ -5247,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="33">
         <v>44039</v>
       </c>
@@ -5279,7 +5278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="33">
         <v>44040</v>
       </c>
@@ -5311,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="33">
         <v>44041</v>
       </c>
@@ -5343,7 +5342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="33">
         <v>44042</v>
       </c>
@@ -5375,7 +5374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="36">
         <v>44043</v>
       </c>
@@ -5407,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="42">
         <v>44044</v>
       </c>
@@ -5439,7 +5438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="42">
         <v>44045</v>
       </c>
@@ -5471,7 +5470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="42">
         <v>44046</v>
       </c>
@@ -5503,7 +5502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="42">
         <v>44047</v>
       </c>
@@ -5535,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="42">
         <v>44048</v>
       </c>
@@ -5567,7 +5566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="42">
         <v>44049</v>
       </c>
@@ -5599,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="42">
         <v>44050</v>
       </c>
@@ -5631,7 +5630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="42">
         <v>44051</v>
       </c>
@@ -5663,7 +5662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="33">
         <v>44052</v>
       </c>
@@ -5695,7 +5694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="33">
         <v>44053</v>
       </c>
@@ -5727,7 +5726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="33">
         <v>44054</v>
       </c>
@@ -5759,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="33">
         <v>44055</v>
       </c>
@@ -5791,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="33">
         <v>44056</v>
       </c>
@@ -5823,7 +5822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="33">
         <v>44057</v>
       </c>
@@ -5855,7 +5854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="33">
         <v>44058</v>
       </c>
@@ -5887,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="33">
         <v>44059</v>
       </c>
@@ -5919,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="33">
         <v>44060</v>
       </c>
@@ -5951,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="33">
         <v>44061</v>
       </c>
@@ -5983,7 +5982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="33">
         <v>44062</v>
       </c>
@@ -6015,7 +6014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="33">
         <v>44063</v>
       </c>
@@ -6047,7 +6046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="33">
         <v>44064</v>
       </c>
@@ -6079,7 +6078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="33">
         <v>44065</v>
       </c>
@@ -6111,7 +6110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="33">
         <v>44066</v>
       </c>
@@ -6143,7 +6142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="33">
         <v>44067</v>
       </c>
@@ -6175,7 +6174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="33">
         <v>44068</v>
       </c>
@@ -6207,7 +6206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="33">
         <v>44069</v>
       </c>
@@ -6239,31 +6238,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A170" s="32"/>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="33">
+        <v>44070</v>
+      </c>
+      <c r="B170" s="34">
+        <v>154771</v>
+      </c>
+      <c r="C170" s="35">
+        <v>1338</v>
+      </c>
+      <c r="D170" s="35">
+        <v>2797</v>
+      </c>
+      <c r="E170" s="35">
+        <v>42</v>
+      </c>
+      <c r="F170" s="35">
+        <v>22</v>
+      </c>
+      <c r="G170" s="35">
+        <v>1</v>
+      </c>
+      <c r="H170" s="35">
+        <v>4</v>
+      </c>
+      <c r="I170" s="35">
+        <v>133</v>
+      </c>
+      <c r="J170" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="32"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="32"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="32" t="s">
         <v>13</v>
       </c>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Za objavo na GOV.SI\ang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6DFAF0-97D4-479E-A48B-0F99C383398D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
@@ -512,8 +513,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J170" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J170">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J171" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J171" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -526,16 +527,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -808,29 +809,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J180"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A143" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J173" sqref="J173"/>
+      <selection activeCell="I172" sqref="I172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -862,7 +863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>43902</v>
       </c>
@@ -894,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>43903</v>
       </c>
@@ -926,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>43904</v>
       </c>
@@ -958,7 +959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>43905</v>
       </c>
@@ -990,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>43906</v>
       </c>
@@ -1022,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>43907</v>
       </c>
@@ -1054,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>43908</v>
       </c>
@@ -1086,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>43909</v>
       </c>
@@ -1118,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>43910</v>
       </c>
@@ -1150,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>43911</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>43912</v>
       </c>
@@ -1214,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -1246,7 +1247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>43914</v>
       </c>
@@ -1278,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>43915</v>
       </c>
@@ -1310,7 +1311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>43916</v>
       </c>
@@ -1342,7 +1343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>43917</v>
       </c>
@@ -1374,7 +1375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>43918</v>
       </c>
@@ -1406,7 +1407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>43919</v>
       </c>
@@ -1438,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>43920</v>
       </c>
@@ -1470,7 +1471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>43921</v>
       </c>
@@ -1502,7 +1503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>43922</v>
       </c>
@@ -1534,7 +1535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>43923</v>
       </c>
@@ -1566,7 +1567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>43924</v>
       </c>
@@ -1598,7 +1599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>43925</v>
       </c>
@@ -1630,7 +1631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>43926</v>
       </c>
@@ -1662,7 +1663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>43927</v>
       </c>
@@ -1694,7 +1695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>43928</v>
       </c>
@@ -1726,7 +1727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>43929</v>
       </c>
@@ -1758,7 +1759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>43930</v>
       </c>
@@ -1790,7 +1791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>43931</v>
       </c>
@@ -1822,7 +1823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>43932</v>
       </c>
@@ -1854,7 +1855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>43933</v>
       </c>
@@ -1886,7 +1887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>43934</v>
       </c>
@@ -1918,7 +1919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>43935</v>
       </c>
@@ -1950,7 +1951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>43936</v>
       </c>
@@ -1982,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>43937</v>
       </c>
@@ -2014,7 +2015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>43938</v>
       </c>
@@ -2046,7 +2047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>43939</v>
       </c>
@@ -2078,7 +2079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>43940</v>
       </c>
@@ -2110,7 +2111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>43941</v>
       </c>
@@ -2142,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>43942</v>
       </c>
@@ -2174,7 +2175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>43943</v>
       </c>
@@ -2206,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43944</v>
       </c>
@@ -2238,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>43945</v>
       </c>
@@ -2270,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>43946</v>
       </c>
@@ -2302,7 +2303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>43947</v>
       </c>
@@ -2334,7 +2335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>43948</v>
       </c>
@@ -2366,7 +2367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>43949</v>
       </c>
@@ -2398,7 +2399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>43950</v>
       </c>
@@ -2430,7 +2431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>43951</v>
       </c>
@@ -2462,7 +2463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>43952</v>
       </c>
@@ -2494,7 +2495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>43953</v>
       </c>
@@ -2526,7 +2527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>43954</v>
       </c>
@@ -2558,7 +2559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>43955</v>
       </c>
@@ -2590,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>43956</v>
       </c>
@@ -2622,7 +2623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>43957</v>
       </c>
@@ -2654,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>43958</v>
       </c>
@@ -2686,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>43959</v>
       </c>
@@ -2718,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>43960</v>
       </c>
@@ -2750,7 +2751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>43961</v>
       </c>
@@ -2782,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>43962</v>
       </c>
@@ -2814,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>43963</v>
       </c>
@@ -2846,7 +2847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
         <v>43964</v>
       </c>
@@ -2878,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
         <v>43965</v>
       </c>
@@ -2910,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>43966</v>
       </c>
@@ -2942,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
         <v>43967</v>
       </c>
@@ -2974,7 +2975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>43968</v>
       </c>
@@ -3006,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
         <v>43969</v>
       </c>
@@ -3038,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>43970</v>
       </c>
@@ -3070,7 +3071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="20">
         <v>43971</v>
       </c>
@@ -3102,7 +3103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <v>43972</v>
       </c>
@@ -3134,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="20">
         <v>43973</v>
       </c>
@@ -3166,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="17">
         <v>43974</v>
       </c>
@@ -3198,7 +3199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="20">
         <v>43975</v>
       </c>
@@ -3230,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="20">
         <v>43976</v>
       </c>
@@ -3262,7 +3263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="20">
         <v>43977</v>
       </c>
@@ -3294,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="20">
         <v>43978</v>
       </c>
@@ -3326,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="20">
         <v>43979</v>
       </c>
@@ -3358,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="20">
         <v>43980</v>
       </c>
@@ -3390,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="20">
         <v>43981</v>
       </c>
@@ -3422,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="20">
         <v>43982</v>
       </c>
@@ -3454,7 +3455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="20">
         <v>43983</v>
       </c>
@@ -3486,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="20">
         <v>43984</v>
       </c>
@@ -3518,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="20">
         <v>43985</v>
       </c>
@@ -3550,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="26">
         <v>43986</v>
       </c>
@@ -3582,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="29">
         <v>43987</v>
       </c>
@@ -3614,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <v>43988</v>
       </c>
@@ -3646,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="29">
         <v>43989</v>
       </c>
@@ -3678,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="20">
         <v>43990</v>
       </c>
@@ -3710,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="20">
         <v>43991</v>
       </c>
@@ -3742,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <v>43992</v>
       </c>
@@ -3774,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="29">
         <v>43993</v>
       </c>
@@ -3806,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
         <v>43994</v>
       </c>
@@ -3838,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="29">
         <v>43995</v>
       </c>
@@ -3870,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <v>43996</v>
       </c>
@@ -3902,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="20">
         <v>43997</v>
       </c>
@@ -3934,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="20">
         <v>43998</v>
       </c>
@@ -3966,7 +3967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="29">
         <v>43999</v>
       </c>
@@ -3998,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="20">
         <v>44000</v>
       </c>
@@ -4030,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="29">
         <v>44001</v>
       </c>
@@ -4062,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="23">
         <v>44002</v>
       </c>
@@ -4094,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="29">
         <v>44003</v>
       </c>
@@ -4126,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="29">
         <v>44004</v>
       </c>
@@ -4158,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="29">
         <v>44005</v>
       </c>
@@ -4190,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
         <v>44006</v>
       </c>
@@ -4222,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="29">
         <v>44007</v>
       </c>
@@ -4254,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="29">
         <v>44008</v>
       </c>
@@ -4286,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="29">
         <v>44009</v>
       </c>
@@ -4318,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="29">
         <v>44010</v>
       </c>
@@ -4350,7 +4351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="29">
         <v>44011</v>
       </c>
@@ -4382,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="20">
         <v>44012</v>
       </c>
@@ -4414,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="20">
         <v>44013</v>
       </c>
@@ -4446,7 +4447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="20">
         <v>44014</v>
       </c>
@@ -4478,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="20">
         <v>44015</v>
       </c>
@@ -4510,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="20">
         <v>44016</v>
       </c>
@@ -4542,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="29">
         <v>44017</v>
       </c>
@@ -4574,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="20">
         <v>44018</v>
       </c>
@@ -4606,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>44019</v>
       </c>
@@ -4638,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="20">
         <v>44020</v>
       </c>
@@ -4670,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="29">
         <v>44021</v>
       </c>
@@ -4702,7 +4703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="23">
         <v>44022</v>
       </c>
@@ -4734,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="29">
         <v>44023</v>
       </c>
@@ -4766,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="20">
         <v>44024</v>
       </c>
@@ -4798,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>44025</v>
       </c>
@@ -4830,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="33">
         <v>44026</v>
       </c>
@@ -4862,7 +4863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="36">
         <v>44027</v>
       </c>
@@ -4894,7 +4895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="33">
         <v>44028</v>
       </c>
@@ -4926,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="36">
         <v>44029</v>
       </c>
@@ -4958,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="39">
         <v>44030</v>
       </c>
@@ -4990,7 +4991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="39">
         <v>44031</v>
       </c>
@@ -5022,7 +5023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="33">
         <v>44032</v>
       </c>
@@ -5054,7 +5055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="36">
         <v>44033</v>
       </c>
@@ -5086,7 +5087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="33">
         <v>44034</v>
       </c>
@@ -5118,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="33">
         <v>44035</v>
       </c>
@@ -5150,7 +5151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="42">
         <v>44036</v>
       </c>
@@ -5182,7 +5183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="33">
         <v>44037</v>
       </c>
@@ -5214,7 +5215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="33">
         <v>44038</v>
       </c>
@@ -5246,7 +5247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="33">
         <v>44039</v>
       </c>
@@ -5278,7 +5279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="33">
         <v>44040</v>
       </c>
@@ -5310,7 +5311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="33">
         <v>44041</v>
       </c>
@@ -5342,7 +5343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="33">
         <v>44042</v>
       </c>
@@ -5374,7 +5375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="36">
         <v>44043</v>
       </c>
@@ -5406,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="42">
         <v>44044</v>
       </c>
@@ -5438,7 +5439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="42">
         <v>44045</v>
       </c>
@@ -5470,7 +5471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="42">
         <v>44046</v>
       </c>
@@ -5502,7 +5503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="42">
         <v>44047</v>
       </c>
@@ -5534,7 +5535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="42">
         <v>44048</v>
       </c>
@@ -5566,7 +5567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="42">
         <v>44049</v>
       </c>
@@ -5598,7 +5599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="42">
         <v>44050</v>
       </c>
@@ -5630,7 +5631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="42">
         <v>44051</v>
       </c>
@@ -5662,7 +5663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="33">
         <v>44052</v>
       </c>
@@ -5694,7 +5695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="33">
         <v>44053</v>
       </c>
@@ -5726,7 +5727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="33">
         <v>44054</v>
       </c>
@@ -5758,7 +5759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="33">
         <v>44055</v>
       </c>
@@ -5790,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="33">
         <v>44056</v>
       </c>
@@ -5822,7 +5823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="33">
         <v>44057</v>
       </c>
@@ -5854,7 +5855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="33">
         <v>44058</v>
       </c>
@@ -5886,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="33">
         <v>44059</v>
       </c>
@@ -5918,7 +5919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="33">
         <v>44060</v>
       </c>
@@ -5950,7 +5951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="33">
         <v>44061</v>
       </c>
@@ -5982,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="33">
         <v>44062</v>
       </c>
@@ -6014,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="33">
         <v>44063</v>
       </c>
@@ -6046,7 +6047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="33">
         <v>44064</v>
       </c>
@@ -6078,7 +6079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="33">
         <v>44065</v>
       </c>
@@ -6110,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="33">
         <v>44066</v>
       </c>
@@ -6142,7 +6143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="33">
         <v>44067</v>
       </c>
@@ -6174,7 +6175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="33">
         <v>44068</v>
       </c>
@@ -6206,7 +6207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="33">
         <v>44069</v>
       </c>
@@ -6238,7 +6239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="33">
         <v>44070</v>
       </c>
@@ -6270,28 +6271,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="32"/>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A171" s="33">
+        <v>44071</v>
+      </c>
+      <c r="B171" s="34">
+        <v>157467</v>
+      </c>
+      <c r="C171" s="35">
+        <v>1328</v>
+      </c>
+      <c r="D171" s="35">
+        <v>2834</v>
+      </c>
+      <c r="E171" s="35">
+        <v>37</v>
+      </c>
+      <c r="F171" s="35">
+        <v>23</v>
+      </c>
+      <c r="G171" s="35">
+        <v>2</v>
+      </c>
+      <c r="H171" s="35">
+        <v>1</v>
+      </c>
+      <c r="I171" s="35">
+        <v>133</v>
+      </c>
+      <c r="J171" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="32"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="32" t="s">
         <v>13</v>
       </c>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6DFAF0-97D4-479E-A48B-0F99C383398D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C43D91-CA8A-44F2-A9BF-83ED0AE14A93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,8 +513,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J171" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J171" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J172" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J172" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="I172" sqref="I172"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="J174" sqref="J174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6304,7 +6304,36 @@
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A172" s="32"/>
+      <c r="A172" s="33">
+        <v>44072</v>
+      </c>
+      <c r="B172" s="34">
+        <v>156868</v>
+      </c>
+      <c r="C172" s="35">
+        <v>769</v>
+      </c>
+      <c r="D172" s="35">
+        <v>2865</v>
+      </c>
+      <c r="E172" s="35">
+        <v>31</v>
+      </c>
+      <c r="F172" s="35">
+        <v>24</v>
+      </c>
+      <c r="G172" s="35">
+        <v>2</v>
+      </c>
+      <c r="H172" s="35">
+        <v>0</v>
+      </c>
+      <c r="I172" s="35">
+        <v>133</v>
+      </c>
+      <c r="J172" s="35">
+        <v>0</v>
+      </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="32" t="s">

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Za objavo na GOV.SI\ang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C43D91-CA8A-44F2-A9BF-83ED0AE14A93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -72,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
@@ -513,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J172" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J172" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J173" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J173">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -527,16 +526,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -809,29 +808,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J180"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A150" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J174" sqref="J174"/>
+      <selection activeCell="A173" sqref="A173:J173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -863,7 +862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43902</v>
       </c>
@@ -895,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43903</v>
       </c>
@@ -927,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43904</v>
       </c>
@@ -959,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43905</v>
       </c>
@@ -991,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43906</v>
       </c>
@@ -1023,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43907</v>
       </c>
@@ -1055,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43908</v>
       </c>
@@ -1087,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43909</v>
       </c>
@@ -1119,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43910</v>
       </c>
@@ -1151,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>43911</v>
       </c>
@@ -1183,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>43912</v>
       </c>
@@ -1215,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -1247,7 +1246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>43914</v>
       </c>
@@ -1279,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>43915</v>
       </c>
@@ -1311,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>43916</v>
       </c>
@@ -1343,7 +1342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43917</v>
       </c>
@@ -1375,7 +1374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>43918</v>
       </c>
@@ -1407,7 +1406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>43919</v>
       </c>
@@ -1439,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>43920</v>
       </c>
@@ -1471,7 +1470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>43921</v>
       </c>
@@ -1503,7 +1502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>43922</v>
       </c>
@@ -1535,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>43923</v>
       </c>
@@ -1567,7 +1566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>43924</v>
       </c>
@@ -1599,7 +1598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>43925</v>
       </c>
@@ -1631,7 +1630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>43926</v>
       </c>
@@ -1663,7 +1662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>43927</v>
       </c>
@@ -1695,7 +1694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>43928</v>
       </c>
@@ -1727,7 +1726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>43929</v>
       </c>
@@ -1759,7 +1758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>43930</v>
       </c>
@@ -1791,7 +1790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>43931</v>
       </c>
@@ -1823,7 +1822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>43932</v>
       </c>
@@ -1855,7 +1854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>43933</v>
       </c>
@@ -1887,7 +1886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>43934</v>
       </c>
@@ -1919,7 +1918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>43935</v>
       </c>
@@ -1951,7 +1950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>43936</v>
       </c>
@@ -1983,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>43937</v>
       </c>
@@ -2015,7 +2014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>43938</v>
       </c>
@@ -2047,7 +2046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>43939</v>
       </c>
@@ -2079,7 +2078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>43940</v>
       </c>
@@ -2111,7 +2110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>43941</v>
       </c>
@@ -2143,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>43942</v>
       </c>
@@ -2175,7 +2174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>43943</v>
       </c>
@@ -2207,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43944</v>
       </c>
@@ -2239,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43945</v>
       </c>
@@ -2271,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>43946</v>
       </c>
@@ -2303,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>43947</v>
       </c>
@@ -2335,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>43948</v>
       </c>
@@ -2367,7 +2366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>43949</v>
       </c>
@@ -2399,7 +2398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>43950</v>
       </c>
@@ -2431,7 +2430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>43951</v>
       </c>
@@ -2463,7 +2462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>43952</v>
       </c>
@@ -2495,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>43953</v>
       </c>
@@ -2527,7 +2526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>43954</v>
       </c>
@@ -2559,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>43955</v>
       </c>
@@ -2591,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>43956</v>
       </c>
@@ -2623,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>43957</v>
       </c>
@@ -2655,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>43958</v>
       </c>
@@ -2687,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>43959</v>
       </c>
@@ -2719,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>43960</v>
       </c>
@@ -2751,7 +2750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>43961</v>
       </c>
@@ -2783,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>43962</v>
       </c>
@@ -2815,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>43963</v>
       </c>
@@ -2847,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
         <v>43964</v>
       </c>
@@ -2879,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>43965</v>
       </c>
@@ -2911,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>43966</v>
       </c>
@@ -2943,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>43967</v>
       </c>
@@ -2975,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>43968</v>
       </c>
@@ -3007,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>43969</v>
       </c>
@@ -3039,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>43970</v>
       </c>
@@ -3071,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>43971</v>
       </c>
@@ -3103,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>43972</v>
       </c>
@@ -3135,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
         <v>43973</v>
       </c>
@@ -3167,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
         <v>43974</v>
       </c>
@@ -3199,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="20">
         <v>43975</v>
       </c>
@@ -3231,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>43976</v>
       </c>
@@ -3263,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
         <v>43977</v>
       </c>
@@ -3295,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
         <v>43978</v>
       </c>
@@ -3327,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="20">
         <v>43979</v>
       </c>
@@ -3359,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>43980</v>
       </c>
@@ -3391,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="20">
         <v>43981</v>
       </c>
@@ -3423,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="20">
         <v>43982</v>
       </c>
@@ -3455,7 +3454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="20">
         <v>43983</v>
       </c>
@@ -3487,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="20">
         <v>43984</v>
       </c>
@@ -3519,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="20">
         <v>43985</v>
       </c>
@@ -3551,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="26">
         <v>43986</v>
       </c>
@@ -3583,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="29">
         <v>43987</v>
       </c>
@@ -3615,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>43988</v>
       </c>
@@ -3647,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="29">
         <v>43989</v>
       </c>
@@ -3679,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="20">
         <v>43990</v>
       </c>
@@ -3711,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="20">
         <v>43991</v>
       </c>
@@ -3743,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>43992</v>
       </c>
@@ -3775,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="29">
         <v>43993</v>
       </c>
@@ -3807,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>43994</v>
       </c>
@@ -3839,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="29">
         <v>43995</v>
       </c>
@@ -3871,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>43996</v>
       </c>
@@ -3903,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="20">
         <v>43997</v>
       </c>
@@ -3935,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="20">
         <v>43998</v>
       </c>
@@ -3967,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="29">
         <v>43999</v>
       </c>
@@ -3999,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="20">
         <v>44000</v>
       </c>
@@ -4031,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="29">
         <v>44001</v>
       </c>
@@ -4063,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>44002</v>
       </c>
@@ -4095,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="29">
         <v>44003</v>
       </c>
@@ -4127,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="29">
         <v>44004</v>
       </c>
@@ -4159,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="29">
         <v>44005</v>
       </c>
@@ -4191,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>44006</v>
       </c>
@@ -4223,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="29">
         <v>44007</v>
       </c>
@@ -4255,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="29">
         <v>44008</v>
       </c>
@@ -4287,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="29">
         <v>44009</v>
       </c>
@@ -4319,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="29">
         <v>44010</v>
       </c>
@@ -4351,7 +4350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="29">
         <v>44011</v>
       </c>
@@ -4383,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="20">
         <v>44012</v>
       </c>
@@ -4415,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="20">
         <v>44013</v>
       </c>
@@ -4447,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="20">
         <v>44014</v>
       </c>
@@ -4479,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="20">
         <v>44015</v>
       </c>
@@ -4511,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="20">
         <v>44016</v>
       </c>
@@ -4543,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="29">
         <v>44017</v>
       </c>
@@ -4575,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="20">
         <v>44018</v>
       </c>
@@ -4607,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>44019</v>
       </c>
@@ -4639,7 +4638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="20">
         <v>44020</v>
       </c>
@@ -4671,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="29">
         <v>44021</v>
       </c>
@@ -4703,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <v>44022</v>
       </c>
@@ -4735,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="29">
         <v>44023</v>
       </c>
@@ -4767,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="20">
         <v>44024</v>
       </c>
@@ -4799,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>44025</v>
       </c>
@@ -4831,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="33">
         <v>44026</v>
       </c>
@@ -4863,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="36">
         <v>44027</v>
       </c>
@@ -4895,7 +4894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="33">
         <v>44028</v>
       </c>
@@ -4927,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="36">
         <v>44029</v>
       </c>
@@ -4959,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="39">
         <v>44030</v>
       </c>
@@ -4991,7 +4990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="39">
         <v>44031</v>
       </c>
@@ -5023,7 +5022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="33">
         <v>44032</v>
       </c>
@@ -5055,7 +5054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="36">
         <v>44033</v>
       </c>
@@ -5087,7 +5086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="33">
         <v>44034</v>
       </c>
@@ -5119,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="33">
         <v>44035</v>
       </c>
@@ -5151,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="42">
         <v>44036</v>
       </c>
@@ -5183,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="33">
         <v>44037</v>
       </c>
@@ -5215,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="33">
         <v>44038</v>
       </c>
@@ -5247,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="33">
         <v>44039</v>
       </c>
@@ -5279,7 +5278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="33">
         <v>44040</v>
       </c>
@@ -5311,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="33">
         <v>44041</v>
       </c>
@@ -5343,7 +5342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="33">
         <v>44042</v>
       </c>
@@ -5375,7 +5374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="36">
         <v>44043</v>
       </c>
@@ -5407,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="42">
         <v>44044</v>
       </c>
@@ -5439,7 +5438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="42">
         <v>44045</v>
       </c>
@@ -5471,7 +5470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="42">
         <v>44046</v>
       </c>
@@ -5503,7 +5502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="42">
         <v>44047</v>
       </c>
@@ -5535,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="42">
         <v>44048</v>
       </c>
@@ -5567,7 +5566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="42">
         <v>44049</v>
       </c>
@@ -5599,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="42">
         <v>44050</v>
       </c>
@@ -5631,7 +5630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="42">
         <v>44051</v>
       </c>
@@ -5663,7 +5662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="33">
         <v>44052</v>
       </c>
@@ -5695,7 +5694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="33">
         <v>44053</v>
       </c>
@@ -5727,7 +5726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="33">
         <v>44054</v>
       </c>
@@ -5759,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="33">
         <v>44055</v>
       </c>
@@ -5791,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="33">
         <v>44056</v>
       </c>
@@ -5823,7 +5822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="33">
         <v>44057</v>
       </c>
@@ -5855,7 +5854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="33">
         <v>44058</v>
       </c>
@@ -5887,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="33">
         <v>44059</v>
       </c>
@@ -5919,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="33">
         <v>44060</v>
       </c>
@@ -5951,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="33">
         <v>44061</v>
       </c>
@@ -5983,7 +5982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="33">
         <v>44062</v>
       </c>
@@ -6015,7 +6014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="33">
         <v>44063</v>
       </c>
@@ -6047,7 +6046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="33">
         <v>44064</v>
       </c>
@@ -6079,7 +6078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="33">
         <v>44065</v>
       </c>
@@ -6111,7 +6110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="33">
         <v>44066</v>
       </c>
@@ -6143,7 +6142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="33">
         <v>44067</v>
       </c>
@@ -6175,7 +6174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="33">
         <v>44068</v>
       </c>
@@ -6207,7 +6206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="33">
         <v>44069</v>
       </c>
@@ -6239,7 +6238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="33">
         <v>44070</v>
       </c>
@@ -6271,12 +6270,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="33">
         <v>44071</v>
       </c>
       <c r="B171" s="34">
-        <v>157467</v>
+        <v>156099</v>
       </c>
       <c r="C171" s="35">
         <v>1328</v>
@@ -6303,7 +6302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="33">
         <v>44072</v>
       </c>
@@ -6335,22 +6334,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="33">
+        <v>44073</v>
+      </c>
+      <c r="B173" s="34">
+        <v>157456</v>
+      </c>
+      <c r="C173" s="35">
+        <v>588</v>
+      </c>
+      <c r="D173" s="35">
+        <v>2883</v>
+      </c>
+      <c r="E173" s="35">
+        <v>31</v>
+      </c>
+      <c r="F173" s="35">
+        <v>25</v>
+      </c>
+      <c r="G173" s="35">
+        <v>3</v>
+      </c>
+      <c r="H173" s="35">
+        <v>0</v>
+      </c>
+      <c r="I173" s="35">
+        <v>133</v>
+      </c>
+      <c r="J173" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="32" t="s">
         <v>13</v>
       </c>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B0B0A6-7A53-427C-B375-7FF3755FF2F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="2895" yWindow="2895" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
@@ -189,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -322,6 +323,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,8 +522,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J173" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J173">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J174" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J174" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -526,16 +536,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -808,11 +818,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A173" sqref="A173:J173"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="A174" sqref="A174:J174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6335,34 +6345,66 @@
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="33">
+      <c r="A173" s="47">
         <v>44073</v>
       </c>
-      <c r="B173" s="34">
+      <c r="B173" s="45">
         <v>157456</v>
       </c>
-      <c r="C173" s="35">
+      <c r="C173" s="46">
         <v>588</v>
       </c>
-      <c r="D173" s="35">
+      <c r="D173" s="46">
         <v>2883</v>
       </c>
-      <c r="E173" s="35">
-        <v>31</v>
-      </c>
-      <c r="F173" s="35">
+      <c r="E173" s="46">
+        <v>18</v>
+      </c>
+      <c r="F173" s="46">
         <v>25</v>
       </c>
-      <c r="G173" s="35">
+      <c r="G173" s="46">
         <v>3</v>
       </c>
-      <c r="H173" s="35">
-        <v>0</v>
-      </c>
-      <c r="I173" s="35">
+      <c r="H173" s="46">
+        <v>0</v>
+      </c>
+      <c r="I173" s="46">
         <v>133</v>
       </c>
-      <c r="J173" s="35">
+      <c r="J173" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="33">
+        <v>44074</v>
+      </c>
+      <c r="B174" s="34">
+        <v>158871</v>
+      </c>
+      <c r="C174" s="35">
+        <v>1415</v>
+      </c>
+      <c r="D174" s="35">
+        <v>2924</v>
+      </c>
+      <c r="E174" s="35">
+        <v>41</v>
+      </c>
+      <c r="F174" s="35">
+        <v>25</v>
+      </c>
+      <c r="G174" s="35">
+        <v>2</v>
+      </c>
+      <c r="H174" s="35">
+        <v>3</v>
+      </c>
+      <c r="I174" s="35">
+        <v>133</v>
+      </c>
+      <c r="J174" s="35">
         <v>0</v>
       </c>
     </row>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B0B0A6-7A53-427C-B375-7FF3755FF2F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="2895" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="2895" windowWidth="21600" windowHeight="11325"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -72,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
@@ -522,8 +521,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J174" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J174" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J175" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J175">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -536,16 +535,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -818,11 +817,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J180"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A163" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A174" sqref="A174:J174"/>
+      <selection activeCell="A175" sqref="A175:J175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6408,6 +6407,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="33">
+        <v>44075</v>
+      </c>
+      <c r="B175" s="34">
+        <v>160479</v>
+      </c>
+      <c r="C175" s="35">
+        <v>1608</v>
+      </c>
+      <c r="D175" s="35">
+        <v>2979</v>
+      </c>
+      <c r="E175" s="35">
+        <v>55</v>
+      </c>
+      <c r="F175" s="35">
+        <v>26</v>
+      </c>
+      <c r="G175" s="35">
+        <v>4</v>
+      </c>
+      <c r="H175" s="35">
+        <v>2</v>
+      </c>
+      <c r="I175" s="35">
+        <v>134</v>
+      </c>
+      <c r="J175" s="35">
+        <v>1</v>
+      </c>
+    </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="32" t="s">
         <v>10</v>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -126,12 +126,16 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -521,8 +525,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J175" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J175">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J176" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J176">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -818,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J180"/>
+  <dimension ref="A1:J200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A163" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A175" sqref="A175:J175"/>
+      <selection activeCell="A197" sqref="A197:O200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6439,23 +6443,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="32" t="s">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="4">
+        <v>44076</v>
+      </c>
+      <c r="B176" s="7">
+        <v>162132</v>
+      </c>
+      <c r="C176" s="5">
+        <v>1653</v>
+      </c>
+      <c r="D176" s="5">
+        <v>3032</v>
+      </c>
+      <c r="E176" s="5">
+        <v>53</v>
+      </c>
+      <c r="F176" s="5">
+        <v>26</v>
+      </c>
+      <c r="G176" s="5">
+        <v>4</v>
+      </c>
+      <c r="H176" s="5">
+        <v>3</v>
+      </c>
+      <c r="I176" s="5">
+        <v>134</v>
+      </c>
+      <c r="J176" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="32" t="s">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="32" t="s">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="32" t="s">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="32" t="s">
         <v>13</v>
       </c>
     </row>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C01666-8635-489A-AAF6-4FCD6BE7C682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="2895" windowWidth="21600" windowHeight="11325"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -71,11 +72,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/\ m/\ yyyy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +139,12 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -193,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -335,6 +342,15 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,8 +541,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J176" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J176">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J177" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J177" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -539,16 +555,16 @@
     <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" name="Tested (all)" dataDxfId="8"/>
-    <tableColumn id="3" name="Tested (daily)" dataDxfId="7"/>
-    <tableColumn id="4" name="Positive (all)" dataDxfId="6"/>
-    <tableColumn id="5" name="Positive (daily)" dataDxfId="5"/>
-    <tableColumn id="6" name="All hospitalized on certain day" dataDxfId="4"/>
-    <tableColumn id="7" name="All persons in intensive care on certain day" dataDxfId="3"/>
-    <tableColumn id="10" name="Discharged" dataDxfId="2"/>
-    <tableColumn id="8" name="Deaths (all)" dataDxfId="1"/>
-    <tableColumn id="9" name="Deaths (daily)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tested (all)" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tested (daily)" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Positive (all)" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Positive (daily)" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="All hospitalized on certain day" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="All persons in intensive care on certain day" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discharged" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Deaths (all)" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Deaths (daily)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -821,11 +837,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A163" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A197" sqref="A197:O200"/>
+      <selection activeCell="A177" sqref="A177:J177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6475,6 +6491,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="48">
+        <v>44077</v>
+      </c>
+      <c r="B177" s="49">
+        <v>163865</v>
+      </c>
+      <c r="C177" s="50">
+        <v>1733</v>
+      </c>
+      <c r="D177" s="50">
+        <v>3079</v>
+      </c>
+      <c r="E177" s="50">
+        <v>47</v>
+      </c>
+      <c r="F177" s="50">
+        <v>24</v>
+      </c>
+      <c r="G177" s="50">
+        <v>3</v>
+      </c>
+      <c r="H177" s="50">
+        <v>4</v>
+      </c>
+      <c r="I177" s="50">
+        <v>134</v>
+      </c>
+      <c r="J177" s="50">
+        <v>0</v>
+      </c>
+    </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="32" t="s">
         <v>10</v>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C01666-8635-489A-AAF6-4FCD6BE7C682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38310FE7-2317-4958-A530-B1EE62CDBF04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -541,8 +541,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J177" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J177" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J178" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J178" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -841,25 +841,25 @@
   <dimension ref="A1:J200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A163" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A177" sqref="A177:J177"/>
+      <selection activeCell="J181" sqref="J181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -891,7 +891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>43902</v>
       </c>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>43903</v>
       </c>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>43904</v>
       </c>
@@ -987,7 +987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>43905</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>43906</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>43907</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>43908</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>43909</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>43910</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>43911</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>43912</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>43914</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>43915</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>43916</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>43917</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>43918</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>43919</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>43920</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>43921</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>43922</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>43923</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>43924</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>43925</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>43926</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>43927</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>43928</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>43929</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>43930</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>43931</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>43932</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>43933</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>43934</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>43935</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>43936</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>43937</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>43938</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>43939</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>43940</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>43941</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>43942</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>43943</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43944</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>43945</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>43946</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>43947</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>43948</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>43949</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>43950</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>43951</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>43952</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>43953</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>43954</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>43955</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>43956</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>43957</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>43958</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>43959</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>43960</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>43961</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>43962</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>43963</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
         <v>43964</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
         <v>43965</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>43966</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
         <v>43967</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>43968</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
         <v>43969</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>43970</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="20">
         <v>43971</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <v>43972</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="20">
         <v>43973</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="17">
         <v>43974</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="20">
         <v>43975</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="20">
         <v>43976</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="20">
         <v>43977</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="20">
         <v>43978</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="20">
         <v>43979</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="20">
         <v>43980</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="20">
         <v>43981</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="20">
         <v>43982</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="20">
         <v>43983</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="20">
         <v>43984</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="20">
         <v>43985</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="26">
         <v>43986</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="29">
         <v>43987</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <v>43988</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="29">
         <v>43989</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="20">
         <v>43990</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="20">
         <v>43991</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <v>43992</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="29">
         <v>43993</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
         <v>43994</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="29">
         <v>43995</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <v>43996</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="20">
         <v>43997</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="20">
         <v>43998</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="29">
         <v>43999</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="20">
         <v>44000</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="29">
         <v>44001</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="23">
         <v>44002</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="29">
         <v>44003</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="29">
         <v>44004</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="29">
         <v>44005</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
         <v>44006</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="29">
         <v>44007</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="29">
         <v>44008</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="29">
         <v>44009</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="29">
         <v>44010</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="29">
         <v>44011</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="20">
         <v>44012</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="20">
         <v>44013</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="20">
         <v>44014</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="20">
         <v>44015</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="20">
         <v>44016</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="29">
         <v>44017</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="20">
         <v>44018</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>44019</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="20">
         <v>44020</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="29">
         <v>44021</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="23">
         <v>44022</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="29">
         <v>44023</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="20">
         <v>44024</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>44025</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="33">
         <v>44026</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="36">
         <v>44027</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="33">
         <v>44028</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="36">
         <v>44029</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="39">
         <v>44030</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="39">
         <v>44031</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="33">
         <v>44032</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="36">
         <v>44033</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="33">
         <v>44034</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="33">
         <v>44035</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="42">
         <v>44036</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="33">
         <v>44037</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="33">
         <v>44038</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="33">
         <v>44039</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="33">
         <v>44040</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="33">
         <v>44041</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="33">
         <v>44042</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="36">
         <v>44043</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="42">
         <v>44044</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="42">
         <v>44045</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="42">
         <v>44046</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="42">
         <v>44047</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="42">
         <v>44048</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="42">
         <v>44049</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="42">
         <v>44050</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="42">
         <v>44051</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="33">
         <v>44052</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="33">
         <v>44053</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="33">
         <v>44054</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="33">
         <v>44055</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="33">
         <v>44056</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="33">
         <v>44057</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="33">
         <v>44058</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="33">
         <v>44059</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="33">
         <v>44060</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="33">
         <v>44061</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="33">
         <v>44062</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="33">
         <v>44063</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="33">
         <v>44064</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="33">
         <v>44065</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="33">
         <v>44066</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="33">
         <v>44067</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="33">
         <v>44068</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="33">
         <v>44069</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="33">
         <v>44070</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="33">
         <v>44071</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="33">
         <v>44072</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="47">
         <v>44073</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="33">
         <v>44074</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="33">
         <v>44075</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>44076</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="48">
         <v>44077</v>
       </c>
@@ -6523,22 +6523,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A178" s="48">
+        <v>44078</v>
+      </c>
+      <c r="B178" s="49">
+        <v>165573</v>
+      </c>
+      <c r="C178" s="50">
+        <v>1708</v>
+      </c>
+      <c r="D178" s="50">
+        <v>3122</v>
+      </c>
+      <c r="E178" s="50">
+        <v>43</v>
+      </c>
+      <c r="F178" s="50">
+        <v>22</v>
+      </c>
+      <c r="G178" s="50">
+        <v>3</v>
+      </c>
+      <c r="H178" s="50">
+        <v>5</v>
+      </c>
+      <c r="I178" s="50">
+        <v>135</v>
+      </c>
+      <c r="J178" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="32" t="s">
         <v>13</v>
       </c>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38310FE7-2317-4958-A530-B1EE62CDBF04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4EB41F-8F61-48EA-B4AE-65CE6BED0E05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -541,8 +541,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J178" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J178" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J179" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J179" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -840,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J181" sqref="J181"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="G183" sqref="G183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6555,6 +6555,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A179" s="48">
+        <v>44079</v>
+      </c>
+      <c r="B179" s="49">
+        <v>166785</v>
+      </c>
+      <c r="C179" s="50">
+        <v>1212</v>
+      </c>
+      <c r="D179" s="50">
+        <v>3165</v>
+      </c>
+      <c r="E179" s="50">
+        <v>43</v>
+      </c>
+      <c r="F179" s="50">
+        <v>23</v>
+      </c>
+      <c r="G179" s="50">
+        <v>3</v>
+      </c>
+      <c r="H179" s="50">
+        <v>1</v>
+      </c>
+      <c r="I179" s="50">
+        <v>135</v>
+      </c>
+      <c r="J179" s="50">
+        <v>0</v>
+      </c>
+    </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="32" t="s">
         <v>10</v>

--- a/cache/daily/si/full_data.xlsx
+++ b/cache/daily/si/full_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Za objavo na GOV.SI\ang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AKTUALNI PODATKI - KORONA\Za objavo na GOV.SI\ang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4EB41F-8F61-48EA-B4AE-65CE6BED0E05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1460A84-2F34-407B-A897-E21A250A13EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid-19 podatki" sheetId="1" r:id="rId1"/>
@@ -541,8 +541,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J179" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J179" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:J180" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J180" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -841,25 +841,25 @@
   <dimension ref="A1:J200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A166" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="G183" sqref="G183"/>
+      <selection activeCell="A180" sqref="A180:J180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -891,7 +891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43902</v>
       </c>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43903</v>
       </c>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43904</v>
       </c>
@@ -987,7 +987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43905</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43906</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43907</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43908</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43909</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43910</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>43911</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>43912</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>43914</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>43915</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>43916</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43917</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>43918</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>43919</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>43920</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>43921</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>43922</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>43923</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>43924</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>43925</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>43926</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>43927</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>43928</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>43929</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>43930</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>43931</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>43932</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>43933</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>43934</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>43935</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>43936</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>43937</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>43938</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>43939</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>43940</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>43941</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>43942</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>43943</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43944</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43945</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>43946</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>43947</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>43948</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>43949</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>43950</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>43951</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>43952</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>43953</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>43954</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>43955</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>43956</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>43957</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>43958</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>43959</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>43960</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>43961</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>43962</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>43963</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
         <v>43964</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>43965</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>43966</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>43967</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>43968</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>43969</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>43970</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>43971</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>43972</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
         <v>43973</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
         <v>43974</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="20">
         <v>43975</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>43976</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
         <v>43977</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
         <v>43978</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="20">
         <v>43979</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>43980</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="20">
         <v>43981</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="20">
         <v>43982</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="20">
         <v>43983</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="20">
         <v>43984</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="20">
         <v>43985</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="26">
         <v>43986</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="29">
         <v>43987</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>43988</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="29">
         <v>43989</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="20">
         <v>43990</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="20">
         <v>43991</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>43992</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="29">
         <v>43993</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>43994</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="29">
         <v>43995</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>43996</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="20">
         <v>43997</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="20">
         <v>43998</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="29">
         <v>43999</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="20">
         <v>44000</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="29">
         <v>44001</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>44002</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="29">
         <v>44003</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="29">
         <v>44004</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="29">
         <v>44005</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>44006</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="29">
         <v>44007</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="29">
         <v>44008</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="29">
         <v>44009</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="29">
         <v>44010</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="29">
         <v>44011</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="20">
         <v>44012</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="20">
         <v>44013</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="20">
         <v>44014</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="20">
         <v>44015</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="20">
         <v>44016</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="29">
         <v>44017</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="20">
         <v>44018</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>44019</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="20">
         <v>44020</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="29">
         <v>44021</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <v>44022</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="29">
         <v>44023</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="20">
         <v>44024</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>44025</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="33">
         <v>44026</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="36">
         <v>44027</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="33">
         <v>44028</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="36">
         <v>44029</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="39">
         <v>44030</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="39">
         <v>44031</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="33">
         <v>44032</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="36">
         <v>44033</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="33">
         <v>44034</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="33">
         <v>44035</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="42">
         <v>44036</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="33">
         <v>44037</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="33">
         <v>44038</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="33">
         <v>44039</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="33">
         <v>44040</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="33">
         <v>44041</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="33">
         <v>44042</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="36">
         <v>44043</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="42">
         <v>44044</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="42">
         <v>44045</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="42">
         <v>44046</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="42">
         <v>44047</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="42">
         <v>44048</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="42">
         <v>44049</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="42">
         <v>44050</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="42">
         <v>44051</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="33">
         <v>44052</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="33">
         <v>44053</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="33">
         <v>44054</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="33">
         <v>44055</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="33">
         <v>44056</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="33">
         <v>44057</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="33">
         <v>44058</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="33">
         <v>44059</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="33">
         <v>44060</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="33">
         <v>44061</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="33">
         <v>44062</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="33">
         <v>44063</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="33">
         <v>44064</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="33">
         <v>44065</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="33">
         <v>44066</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="33">
         <v>44067</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="33">
         <v>44068</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="33">
         <v>44069</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="33">
         <v>44070</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="33">
         <v>44071</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="33">
         <v>44072</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="47">
         <v>44073</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="33">
         <v>44074</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="33">
         <v>44075</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>44076</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="48">
         <v>44077</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="48">
         <v>44078</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="48">
         <v>44079</v>
       </c>
@@ -6587,22 +6587,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="48">
+        <v>44080</v>
+      </c>
+      <c r="B180" s="49">
+        <v>167491</v>
+      </c>
+      <c r="C180" s="50">
+        <v>706</v>
+      </c>
+      <c r="D180" s="50">
+        <v>3190</v>
+      </c>
+      <c r="E180" s="50">
+        <v>25</v>
+      </c>
+      <c r="F180" s="50">
+        <v>26</v>
+      </c>
+      <c r="G180" s="50">
+        <v>4</v>
+      </c>
+      <c r="H180" s="50">
+        <v>2</v>
+      </c>
+      <c r="I180" s="50">
+        <v>135</v>
+      </c>
+      <c r="J180" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="32" t="s">
         <v>13</v>
       </c>
